--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_19_5.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_19_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3071335.871733241</v>
+        <v>-3072053.10834872</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736551</v>
+        <v>504792.0292736553</v>
       </c>
     </row>
     <row r="9">
@@ -1142,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1221,16 +1221,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1.800799509510398e-12</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>1.346052158623934e-12</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>241.1078504188222</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>229.1191673765039</v>
@@ -1376,13 +1376,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>241.8426089909374</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>261.0144250789145</v>
       </c>
       <c r="G11" t="n">
-        <v>37.81258105876017</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>174.2835417775414</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>22.53425353909802</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>70.46388924261858</v>
+        <v>70.46388924261852</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>103.2926861902831</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>184.6142276590012</v>
       </c>
       <c r="W11" t="n">
-        <v>209.9143271369582</v>
+        <v>190.4308327701104</v>
       </c>
       <c r="X11" t="n">
-        <v>229.2145853697048</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>240.6111831659036</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,10 +1446,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8.829994649431512</v>
+        <v>8.829994649431455</v>
       </c>
       <c r="C12" t="n">
-        <v>160.0866360314548</v>
+        <v>11.09138232743803</v>
       </c>
       <c r="D12" t="n">
         <v>137.45025063969</v>
@@ -1458,16 +1458,16 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F12" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>63.44923132195231</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>56.52047122575469</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,25 +1494,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>39.02901935393511</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>145.2410726443114</v>
       </c>
       <c r="T12" t="n">
-        <v>36.49439094626081</v>
+        <v>185.4896446502776</v>
       </c>
       <c r="U12" t="n">
-        <v>67.29323155474326</v>
+        <v>67.2932315547432</v>
       </c>
       <c r="V12" t="n">
-        <v>226.1116663261494</v>
+        <v>77.11641262213254</v>
       </c>
       <c r="W12" t="n">
         <v>238.9027100790231</v>
       </c>
       <c r="X12" t="n">
-        <v>46.94256453696659</v>
+        <v>151.9433464085589</v>
       </c>
       <c r="Y12" t="n">
         <v>190.5961130869169</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>32.72456129351926</v>
+        <v>32.7245612935192</v>
       </c>
       <c r="C13" t="n">
-        <v>18.92455613891974</v>
+        <v>18.92455613891968</v>
       </c>
       <c r="D13" t="n">
-        <v>2.54592053649813</v>
+        <v>2.545920536498073</v>
       </c>
       <c r="E13" t="n">
-        <v>1.493670392277579</v>
+        <v>1.493670392277522</v>
       </c>
       <c r="F13" t="n">
-        <v>1.960594720463888</v>
+        <v>1.960594720463831</v>
       </c>
       <c r="G13" t="n">
-        <v>17.96311329697629</v>
+        <v>17.96311329697623</v>
       </c>
       <c r="H13" t="n">
-        <v>6.36370057678342</v>
+        <v>6.363700576783362</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>57.83398394224585</v>
+        <v>57.83398394224579</v>
       </c>
       <c r="T13" t="n">
-        <v>80.68894132961886</v>
+        <v>80.6889413296188</v>
       </c>
       <c r="U13" t="n">
         <v>135.3082370038742</v>
@@ -1591,10 +1591,10 @@
         <v>134.2995837637581</v>
       </c>
       <c r="X13" t="n">
-        <v>79.94468575956122</v>
+        <v>79.94468575956117</v>
       </c>
       <c r="Y13" t="n">
-        <v>70.81955351562891</v>
+        <v>70.81955351562885</v>
       </c>
     </row>
     <row r="14">
@@ -1610,16 +1610,16 @@
         <v>229.1191673765039</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>220.1004714210318</v>
       </c>
       <c r="E14" t="n">
-        <v>228.624865124865</v>
+        <v>241.8426089909374</v>
       </c>
       <c r="F14" t="n">
-        <v>261.0144250789145</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>262.3409051157629</v>
+        <v>183.5104334109381</v>
       </c>
       <c r="H14" t="n">
         <v>174.2835417775414</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>22.53425353909795</v>
       </c>
       <c r="T14" t="n">
-        <v>70.46388924261854</v>
+        <v>70.46388924261852</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>103.2926861902831</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>209.9143271369581</v>
       </c>
       <c r="X14" t="n">
-        <v>229.2145853697048</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1683,10 +1683,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>8.829994649431484</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C15" t="n">
-        <v>11.09138232743805</v>
+        <v>11.09138232743803</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1695,13 +1695,13 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>95.80294554235505</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1731,13 +1731,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>39.02901935393511</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>62.62999320503314</v>
+        <v>145.2410726443114</v>
       </c>
       <c r="T15" t="n">
-        <v>36.49439094626078</v>
+        <v>185.4896446502776</v>
       </c>
       <c r="U15" t="n">
         <v>216.28848525876</v>
@@ -1746,7 +1746,7 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W15" t="n">
-        <v>238.9027100790231</v>
+        <v>126.4799481976254</v>
       </c>
       <c r="X15" t="n">
         <v>195.9378182409833</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>32.72456129351923</v>
+        <v>32.7245612935192</v>
       </c>
       <c r="C16" t="n">
-        <v>18.92455613891971</v>
+        <v>18.92455613891968</v>
       </c>
       <c r="D16" t="n">
-        <v>2.545920536498102</v>
+        <v>2.545920536498073</v>
       </c>
       <c r="E16" t="n">
-        <v>1.493670392277551</v>
+        <v>1.493670392277522</v>
       </c>
       <c r="F16" t="n">
-        <v>1.96059472046386</v>
+        <v>1.960594720463831</v>
       </c>
       <c r="G16" t="n">
-        <v>17.96311329697625</v>
+        <v>17.96311329697623</v>
       </c>
       <c r="H16" t="n">
-        <v>6.363700576783401</v>
+        <v>6.363700576783362</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>57.83398394224582</v>
+        <v>57.83398394224579</v>
       </c>
       <c r="T16" t="n">
-        <v>80.68894132961881</v>
+        <v>80.6889413296188</v>
       </c>
       <c r="U16" t="n">
         <v>135.3082370038742</v>
@@ -1828,10 +1828,10 @@
         <v>134.2995837637581</v>
       </c>
       <c r="X16" t="n">
-        <v>79.9446857595612</v>
+        <v>79.94468575956117</v>
       </c>
       <c r="Y16" t="n">
-        <v>70.81955351562888</v>
+        <v>70.81955351562885</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>145.9083003675344</v>
+        <v>145.9083003675343</v>
       </c>
       <c r="C17" t="n">
-        <v>133.9196173252161</v>
+        <v>133.919617325216</v>
       </c>
       <c r="D17" t="n">
-        <v>124.9009213697441</v>
+        <v>124.900921369744</v>
       </c>
       <c r="E17" t="n">
-        <v>146.6430589396496</v>
+        <v>146.6430589396495</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8148750276268</v>
+        <v>165.8148750276267</v>
       </c>
       <c r="G17" t="n">
-        <v>167.1413550644751</v>
+        <v>167.141355064475</v>
       </c>
       <c r="H17" t="n">
-        <v>79.0839917262536</v>
+        <v>79.08399172625349</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1898,19 +1898,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>8.093136138995391</v>
+        <v>8.093136138995852</v>
       </c>
       <c r="V17" t="n">
-        <v>89.41467760771349</v>
+        <v>89.41467760771337</v>
       </c>
       <c r="W17" t="n">
-        <v>114.7147770856704</v>
+        <v>114.7147770856703</v>
       </c>
       <c r="X17" t="n">
-        <v>134.015035318417</v>
+        <v>134.0150353184169</v>
       </c>
       <c r="Y17" t="n">
-        <v>145.4116331146158</v>
+        <v>145.4116331146157</v>
       </c>
     </row>
     <row r="18">
@@ -1932,10 +1932,10 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>127.1165548494722</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1968,28 +1968,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>39.02901935393511</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>145.2410726443114</v>
       </c>
       <c r="T18" t="n">
-        <v>25.2074313048102</v>
+        <v>185.4896446502776</v>
       </c>
       <c r="U18" t="n">
         <v>216.28848525876</v>
       </c>
       <c r="V18" t="n">
-        <v>226.1116663261494</v>
+        <v>7.629877391239295</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2005,16 +2005,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.958367000993</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2044,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>15.36025740485484</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2053,22 +2053,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>177.4920632765506</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>284.303490707891</v>
+        <v>40.1086869525863</v>
       </c>
       <c r="V19" t="n">
-        <v>13.93314764185703</v>
+        <v>13.93314764185692</v>
       </c>
       <c r="W19" t="n">
-        <v>39.10003371247029</v>
+        <v>226.5065757028376</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2096,7 +2096,7 @@
         <v>167.141355064475</v>
       </c>
       <c r="H20" t="n">
-        <v>79.08399172625352</v>
+        <v>79.08399172625349</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,10 +2135,10 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>8.093136138995305</v>
+        <v>8.093136138995268</v>
       </c>
       <c r="V20" t="n">
-        <v>89.4146776077134</v>
+        <v>89.41467760771337</v>
       </c>
       <c r="W20" t="n">
         <v>114.7147770856703</v>
@@ -2157,13 +2157,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E21" t="n">
         <v>145.5577298436975</v>
@@ -2205,22 +2205,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>39.02901935393511</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>145.2410726443114</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>185.4896446502776</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>216.28848525876</v>
       </c>
       <c r="V21" t="n">
-        <v>226.1116663261494</v>
+        <v>225.0661972716532</v>
       </c>
       <c r="W21" t="n">
-        <v>84.55692932157362</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2242,16 +2242,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>54.59660067109749</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2260,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>40.21324716010345</v>
+        <v>40.21324716010344</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>15.36025740485484</v>
       </c>
       <c r="R22" t="n">
-        <v>135.7881746594375</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>206.8292376462626</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>38.85620756605179</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>40.10868695258633</v>
+        <v>284.303490707891</v>
       </c>
       <c r="V22" t="n">
-        <v>13.93314764185695</v>
+        <v>13.93314764185692</v>
       </c>
       <c r="W22" t="n">
-        <v>39.10003371247021</v>
+        <v>39.10003371247018</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2333,7 +2333,7 @@
         <v>167.141355064475</v>
       </c>
       <c r="H23" t="n">
-        <v>79.08399172625353</v>
+        <v>79.0839917262535</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2372,10 +2372,10 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>8.093136138995296</v>
+        <v>8.093136138995268</v>
       </c>
       <c r="V23" t="n">
-        <v>89.4146776077134</v>
+        <v>89.41467760771337</v>
       </c>
       <c r="W23" t="n">
         <v>114.7147770856703</v>
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C24" t="n">
         <v>160.0866360314548</v>
@@ -2409,10 +2409,10 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G24" t="n">
-        <v>127.1165548494722</v>
+        <v>38.83754151531721</v>
       </c>
       <c r="H24" t="n">
-        <v>95.80294554235505</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>56.52047122575469</v>
@@ -2442,28 +2442,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>39.02901935393511</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>145.2410726443114</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>2.683535385872244</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>216.28848525876</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X24" t="n">
         <v>195.9378182409833</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="25">
@@ -2491,13 +2491,13 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>155.3589542808002</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>134.5756943977516</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>40.21324716010344</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2518,28 +2518,28 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.36025740485484</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>135.7881746594375</v>
       </c>
       <c r="S25" t="n">
-        <v>182.8775397542875</v>
+        <v>190.9258611582633</v>
       </c>
       <c r="T25" t="n">
-        <v>229.6841950336356</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>40.10868695258633</v>
+        <v>40.1086869525863</v>
       </c>
       <c r="V25" t="n">
-        <v>13.93314764185695</v>
+        <v>13.93314764185692</v>
       </c>
       <c r="W25" t="n">
-        <v>39.10003371247021</v>
+        <v>39.10003371247018</v>
       </c>
       <c r="X25" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2555,25 +2555,25 @@
         <v>288.9838039006341</v>
       </c>
       <c r="C26" t="n">
-        <v>276.9951208583158</v>
+        <v>276.9951208583159</v>
       </c>
       <c r="D26" t="n">
-        <v>267.9764249028438</v>
+        <v>267.9764249028439</v>
       </c>
       <c r="E26" t="n">
-        <v>289.7185624727493</v>
+        <v>289.7185624727494</v>
       </c>
       <c r="F26" t="n">
-        <v>308.8903785607265</v>
+        <v>308.8903785607266</v>
       </c>
       <c r="G26" t="n">
-        <v>310.2168585975748</v>
+        <v>310.2168585975749</v>
       </c>
       <c r="H26" t="n">
-        <v>222.1594952593533</v>
+        <v>222.1594952593534</v>
       </c>
       <c r="I26" t="n">
-        <v>46.57653758629989</v>
+        <v>46.57653758629992</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.41020702090994</v>
+        <v>70.41020702090997</v>
       </c>
       <c r="T26" t="n">
         <v>118.3398427244305</v>
@@ -2612,13 +2612,13 @@
         <v>151.1686396720951</v>
       </c>
       <c r="V26" t="n">
-        <v>232.4901811408132</v>
+        <v>232.4901811408133</v>
       </c>
       <c r="W26" t="n">
-        <v>257.7902806187701</v>
+        <v>257.7902806187702</v>
       </c>
       <c r="X26" t="n">
-        <v>277.0905388515167</v>
+        <v>277.0905388515168</v>
       </c>
       <c r="Y26" t="n">
         <v>288.4871366477155</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>80.60051477533118</v>
+        <v>80.60051477533121</v>
       </c>
       <c r="C28" t="n">
-        <v>66.80050962073166</v>
+        <v>66.80050962073169</v>
       </c>
       <c r="D28" t="n">
-        <v>50.42187401831005</v>
+        <v>50.42187401831008</v>
       </c>
       <c r="E28" t="n">
-        <v>49.3696238740895</v>
+        <v>49.36962387408953</v>
       </c>
       <c r="F28" t="n">
-        <v>49.83654820227581</v>
+        <v>49.83654820227584</v>
       </c>
       <c r="G28" t="n">
-        <v>65.83906677878821</v>
+        <v>65.83906677878822</v>
       </c>
       <c r="H28" t="n">
-        <v>54.23965405859534</v>
+        <v>54.23965405859538</v>
       </c>
       <c r="I28" t="n">
-        <v>33.45639417554675</v>
+        <v>33.45639417554678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.6688744372327</v>
+        <v>34.66887443723273</v>
       </c>
       <c r="S28" t="n">
         <v>105.7099374240578</v>
       </c>
       <c r="T28" t="n">
-        <v>128.5648948114307</v>
+        <v>128.5648948114308</v>
       </c>
       <c r="U28" t="n">
-        <v>183.1841904856861</v>
+        <v>183.1841904856862</v>
       </c>
       <c r="V28" t="n">
         <v>157.0086511749568</v>
       </c>
       <c r="W28" t="n">
-        <v>182.17553724557</v>
+        <v>182.1755372455701</v>
       </c>
       <c r="X28" t="n">
-        <v>127.8206392413731</v>
+        <v>127.8206392413732</v>
       </c>
       <c r="Y28" t="n">
-        <v>118.6955069974408</v>
+        <v>118.6955069974409</v>
       </c>
     </row>
     <row r="29">
@@ -2798,19 +2798,19 @@
         <v>267.9764249028439</v>
       </c>
       <c r="E29" t="n">
-        <v>289.7185624727493</v>
+        <v>289.7185624727494</v>
       </c>
       <c r="F29" t="n">
-        <v>308.8903785607265</v>
+        <v>308.8903785607266</v>
       </c>
       <c r="G29" t="n">
-        <v>310.2168585975748</v>
+        <v>310.2168585975749</v>
       </c>
       <c r="H29" t="n">
-        <v>222.1594952593533</v>
+        <v>222.1594952593534</v>
       </c>
       <c r="I29" t="n">
-        <v>46.57653758629991</v>
+        <v>46.57653758629992</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.41020702090995</v>
+        <v>70.41020702090997</v>
       </c>
       <c r="T29" t="n">
         <v>118.3398427244305</v>
@@ -2849,13 +2849,13 @@
         <v>151.1686396720951</v>
       </c>
       <c r="V29" t="n">
-        <v>232.4901811408132</v>
+        <v>232.4901811408133</v>
       </c>
       <c r="W29" t="n">
-        <v>257.7902806187701</v>
+        <v>257.7902806187702</v>
       </c>
       <c r="X29" t="n">
-        <v>277.0905388515167</v>
+        <v>277.0905388515168</v>
       </c>
       <c r="Y29" t="n">
         <v>288.4871366477155</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>80.60051477533119</v>
+        <v>80.60051477533121</v>
       </c>
       <c r="C31" t="n">
-        <v>66.80050962073167</v>
+        <v>66.80050962073169</v>
       </c>
       <c r="D31" t="n">
-        <v>50.42187401831006</v>
+        <v>50.42187401831008</v>
       </c>
       <c r="E31" t="n">
-        <v>49.36962387408951</v>
+        <v>49.36962387408953</v>
       </c>
       <c r="F31" t="n">
-        <v>49.83654820227582</v>
+        <v>49.83654820227584</v>
       </c>
       <c r="G31" t="n">
-        <v>65.83906677878821</v>
+        <v>65.83906677878822</v>
       </c>
       <c r="H31" t="n">
-        <v>54.23965405859536</v>
+        <v>54.23965405859538</v>
       </c>
       <c r="I31" t="n">
-        <v>33.45639417554676</v>
+        <v>33.45639417554678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.66887443723272</v>
+        <v>34.66887443723273</v>
       </c>
       <c r="S31" t="n">
         <v>105.7099374240578</v>
@@ -3010,13 +3010,13 @@
         <v>157.0086511749568</v>
       </c>
       <c r="W31" t="n">
-        <v>182.17553724557</v>
+        <v>182.1755372455701</v>
       </c>
       <c r="X31" t="n">
         <v>127.8206392413732</v>
       </c>
       <c r="Y31" t="n">
-        <v>118.6955069974408</v>
+        <v>118.6955069974409</v>
       </c>
     </row>
     <row r="32">
@@ -3035,19 +3035,19 @@
         <v>267.9764249028439</v>
       </c>
       <c r="E32" t="n">
-        <v>289.7185624727493</v>
+        <v>289.7185624727494</v>
       </c>
       <c r="F32" t="n">
-        <v>308.8903785607265</v>
+        <v>308.8903785607266</v>
       </c>
       <c r="G32" t="n">
         <v>310.2168585975749</v>
       </c>
       <c r="H32" t="n">
-        <v>222.1594952593533</v>
+        <v>222.1594952593534</v>
       </c>
       <c r="I32" t="n">
-        <v>46.57653758629991</v>
+        <v>46.57653758629995</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,22 +3077,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>70.41020702090995</v>
+        <v>70.41020702090999</v>
       </c>
       <c r="T32" t="n">
         <v>118.3398427244305</v>
       </c>
       <c r="U32" t="n">
-        <v>151.1686396720951</v>
+        <v>151.1686396720952</v>
       </c>
       <c r="V32" t="n">
-        <v>232.4901811408132</v>
+        <v>232.4901811408133</v>
       </c>
       <c r="W32" t="n">
-        <v>257.7902806187701</v>
+        <v>257.7902806187702</v>
       </c>
       <c r="X32" t="n">
-        <v>277.0905388515167</v>
+        <v>277.0905388515168</v>
       </c>
       <c r="Y32" t="n">
         <v>288.4871366477155</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>80.60051477533119</v>
+        <v>80.60051477533123</v>
       </c>
       <c r="C34" t="n">
-        <v>66.80050962073167</v>
+        <v>66.80050962073172</v>
       </c>
       <c r="D34" t="n">
-        <v>50.42187401831006</v>
+        <v>50.42187401831011</v>
       </c>
       <c r="E34" t="n">
-        <v>49.36962387408951</v>
+        <v>49.36962387408956</v>
       </c>
       <c r="F34" t="n">
-        <v>49.83654820227582</v>
+        <v>49.83654820227586</v>
       </c>
       <c r="G34" t="n">
-        <v>65.83906677878821</v>
+        <v>65.83906677878826</v>
       </c>
       <c r="H34" t="n">
-        <v>54.23965405859536</v>
+        <v>54.23965405859539</v>
       </c>
       <c r="I34" t="n">
-        <v>33.45639417554676</v>
+        <v>33.4563941755468</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>34.66887443723272</v>
+        <v>34.66887443723276</v>
       </c>
       <c r="S34" t="n">
         <v>105.7099374240578</v>
@@ -3247,13 +3247,13 @@
         <v>157.0086511749568</v>
       </c>
       <c r="W34" t="n">
-        <v>182.17553724557</v>
+        <v>182.1755372455701</v>
       </c>
       <c r="X34" t="n">
         <v>127.8206392413732</v>
       </c>
       <c r="Y34" t="n">
-        <v>118.6955069974408</v>
+        <v>118.6955069974409</v>
       </c>
     </row>
     <row r="35">
@@ -3266,22 +3266,22 @@
         <v>218.5735968797241</v>
       </c>
       <c r="C35" t="n">
-        <v>206.5849138374058</v>
+        <v>206.5849138374059</v>
       </c>
       <c r="D35" t="n">
-        <v>197.5662178819338</v>
+        <v>197.5662178819339</v>
       </c>
       <c r="E35" t="n">
-        <v>219.3083554518393</v>
+        <v>219.3083554518394</v>
       </c>
       <c r="F35" t="n">
-        <v>238.4801715398165</v>
+        <v>238.4801715398166</v>
       </c>
       <c r="G35" t="n">
         <v>239.8066515766648</v>
       </c>
       <c r="H35" t="n">
-        <v>151.7492882384433</v>
+        <v>151.7492882384434</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3317,19 +3317,19 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>47.92963570352046</v>
+        <v>47.92963570352052</v>
       </c>
       <c r="U35" t="n">
-        <v>80.7584326511851</v>
+        <v>80.75843265118516</v>
       </c>
       <c r="V35" t="n">
-        <v>162.0799741199032</v>
+        <v>162.0799741199033</v>
       </c>
       <c r="W35" t="n">
-        <v>187.3800735978601</v>
+        <v>187.3800735978602</v>
       </c>
       <c r="X35" t="n">
-        <v>206.6803318306067</v>
+        <v>206.6803318306068</v>
       </c>
       <c r="Y35" t="n">
         <v>218.0769296268055</v>
@@ -3360,10 +3360,10 @@
         <v>127.1165548494722</v>
       </c>
       <c r="H36" t="n">
-        <v>19.47429228220996</v>
+        <v>95.80294554235505</v>
       </c>
       <c r="I36" t="n">
-        <v>56.52047122575469</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>39.02901935393511</v>
+        <v>19.22083731954506</v>
       </c>
       <c r="S36" t="n">
         <v>145.2410726443114</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>10.19030775442116</v>
+        <v>10.19030775442121</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3439,13 +3439,13 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>155.3589542808002</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>74.16662969390219</v>
       </c>
       <c r="J37" t="n">
-        <v>40.21324716010345</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>17.78282957148444</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>35.29973040314775</v>
+        <v>35.2997304031478</v>
       </c>
       <c r="T37" t="n">
-        <v>58.15468779052075</v>
+        <v>58.15468779052081</v>
       </c>
       <c r="U37" t="n">
-        <v>284.303490707891</v>
+        <v>112.7739834647762</v>
       </c>
       <c r="V37" t="n">
-        <v>86.59844415404675</v>
+        <v>86.5984441540468</v>
       </c>
       <c r="W37" t="n">
-        <v>111.76533022466</v>
+        <v>111.7653302246601</v>
       </c>
       <c r="X37" t="n">
-        <v>57.41043222046312</v>
+        <v>57.41043222046318</v>
       </c>
       <c r="Y37" t="n">
-        <v>48.28529997653081</v>
+        <v>48.28529997653087</v>
       </c>
     </row>
     <row r="38">
@@ -3503,22 +3503,22 @@
         <v>218.5735968797241</v>
       </c>
       <c r="C38" t="n">
-        <v>206.5849138374059</v>
+        <v>206.5849138374058</v>
       </c>
       <c r="D38" t="n">
-        <v>197.5662178819339</v>
+        <v>197.5662178819338</v>
       </c>
       <c r="E38" t="n">
-        <v>219.3083554518394</v>
+        <v>219.3083554518393</v>
       </c>
       <c r="F38" t="n">
-        <v>238.4801715398166</v>
+        <v>238.4801715398165</v>
       </c>
       <c r="G38" t="n">
         <v>239.8066515766648</v>
       </c>
       <c r="H38" t="n">
-        <v>151.7492882384434</v>
+        <v>151.7492882384433</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3554,19 +3554,19 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>47.92963570352052</v>
+        <v>47.92963570352046</v>
       </c>
       <c r="U38" t="n">
-        <v>80.75843265118516</v>
+        <v>80.7584326511851</v>
       </c>
       <c r="V38" t="n">
-        <v>162.0799741199033</v>
+        <v>162.0799741199032</v>
       </c>
       <c r="W38" t="n">
-        <v>187.3800735978602</v>
+        <v>187.3800735978601</v>
       </c>
       <c r="X38" t="n">
-        <v>206.6803318306068</v>
+        <v>206.6803318306067</v>
       </c>
       <c r="Y38" t="n">
         <v>218.0769296268055</v>
@@ -3597,7 +3597,7 @@
         <v>127.1165548494722</v>
       </c>
       <c r="H39" t="n">
-        <v>19.47429228220996</v>
+        <v>95.80294554235505</v>
       </c>
       <c r="I39" t="n">
         <v>56.52047122575469</v>
@@ -3627,10 +3627,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>39.02901935393511</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>145.2410726443114</v>
+        <v>107.9414387381015</v>
       </c>
       <c r="T39" t="n">
         <v>185.4896446502776</v>
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>10.19030775442121</v>
+        <v>10.19030775442116</v>
       </c>
       <c r="C40" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3670,7 +3670,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>61.60577413176588</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>35.29973040314781</v>
+        <v>35.29973040314774</v>
       </c>
       <c r="T40" t="n">
-        <v>58.15468779052081</v>
+        <v>58.15468779052075</v>
       </c>
       <c r="U40" t="n">
-        <v>112.7739834647762</v>
+        <v>112.7739834647761</v>
       </c>
       <c r="V40" t="n">
-        <v>86.5984441540468</v>
+        <v>86.59844415404675</v>
       </c>
       <c r="W40" t="n">
-        <v>111.7653302246601</v>
+        <v>169.761406956248</v>
       </c>
       <c r="X40" t="n">
-        <v>57.41043222046318</v>
+        <v>57.41043222046312</v>
       </c>
       <c r="Y40" t="n">
-        <v>48.28529997653087</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="41">
@@ -3834,7 +3834,7 @@
         <v>127.1165548494722</v>
       </c>
       <c r="H42" t="n">
-        <v>19.47429228220996</v>
+        <v>95.80294554235505</v>
       </c>
       <c r="I42" t="n">
         <v>56.52047122575469</v>
@@ -3867,7 +3867,7 @@
         <v>39.02901935393511</v>
       </c>
       <c r="S42" t="n">
-        <v>145.2410726443114</v>
+        <v>68.91241938416643</v>
       </c>
       <c r="T42" t="n">
         <v>185.4896446502776</v>
@@ -3913,7 +3913,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.99607673158767</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,19 +3946,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>35.29973040314781</v>
+        <v>35.2997304031478</v>
       </c>
       <c r="T43" t="n">
-        <v>58.15468779052081</v>
+        <v>116.1507645221085</v>
       </c>
       <c r="U43" t="n">
-        <v>112.7739834647762</v>
+        <v>284.303490707891</v>
       </c>
       <c r="V43" t="n">
         <v>86.5984441540468</v>
       </c>
       <c r="W43" t="n">
-        <v>283.2948374677749</v>
+        <v>111.7653302246601</v>
       </c>
       <c r="X43" t="n">
         <v>57.41043222046318</v>
@@ -3977,22 +3977,22 @@
         <v>218.5735968797241</v>
       </c>
       <c r="C44" t="n">
-        <v>206.5849138374059</v>
+        <v>206.5849138374058</v>
       </c>
       <c r="D44" t="n">
-        <v>197.5662178819339</v>
+        <v>197.5662178819338</v>
       </c>
       <c r="E44" t="n">
         <v>219.3083554518394</v>
       </c>
       <c r="F44" t="n">
-        <v>238.4801715398166</v>
+        <v>238.4801715398165</v>
       </c>
       <c r="G44" t="n">
-        <v>239.8066515766649</v>
+        <v>239.8066515766648</v>
       </c>
       <c r="H44" t="n">
-        <v>151.7492882384434</v>
+        <v>151.7492882384433</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4028,19 +4028,19 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>47.92963570352052</v>
+        <v>47.9296357035205</v>
       </c>
       <c r="U44" t="n">
-        <v>80.75843265118515</v>
+        <v>80.75843265118512</v>
       </c>
       <c r="V44" t="n">
-        <v>162.0799741199033</v>
+        <v>162.0799741199032</v>
       </c>
       <c r="W44" t="n">
-        <v>187.3800735978602</v>
+        <v>187.3800735978601</v>
       </c>
       <c r="X44" t="n">
-        <v>206.6803318306068</v>
+        <v>206.6803318306067</v>
       </c>
       <c r="Y44" t="n">
         <v>218.0769296268055</v>
@@ -4068,13 +4068,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G45" t="n">
-        <v>127.1165548494722</v>
+        <v>50.78790158932707</v>
       </c>
       <c r="H45" t="n">
         <v>95.80294554235505</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>56.52047122575469</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4104,7 +4104,7 @@
         <v>39.02901935393511</v>
       </c>
       <c r="S45" t="n">
-        <v>125.4328906099213</v>
+        <v>145.2410726443114</v>
       </c>
       <c r="T45" t="n">
         <v>185.4896446502776</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>10.19030775442121</v>
+        <v>10.19030775442118</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4150,13 +4150,13 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>155.3589542808002</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>18.59312512894389</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>40.21324716010345</v>
+        <v>40.21324716010344</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>15.36025740485484</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>135.7881746594375</v>
       </c>
       <c r="S46" t="n">
-        <v>35.29973040314781</v>
+        <v>35.29973040314777</v>
       </c>
       <c r="T46" t="n">
-        <v>58.15468779052081</v>
+        <v>58.15468779052078</v>
       </c>
       <c r="U46" t="n">
-        <v>112.7739834647762</v>
+        <v>150.9378882150829</v>
       </c>
       <c r="V46" t="n">
-        <v>86.5984441540468</v>
+        <v>86.59844415404677</v>
       </c>
       <c r="W46" t="n">
-        <v>111.7653302246601</v>
+        <v>111.76533022466</v>
       </c>
       <c r="X46" t="n">
-        <v>57.41043222046318</v>
+        <v>57.41043222046315</v>
       </c>
       <c r="Y46" t="n">
-        <v>48.28529997653087</v>
+        <v>48.28529997653084</v>
       </c>
     </row>
   </sheetData>
@@ -4817,28 +4817,28 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>1.368789526168257e-12</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.269189280923456e-12</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>2.269189280923456e-12</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>2.269189280923456e-12</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -4857,16 +4857,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -4896,37 +4896,37 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -4966,25 +4966,25 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>9.185896487906573e-13</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>1.368789526168257e-12</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>1.35964864507468e-12</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>475.6670913113454</v>
+        <v>945.4089630397211</v>
       </c>
       <c r="C11" t="n">
-        <v>244.2335889108367</v>
+        <v>713.9754606392121</v>
       </c>
       <c r="D11" t="n">
-        <v>244.2335889108367</v>
+        <v>713.9754606392121</v>
       </c>
       <c r="E11" t="n">
-        <v>244.2335889108367</v>
+        <v>469.6899970120027</v>
       </c>
       <c r="F11" t="n">
-        <v>244.2335889108367</v>
+        <v>206.0390625888567</v>
       </c>
       <c r="G11" t="n">
-        <v>206.0390625888568</v>
+        <v>206.0390625888567</v>
       </c>
       <c r="H11" t="n">
-        <v>29.99508099538055</v>
+        <v>29.99508099538054</v>
       </c>
       <c r="I11" t="n">
-        <v>29.99508099538055</v>
+        <v>29.99508099538054</v>
       </c>
       <c r="J11" t="n">
-        <v>29.99508099538055</v>
+        <v>152.9789828377824</v>
       </c>
       <c r="K11" t="n">
-        <v>29.99508099538055</v>
+        <v>469.5331892888865</v>
       </c>
       <c r="L11" t="n">
-        <v>401.1842083132149</v>
+        <v>469.5331892888865</v>
       </c>
       <c r="M11" t="n">
-        <v>442.8346143702627</v>
+        <v>469.5331892888865</v>
       </c>
       <c r="N11" t="n">
-        <v>814.0237416880971</v>
+        <v>654.7204880487625</v>
       </c>
       <c r="O11" t="n">
-        <v>1185.212869005931</v>
+        <v>1025.909615366597</v>
       </c>
       <c r="P11" t="n">
-        <v>1499.754049769028</v>
+        <v>1340.450796129693</v>
       </c>
       <c r="Q11" t="n">
-        <v>1499.754049769028</v>
+        <v>1499.754049769027</v>
       </c>
       <c r="R11" t="n">
-        <v>1499.754049769028</v>
+        <v>1499.754049769027</v>
       </c>
       <c r="S11" t="n">
-        <v>1476.992177507313</v>
+        <v>1499.754049769027</v>
       </c>
       <c r="T11" t="n">
-        <v>1405.816531807698</v>
+        <v>1428.578404069412</v>
       </c>
       <c r="U11" t="n">
-        <v>1405.816531807698</v>
+        <v>1324.242357412561</v>
       </c>
       <c r="V11" t="n">
-        <v>1405.816531807698</v>
+        <v>1137.763339575186</v>
       </c>
       <c r="W11" t="n">
-        <v>1193.781857931982</v>
+        <v>945.4089630397211</v>
       </c>
       <c r="X11" t="n">
-        <v>962.2519737201594</v>
+        <v>945.4089630397211</v>
       </c>
       <c r="Y11" t="n">
-        <v>719.210374562681</v>
+        <v>945.4089630397211</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>676.3493314059049</v>
+        <v>384.1565295171788</v>
       </c>
       <c r="C12" t="n">
-        <v>514.6456586468596</v>
+        <v>372.9531130248171</v>
       </c>
       <c r="D12" t="n">
-        <v>375.8070216370717</v>
+        <v>234.1144760150292</v>
       </c>
       <c r="E12" t="n">
-        <v>228.7790116939429</v>
+        <v>87.08646607190043</v>
       </c>
       <c r="F12" t="n">
-        <v>94.08521364381724</v>
+        <v>87.08646607190043</v>
       </c>
       <c r="G12" t="n">
-        <v>94.08521364381724</v>
+        <v>87.08646607190043</v>
       </c>
       <c r="H12" t="n">
-        <v>29.99508099538055</v>
+        <v>87.08646607190043</v>
       </c>
       <c r="I12" t="n">
-        <v>29.99508099538055</v>
+        <v>29.99508099538054</v>
       </c>
       <c r="J12" t="n">
         <v>120.6157572122717</v>
       </c>
       <c r="K12" t="n">
-        <v>120.6157572122717</v>
+        <v>402.0075457117349</v>
       </c>
       <c r="L12" t="n">
-        <v>393.9039894376891</v>
+        <v>773.1966730295692</v>
       </c>
       <c r="M12" t="n">
-        <v>765.0931167555234</v>
+        <v>937.4824596098522</v>
       </c>
       <c r="N12" t="n">
-        <v>765.0931167555234</v>
+        <v>937.4824596098522</v>
       </c>
       <c r="O12" t="n">
-        <v>1136.282244073358</v>
+        <v>937.4824596098522</v>
       </c>
       <c r="P12" t="n">
-        <v>1499.754049769028</v>
+        <v>1300.954265305522</v>
       </c>
       <c r="Q12" t="n">
-        <v>1499.754049769028</v>
+        <v>1499.754049769027</v>
       </c>
       <c r="R12" t="n">
-        <v>1499.754049769028</v>
+        <v>1460.330797896366</v>
       </c>
       <c r="S12" t="n">
-        <v>1499.754049769028</v>
+        <v>1313.622643710193</v>
       </c>
       <c r="T12" t="n">
-        <v>1462.891028611188</v>
+        <v>1126.25936628567</v>
       </c>
       <c r="U12" t="n">
-        <v>1394.918067444781</v>
+        <v>1058.286405119263</v>
       </c>
       <c r="V12" t="n">
-        <v>1166.522444893115</v>
+        <v>980.3910388342802</v>
       </c>
       <c r="W12" t="n">
-        <v>925.2065761264251</v>
+        <v>739.0751700675902</v>
       </c>
       <c r="X12" t="n">
-        <v>877.7898442709034</v>
+        <v>585.5970423821772</v>
       </c>
       <c r="Y12" t="n">
-        <v>685.2685179204822</v>
+        <v>393.075716031756</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>79.74412711853111</v>
+        <v>79.74412711853076</v>
       </c>
       <c r="C13" t="n">
-        <v>60.628413846895</v>
+        <v>60.62841384689471</v>
       </c>
       <c r="D13" t="n">
-        <v>58.05677694134133</v>
+        <v>58.0567769413411</v>
       </c>
       <c r="E13" t="n">
-        <v>56.54801896934378</v>
+        <v>56.5480189693436</v>
       </c>
       <c r="F13" t="n">
-        <v>54.5676202618045</v>
+        <v>54.56762026180438</v>
       </c>
       <c r="G13" t="n">
-        <v>36.42306137596987</v>
+        <v>36.4230613759698</v>
       </c>
       <c r="H13" t="n">
-        <v>29.99508099538055</v>
+        <v>29.99508099538054</v>
       </c>
       <c r="I13" t="n">
-        <v>29.99508099538055</v>
+        <v>29.99508099538054</v>
       </c>
       <c r="J13" t="n">
-        <v>29.99508099538055</v>
+        <v>29.99508099538054</v>
       </c>
       <c r="K13" t="n">
         <v>94.90588907899618</v>
@@ -5221,28 +5221,28 @@
         <v>787.574676917875</v>
       </c>
       <c r="R13" t="n">
-        <v>787.5746769178759</v>
+        <v>787.5746769178751</v>
       </c>
       <c r="S13" t="n">
-        <v>729.1565113196477</v>
+        <v>729.1565113196471</v>
       </c>
       <c r="T13" t="n">
-        <v>647.6525301786186</v>
+        <v>647.6525301786179</v>
       </c>
       <c r="U13" t="n">
-        <v>510.9775433060183</v>
+        <v>510.9775433060177</v>
       </c>
       <c r="V13" t="n">
-        <v>400.7424951311245</v>
+        <v>400.742495131124</v>
       </c>
       <c r="W13" t="n">
-        <v>265.0863499152073</v>
+        <v>265.0863499152067</v>
       </c>
       <c r="X13" t="n">
-        <v>184.3341420772666</v>
+        <v>184.3341420772662</v>
       </c>
       <c r="Y13" t="n">
-        <v>112.7992395362273</v>
+        <v>112.7992395362269</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5252,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1197.04851985759</v>
+        <v>1089.44581127513</v>
       </c>
       <c r="C14" t="n">
-        <v>965.6150174570814</v>
+        <v>858.0123088746213</v>
       </c>
       <c r="D14" t="n">
-        <v>965.6150174570814</v>
+        <v>635.6886003685286</v>
       </c>
       <c r="E14" t="n">
-        <v>734.6808102602481</v>
+        <v>391.4031367413191</v>
       </c>
       <c r="F14" t="n">
-        <v>471.0298758371021</v>
+        <v>391.4031367413191</v>
       </c>
       <c r="G14" t="n">
         <v>206.0390625888567</v>
       </c>
       <c r="H14" t="n">
-        <v>29.99508099538055</v>
+        <v>29.99508099538054</v>
       </c>
       <c r="I14" t="n">
-        <v>29.99508099538055</v>
+        <v>29.99508099538054</v>
       </c>
       <c r="J14" t="n">
         <v>152.9789828377824</v>
       </c>
       <c r="K14" t="n">
-        <v>152.9789828377824</v>
+        <v>469.5331892888865</v>
       </c>
       <c r="L14" t="n">
-        <v>524.1681101556167</v>
+        <v>840.7223166067208</v>
       </c>
       <c r="M14" t="n">
-        <v>598.0725414940246</v>
+        <v>1211.911443924555</v>
       </c>
       <c r="N14" t="n">
-        <v>969.261668811859</v>
+        <v>1340.450796129693</v>
       </c>
       <c r="O14" t="n">
         <v>1340.450796129693</v>
@@ -5297,31 +5297,31 @@
         <v>1340.450796129693</v>
       </c>
       <c r="Q14" t="n">
-        <v>1499.754049769028</v>
+        <v>1499.754049769027</v>
       </c>
       <c r="R14" t="n">
-        <v>1499.754049769028</v>
+        <v>1499.754049769027</v>
       </c>
       <c r="S14" t="n">
-        <v>1499.754049769028</v>
+        <v>1476.992177507312</v>
       </c>
       <c r="T14" t="n">
-        <v>1428.578404069413</v>
+        <v>1405.816531807697</v>
       </c>
       <c r="U14" t="n">
-        <v>1428.578404069413</v>
+        <v>1301.480485150846</v>
       </c>
       <c r="V14" t="n">
-        <v>1428.578404069413</v>
+        <v>1301.480485150846</v>
       </c>
       <c r="W14" t="n">
-        <v>1428.578404069413</v>
+        <v>1089.44581127513</v>
       </c>
       <c r="X14" t="n">
-        <v>1197.04851985759</v>
+        <v>1089.44581127513</v>
       </c>
       <c r="Y14" t="n">
-        <v>1197.04851985759</v>
+        <v>1089.44581127513</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5331,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>272.6629476008528</v>
+        <v>41.19849748774219</v>
       </c>
       <c r="C15" t="n">
-        <v>261.4595311084911</v>
+        <v>29.99508099538054</v>
       </c>
       <c r="D15" t="n">
-        <v>261.4595311084911</v>
+        <v>29.99508099538054</v>
       </c>
       <c r="E15" t="n">
-        <v>261.4595311084911</v>
+        <v>29.99508099538054</v>
       </c>
       <c r="F15" t="n">
-        <v>126.7657330583655</v>
+        <v>29.99508099538054</v>
       </c>
       <c r="G15" t="n">
-        <v>126.7657330583655</v>
+        <v>29.99508099538054</v>
       </c>
       <c r="H15" t="n">
-        <v>29.99508099538055</v>
+        <v>29.99508099538054</v>
       </c>
       <c r="I15" t="n">
-        <v>29.99508099538055</v>
+        <v>29.99508099538054</v>
       </c>
       <c r="J15" t="n">
         <v>120.6157572122717</v>
@@ -5367,40 +5367,40 @@
         <v>402.0075457117349</v>
       </c>
       <c r="N15" t="n">
-        <v>566.2933322920182</v>
+        <v>773.1966730295692</v>
       </c>
       <c r="O15" t="n">
-        <v>937.4824596098526</v>
+        <v>937.4824596098522</v>
       </c>
       <c r="P15" t="n">
-        <v>1300.954265305523</v>
+        <v>1300.954265305522</v>
       </c>
       <c r="Q15" t="n">
-        <v>1499.754049769028</v>
+        <v>1499.754049769027</v>
       </c>
       <c r="R15" t="n">
-        <v>1460.330797896366</v>
+        <v>1499.754049769027</v>
       </c>
       <c r="S15" t="n">
-        <v>1397.068178497343</v>
+        <v>1353.045895582854</v>
       </c>
       <c r="T15" t="n">
-        <v>1360.205157339504</v>
+        <v>1165.682618158331</v>
       </c>
       <c r="U15" t="n">
-        <v>1141.731939906413</v>
+        <v>947.2094007252406</v>
       </c>
       <c r="V15" t="n">
-        <v>913.3363173547466</v>
+        <v>718.8137781735745</v>
       </c>
       <c r="W15" t="n">
-        <v>672.0204485880566</v>
+        <v>591.0562547416297</v>
       </c>
       <c r="X15" t="n">
-        <v>474.1034604658512</v>
+        <v>393.1392666194242</v>
       </c>
       <c r="Y15" t="n">
-        <v>281.58213411543</v>
+        <v>200.6179402690031</v>
       </c>
     </row>
     <row r="16">
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>79.74412711853074</v>
+        <v>79.74412711853051</v>
       </c>
       <c r="C16" t="n">
-        <v>60.62841384689477</v>
+        <v>60.62841384689446</v>
       </c>
       <c r="D16" t="n">
-        <v>58.05677694134135</v>
+        <v>58.05677694134084</v>
       </c>
       <c r="E16" t="n">
-        <v>56.54801896934381</v>
+        <v>56.54801896934333</v>
       </c>
       <c r="F16" t="n">
-        <v>54.56762026180456</v>
+        <v>54.56762026180411</v>
       </c>
       <c r="G16" t="n">
-        <v>36.42306137596985</v>
+        <v>36.4230613759698</v>
       </c>
       <c r="H16" t="n">
-        <v>29.99508099538055</v>
+        <v>29.99508099538054</v>
       </c>
       <c r="I16" t="n">
-        <v>29.99508099538055</v>
+        <v>29.99508099538054</v>
       </c>
       <c r="J16" t="n">
-        <v>29.99508099538055</v>
+        <v>29.99508099538054</v>
       </c>
       <c r="K16" t="n">
-        <v>94.90588907899618</v>
+        <v>94.9058890789962</v>
       </c>
       <c r="L16" t="n">
         <v>235.5746640210047</v>
       </c>
       <c r="M16" t="n">
-        <v>395.8076110331837</v>
+        <v>395.8076110331838</v>
       </c>
       <c r="N16" t="n">
         <v>555.4650341729186</v>
@@ -5452,34 +5452,34 @@
         <v>692.015952423721</v>
       </c>
       <c r="P16" t="n">
-        <v>787.5746769178753</v>
+        <v>787.574676917875</v>
       </c>
       <c r="Q16" t="n">
-        <v>787.5746769178753</v>
+        <v>787.574676917875</v>
       </c>
       <c r="R16" t="n">
-        <v>787.5746769178753</v>
+        <v>787.574676917875</v>
       </c>
       <c r="S16" t="n">
-        <v>729.1565113196472</v>
+        <v>729.1565113196469</v>
       </c>
       <c r="T16" t="n">
-        <v>647.6525301786183</v>
+        <v>647.6525301786177</v>
       </c>
       <c r="U16" t="n">
-        <v>510.9775433060178</v>
+        <v>510.9775433060174</v>
       </c>
       <c r="V16" t="n">
-        <v>400.742495131124</v>
+        <v>400.7424951311237</v>
       </c>
       <c r="W16" t="n">
-        <v>265.0863499152068</v>
+        <v>265.0863499152065</v>
       </c>
       <c r="X16" t="n">
-        <v>184.3341420772662</v>
+        <v>184.3341420772659</v>
       </c>
       <c r="Y16" t="n">
-        <v>112.7992395362269</v>
+        <v>112.7992395362267</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>855.7565147862545</v>
+        <v>855.7565147862539</v>
       </c>
       <c r="C17" t="n">
-        <v>720.4841740537129</v>
+        <v>720.4841740537124</v>
       </c>
       <c r="D17" t="n">
-        <v>594.3216272155876</v>
+        <v>594.3216272155873</v>
       </c>
       <c r="E17" t="n">
-        <v>446.1973252563455</v>
+        <v>446.1973252563454</v>
       </c>
       <c r="F17" t="n">
         <v>278.7075525011669</v>
       </c>
       <c r="G17" t="n">
-        <v>109.8779009208893</v>
+        <v>109.8779009208891</v>
       </c>
       <c r="H17" t="n">
-        <v>29.99508099538055</v>
+        <v>29.99508099538054</v>
       </c>
       <c r="I17" t="n">
-        <v>29.99508099538055</v>
+        <v>29.99508099538054</v>
       </c>
       <c r="J17" t="n">
         <v>152.9789828377824</v>
@@ -5519,46 +5519,46 @@
         <v>469.5331892888865</v>
       </c>
       <c r="L17" t="n">
-        <v>840.7223166067208</v>
+        <v>654.7204880487625</v>
       </c>
       <c r="M17" t="n">
-        <v>840.7223166067208</v>
+        <v>1025.909615366597</v>
       </c>
       <c r="N17" t="n">
-        <v>840.7223166067208</v>
+        <v>1025.909615366597</v>
       </c>
       <c r="O17" t="n">
-        <v>1185.212869005931</v>
+        <v>1025.909615366597</v>
       </c>
       <c r="P17" t="n">
-        <v>1499.754049769028</v>
+        <v>1340.450796129693</v>
       </c>
       <c r="Q17" t="n">
-        <v>1499.754049769028</v>
+        <v>1499.754049769027</v>
       </c>
       <c r="R17" t="n">
-        <v>1499.754049769028</v>
+        <v>1499.754049769027</v>
       </c>
       <c r="S17" t="n">
-        <v>1499.754049769028</v>
+        <v>1499.754049769027</v>
       </c>
       <c r="T17" t="n">
-        <v>1499.754049769028</v>
+        <v>1499.754049769027</v>
       </c>
       <c r="U17" t="n">
-        <v>1491.579164780145</v>
+        <v>1491.579164780143</v>
       </c>
       <c r="V17" t="n">
-        <v>1401.261308610737</v>
+        <v>1401.261308610736</v>
       </c>
       <c r="W17" t="n">
-        <v>1285.387796402989</v>
+        <v>1285.387796402988</v>
       </c>
       <c r="X17" t="n">
         <v>1150.019073859133</v>
       </c>
       <c r="Y17" t="n">
-        <v>1003.138636369623</v>
+        <v>1003.138636369622</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>477.5654007073425</v>
+        <v>740.6597592114804</v>
       </c>
       <c r="C18" t="n">
-        <v>315.8617279482972</v>
+        <v>578.9560864524351</v>
       </c>
       <c r="D18" t="n">
-        <v>177.0230909385093</v>
+        <v>440.1174494426472</v>
       </c>
       <c r="E18" t="n">
-        <v>29.99508099538055</v>
+        <v>293.0894394995184</v>
       </c>
       <c r="F18" t="n">
-        <v>29.99508099538055</v>
+        <v>158.3956414493928</v>
       </c>
       <c r="G18" t="n">
-        <v>29.99508099538055</v>
+        <v>29.99508099538054</v>
       </c>
       <c r="H18" t="n">
-        <v>29.99508099538055</v>
+        <v>29.99508099538054</v>
       </c>
       <c r="I18" t="n">
-        <v>29.99508099538055</v>
+        <v>29.99508099538054</v>
       </c>
       <c r="J18" t="n">
-        <v>120.6157572122717</v>
+        <v>29.99508099538054</v>
       </c>
       <c r="K18" t="n">
-        <v>402.0075457117349</v>
+        <v>29.99508099538054</v>
       </c>
       <c r="L18" t="n">
-        <v>566.2933322920182</v>
+        <v>401.1842083132148</v>
       </c>
       <c r="M18" t="n">
-        <v>566.2933322920182</v>
+        <v>566.293332292018</v>
       </c>
       <c r="N18" t="n">
-        <v>566.2933322920182</v>
+        <v>566.293332292018</v>
       </c>
       <c r="O18" t="n">
-        <v>937.4824596098526</v>
+        <v>937.4824596098522</v>
       </c>
       <c r="P18" t="n">
-        <v>1300.954265305523</v>
+        <v>1300.954265305522</v>
       </c>
       <c r="Q18" t="n">
-        <v>1499.754049769028</v>
+        <v>1499.754049769027</v>
       </c>
       <c r="R18" t="n">
-        <v>1499.754049769028</v>
+        <v>1460.330797896366</v>
       </c>
       <c r="S18" t="n">
-        <v>1499.754049769028</v>
+        <v>1313.622643710193</v>
       </c>
       <c r="T18" t="n">
-        <v>1474.291997945987</v>
+        <v>1126.25936628567</v>
       </c>
       <c r="U18" t="n">
-        <v>1255.818780512896</v>
+        <v>907.7861488525789</v>
       </c>
       <c r="V18" t="n">
-        <v>1027.42315796123</v>
+        <v>900.0792019927412</v>
       </c>
       <c r="W18" t="n">
-        <v>1027.42315796123</v>
+        <v>900.0792019927412</v>
       </c>
       <c r="X18" t="n">
-        <v>829.5061698390247</v>
+        <v>900.0792019927412</v>
       </c>
       <c r="Y18" t="n">
-        <v>636.9848434886035</v>
+        <v>900.0792019927412</v>
       </c>
     </row>
     <row r="19">
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>29.99508099538055</v>
+        <v>504.1924442943589</v>
       </c>
       <c r="C19" t="n">
-        <v>29.99508099538055</v>
+        <v>504.1924442943589</v>
       </c>
       <c r="D19" t="n">
-        <v>29.99508099538055</v>
+        <v>351.1205511221216</v>
       </c>
       <c r="E19" t="n">
-        <v>29.99508099538055</v>
+        <v>351.1205511221216</v>
       </c>
       <c r="F19" t="n">
-        <v>29.99508099538055</v>
+        <v>198.6398961478988</v>
       </c>
       <c r="G19" t="n">
-        <v>29.99508099538055</v>
+        <v>29.99508099538054</v>
       </c>
       <c r="H19" t="n">
-        <v>29.99508099538055</v>
+        <v>29.99508099538054</v>
       </c>
       <c r="I19" t="n">
-        <v>29.99508099538055</v>
+        <v>29.99508099538054</v>
       </c>
       <c r="J19" t="n">
-        <v>29.99508099538055</v>
+        <v>29.99508099538054</v>
       </c>
       <c r="K19" t="n">
         <v>94.90588907899618</v>
@@ -5692,31 +5692,31 @@
         <v>787.574676917875</v>
       </c>
       <c r="Q19" t="n">
-        <v>772.0592653978196</v>
+        <v>787.574676917875</v>
       </c>
       <c r="R19" t="n">
-        <v>772.0592653978196</v>
+        <v>787.574676917875</v>
       </c>
       <c r="S19" t="n">
-        <v>772.0592653978196</v>
+        <v>787.574676917875</v>
       </c>
       <c r="T19" t="n">
-        <v>592.7743529972633</v>
+        <v>787.574676917875</v>
       </c>
       <c r="U19" t="n">
-        <v>305.5991098579796</v>
+        <v>747.0608517132423</v>
       </c>
       <c r="V19" t="n">
-        <v>291.5252233510533</v>
+        <v>732.9869652063161</v>
       </c>
       <c r="W19" t="n">
-        <v>252.0302398031035</v>
+        <v>504.1924442943589</v>
       </c>
       <c r="X19" t="n">
-        <v>252.0302398031035</v>
+        <v>504.1924442943589</v>
       </c>
       <c r="Y19" t="n">
-        <v>29.99508099538055</v>
+        <v>504.1924442943589</v>
       </c>
     </row>
     <row r="20">
@@ -5726,61 +5726,61 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>855.7565147862541</v>
+        <v>855.7565147862542</v>
       </c>
       <c r="C20" t="n">
         <v>720.4841740537126</v>
       </c>
       <c r="D20" t="n">
-        <v>594.3216272155873</v>
+        <v>594.3216272155878</v>
       </c>
       <c r="E20" t="n">
-        <v>446.1973252563454</v>
+        <v>446.1973252563455</v>
       </c>
       <c r="F20" t="n">
-        <v>278.7075525011669</v>
+        <v>278.7075525011671</v>
       </c>
       <c r="G20" t="n">
-        <v>109.8779009208892</v>
+        <v>109.8779009208891</v>
       </c>
       <c r="H20" t="n">
-        <v>29.99508099538055</v>
+        <v>29.99508099538054</v>
       </c>
       <c r="I20" t="n">
-        <v>29.99508099538055</v>
+        <v>29.99508099538054</v>
       </c>
       <c r="J20" t="n">
-        <v>29.99508099538055</v>
+        <v>152.9789828377824</v>
       </c>
       <c r="K20" t="n">
-        <v>29.99508099538055</v>
+        <v>469.5331892888865</v>
       </c>
       <c r="L20" t="n">
-        <v>401.1842083132149</v>
+        <v>840.7223166067208</v>
       </c>
       <c r="M20" t="n">
-        <v>772.3733356310493</v>
+        <v>1025.909615366597</v>
       </c>
       <c r="N20" t="n">
-        <v>1143.562462948884</v>
+        <v>1025.909615366597</v>
       </c>
       <c r="O20" t="n">
-        <v>1499.754049769028</v>
+        <v>1025.909615366597</v>
       </c>
       <c r="P20" t="n">
-        <v>1499.754049769028</v>
+        <v>1340.450796129693</v>
       </c>
       <c r="Q20" t="n">
-        <v>1499.754049769028</v>
+        <v>1499.754049769027</v>
       </c>
       <c r="R20" t="n">
-        <v>1499.754049769028</v>
+        <v>1499.754049769027</v>
       </c>
       <c r="S20" t="n">
-        <v>1499.754049769028</v>
+        <v>1499.754049769027</v>
       </c>
       <c r="T20" t="n">
-        <v>1499.754049769028</v>
+        <v>1499.754049769027</v>
       </c>
       <c r="U20" t="n">
         <v>1491.579164780143</v>
@@ -5805,10 +5805,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>593.979486582152</v>
+        <v>894.5217963509853</v>
       </c>
       <c r="C21" t="n">
-        <v>593.979486582152</v>
+        <v>732.81812359194</v>
       </c>
       <c r="D21" t="n">
         <v>593.979486582152</v>
@@ -5823,58 +5823,58 @@
         <v>183.8571181348854</v>
       </c>
       <c r="H21" t="n">
-        <v>87.08646607190045</v>
+        <v>87.08646607190043</v>
       </c>
       <c r="I21" t="n">
-        <v>29.99508099538055</v>
+        <v>29.99508099538054</v>
       </c>
       <c r="J21" t="n">
-        <v>29.99508099538055</v>
+        <v>104.7948793160615</v>
       </c>
       <c r="K21" t="n">
-        <v>311.3868694948437</v>
+        <v>386.1866678155247</v>
       </c>
       <c r="L21" t="n">
-        <v>682.5759968126781</v>
+        <v>757.3757951333589</v>
       </c>
       <c r="M21" t="n">
-        <v>1053.765124130513</v>
+        <v>1128.564922451193</v>
       </c>
       <c r="N21" t="n">
-        <v>1053.765124130513</v>
+        <v>1499.754049769027</v>
       </c>
       <c r="O21" t="n">
-        <v>1136.282244073358</v>
+        <v>1499.754049769027</v>
       </c>
       <c r="P21" t="n">
-        <v>1499.754049769028</v>
+        <v>1499.754049769027</v>
       </c>
       <c r="Q21" t="n">
-        <v>1499.754049769028</v>
+        <v>1499.754049769027</v>
       </c>
       <c r="R21" t="n">
-        <v>1460.330797896366</v>
+        <v>1499.754049769027</v>
       </c>
       <c r="S21" t="n">
-        <v>1313.622643710193</v>
+        <v>1499.754049769027</v>
       </c>
       <c r="T21" t="n">
-        <v>1126.25936628567</v>
+        <v>1499.754049769027</v>
       </c>
       <c r="U21" t="n">
-        <v>907.7861488525793</v>
+        <v>1281.280832335936</v>
       </c>
       <c r="V21" t="n">
-        <v>679.3905263009133</v>
+        <v>1053.941239132246</v>
       </c>
       <c r="W21" t="n">
-        <v>593.979486582152</v>
+        <v>1053.941239132246</v>
       </c>
       <c r="X21" t="n">
-        <v>593.979486582152</v>
+        <v>1053.941239132246</v>
       </c>
       <c r="Y21" t="n">
-        <v>593.979486582152</v>
+        <v>1053.941239132246</v>
       </c>
     </row>
     <row r="22">
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>70.61452257124263</v>
+        <v>431.3151522036599</v>
       </c>
       <c r="C22" t="n">
-        <v>70.61452257124263</v>
+        <v>431.3151522036599</v>
       </c>
       <c r="D22" t="n">
-        <v>70.61452257124263</v>
+        <v>278.2432590314226</v>
       </c>
       <c r="E22" t="n">
-        <v>70.61452257124263</v>
+        <v>278.2432590314226</v>
       </c>
       <c r="F22" t="n">
-        <v>70.61452257124263</v>
+        <v>125.7626040571997</v>
       </c>
       <c r="G22" t="n">
-        <v>70.61452257124263</v>
+        <v>70.6145225712426</v>
       </c>
       <c r="H22" t="n">
-        <v>70.61452257124263</v>
+        <v>70.6145225712426</v>
       </c>
       <c r="I22" t="n">
-        <v>70.61452257124263</v>
+        <v>70.6145225712426</v>
       </c>
       <c r="J22" t="n">
-        <v>29.99508099538055</v>
+        <v>29.99508099538054</v>
       </c>
       <c r="K22" t="n">
         <v>94.90588907899618</v>
@@ -5932,28 +5932,28 @@
         <v>772.0592653978196</v>
       </c>
       <c r="R22" t="n">
-        <v>634.8994930145493</v>
+        <v>772.0592653978196</v>
       </c>
       <c r="S22" t="n">
-        <v>425.9810711496376</v>
+        <v>772.0592653978196</v>
       </c>
       <c r="T22" t="n">
-        <v>386.7323766384741</v>
+        <v>772.0592653978196</v>
       </c>
       <c r="U22" t="n">
-        <v>346.2185514338415</v>
+        <v>484.8840222585357</v>
       </c>
       <c r="V22" t="n">
-        <v>332.1446649269153</v>
+        <v>470.8101357516096</v>
       </c>
       <c r="W22" t="n">
-        <v>292.6496813789656</v>
+        <v>431.3151522036599</v>
       </c>
       <c r="X22" t="n">
-        <v>292.6496813789656</v>
+        <v>431.3151522036599</v>
       </c>
       <c r="Y22" t="n">
-        <v>70.61452257124263</v>
+        <v>431.3151522036599</v>
       </c>
     </row>
     <row r="23">
@@ -5963,64 +5963,64 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>855.7565147862541</v>
+        <v>855.756514786254</v>
       </c>
       <c r="C23" t="n">
-        <v>720.4841740537126</v>
+        <v>720.4841740537125</v>
       </c>
       <c r="D23" t="n">
-        <v>594.3216272155875</v>
+        <v>594.3216272155873</v>
       </c>
       <c r="E23" t="n">
-        <v>446.1973252563455</v>
+        <v>446.1973252563454</v>
       </c>
       <c r="F23" t="n">
-        <v>278.707552501167</v>
+        <v>278.7075525011669</v>
       </c>
       <c r="G23" t="n">
-        <v>109.8779009208892</v>
+        <v>109.8779009208891</v>
       </c>
       <c r="H23" t="n">
-        <v>29.99508099538055</v>
+        <v>29.99508099538054</v>
       </c>
       <c r="I23" t="n">
-        <v>29.99508099538055</v>
+        <v>29.99508099538054</v>
       </c>
       <c r="J23" t="n">
-        <v>29.99508099538055</v>
+        <v>152.9789828377824</v>
       </c>
       <c r="K23" t="n">
-        <v>29.99508099538055</v>
+        <v>469.5331892888865</v>
       </c>
       <c r="L23" t="n">
-        <v>401.1842083132149</v>
+        <v>840.7223166067208</v>
       </c>
       <c r="M23" t="n">
-        <v>772.3733356310493</v>
+        <v>1025.909615366597</v>
       </c>
       <c r="N23" t="n">
-        <v>1143.562462948884</v>
+        <v>1025.909615366597</v>
       </c>
       <c r="O23" t="n">
-        <v>1499.754049769028</v>
+        <v>1025.909615366597</v>
       </c>
       <c r="P23" t="n">
-        <v>1499.754049769028</v>
+        <v>1340.450796129693</v>
       </c>
       <c r="Q23" t="n">
-        <v>1499.754049769028</v>
+        <v>1499.754049769027</v>
       </c>
       <c r="R23" t="n">
-        <v>1499.754049769028</v>
+        <v>1499.754049769027</v>
       </c>
       <c r="S23" t="n">
-        <v>1499.754049769028</v>
+        <v>1499.754049769027</v>
       </c>
       <c r="T23" t="n">
-        <v>1499.754049769028</v>
+        <v>1499.754049769027</v>
       </c>
       <c r="U23" t="n">
-        <v>1491.579164780144</v>
+        <v>1491.579164780143</v>
       </c>
       <c r="V23" t="n">
         <v>1401.261308610736</v>
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>894.5217963509853</v>
+        <v>708.5804237484499</v>
       </c>
       <c r="C24" t="n">
-        <v>732.81812359194</v>
+        <v>546.8767509894046</v>
       </c>
       <c r="D24" t="n">
-        <v>593.979486582152</v>
+        <v>408.0381139796167</v>
       </c>
       <c r="E24" t="n">
-        <v>446.9514766390233</v>
+        <v>261.0101040364879</v>
       </c>
       <c r="F24" t="n">
-        <v>312.2576785888976</v>
+        <v>126.3163059863623</v>
       </c>
       <c r="G24" t="n">
-        <v>183.8571181348854</v>
+        <v>87.08646607190043</v>
       </c>
       <c r="H24" t="n">
-        <v>87.08646607190045</v>
+        <v>87.08646607190043</v>
       </c>
       <c r="I24" t="n">
-        <v>29.99508099538055</v>
+        <v>29.99508099538054</v>
       </c>
       <c r="J24" t="n">
-        <v>120.6157572122717</v>
+        <v>29.99508099538054</v>
       </c>
       <c r="K24" t="n">
-        <v>402.0075457117349</v>
+        <v>195.1042049741838</v>
       </c>
       <c r="L24" t="n">
-        <v>773.1966730295692</v>
+        <v>566.293332292018</v>
       </c>
       <c r="M24" t="n">
-        <v>773.1966730295692</v>
+        <v>566.293332292018</v>
       </c>
       <c r="N24" t="n">
-        <v>773.1966730295692</v>
+        <v>566.293332292018</v>
       </c>
       <c r="O24" t="n">
-        <v>1136.282244073358</v>
+        <v>937.4824596098522</v>
       </c>
       <c r="P24" t="n">
-        <v>1499.754049769028</v>
+        <v>1300.954265305522</v>
       </c>
       <c r="Q24" t="n">
-        <v>1499.754049769028</v>
+        <v>1499.754049769027</v>
       </c>
       <c r="R24" t="n">
-        <v>1460.330797896366</v>
+        <v>1499.754049769027</v>
       </c>
       <c r="S24" t="n">
-        <v>1313.622643710193</v>
+        <v>1499.754049769027</v>
       </c>
       <c r="T24" t="n">
-        <v>1310.912001906282</v>
+        <v>1499.754049769027</v>
       </c>
       <c r="U24" t="n">
-        <v>1092.438784473191</v>
+        <v>1499.754049769027</v>
       </c>
       <c r="V24" t="n">
-        <v>1092.438784473191</v>
+        <v>1499.754049769027</v>
       </c>
       <c r="W24" t="n">
-        <v>1092.438784473191</v>
+        <v>1258.438181002337</v>
       </c>
       <c r="X24" t="n">
-        <v>894.5217963509853</v>
+        <v>1060.521192880132</v>
       </c>
       <c r="Y24" t="n">
-        <v>894.5217963509853</v>
+        <v>867.9998665297109</v>
       </c>
     </row>
     <row r="25">
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>29.99508099538055</v>
+        <v>363.4778040647293</v>
       </c>
       <c r="C25" t="n">
-        <v>29.99508099538055</v>
+        <v>363.4778040647293</v>
       </c>
       <c r="D25" t="n">
-        <v>29.99508099538055</v>
+        <v>363.4778040647293</v>
       </c>
       <c r="E25" t="n">
-        <v>29.99508099538055</v>
+        <v>363.4778040647293</v>
       </c>
       <c r="F25" t="n">
-        <v>29.99508099538055</v>
+        <v>363.4778040647293</v>
       </c>
       <c r="G25" t="n">
-        <v>29.99508099538055</v>
+        <v>363.4778040647293</v>
       </c>
       <c r="H25" t="n">
-        <v>29.99508099538055</v>
+        <v>206.5495674174563</v>
       </c>
       <c r="I25" t="n">
-        <v>29.99508099538055</v>
+        <v>70.6145225712426</v>
       </c>
       <c r="J25" t="n">
-        <v>29.99508099538055</v>
+        <v>29.99508099538054</v>
       </c>
       <c r="K25" t="n">
         <v>94.90588907899618</v>
@@ -6166,31 +6166,31 @@
         <v>787.574676917875</v>
       </c>
       <c r="Q25" t="n">
-        <v>772.0592653978196</v>
+        <v>787.574676917875</v>
       </c>
       <c r="R25" t="n">
-        <v>772.0592653978196</v>
+        <v>650.4149045346047</v>
       </c>
       <c r="S25" t="n">
-        <v>587.3344777672261</v>
+        <v>457.5604993242378</v>
       </c>
       <c r="T25" t="n">
-        <v>355.3302403595134</v>
+        <v>457.5604993242378</v>
       </c>
       <c r="U25" t="n">
-        <v>314.8164151548807</v>
+        <v>417.0466741196051</v>
       </c>
       <c r="V25" t="n">
-        <v>300.7425286479545</v>
+        <v>402.972787612679</v>
       </c>
       <c r="W25" t="n">
-        <v>261.2475451000048</v>
+        <v>363.4778040647293</v>
       </c>
       <c r="X25" t="n">
-        <v>29.99508099538055</v>
+        <v>363.4778040647293</v>
       </c>
       <c r="Y25" t="n">
-        <v>29.99508099538055</v>
+        <v>363.4778040647293</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6200,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1810.171707740056</v>
+        <v>1810.171707740055</v>
       </c>
       <c r="C26" t="n">
-        <v>1530.37865636802</v>
+        <v>1530.378656368019</v>
       </c>
       <c r="D26" t="n">
-        <v>1259.6953988904</v>
+        <v>1259.695398890399</v>
       </c>
       <c r="E26" t="n">
         <v>967.0503862916626</v>
@@ -6215,40 +6215,40 @@
         <v>655.0399028969894</v>
       </c>
       <c r="G26" t="n">
-        <v>341.6895406772169</v>
+        <v>341.6895406772168</v>
       </c>
       <c r="H26" t="n">
-        <v>117.2860101122128</v>
+        <v>117.2860101122129</v>
       </c>
       <c r="I26" t="n">
-        <v>70.23900244928366</v>
+        <v>70.23900244928365</v>
       </c>
       <c r="J26" t="n">
-        <v>293.3310115116683</v>
+        <v>193.2229042916855</v>
       </c>
       <c r="K26" t="n">
-        <v>704.4228513304674</v>
+        <v>609.8852179627725</v>
       </c>
       <c r="L26" t="n">
-        <v>1147.106342969902</v>
+        <v>1098.097843785307</v>
       </c>
       <c r="M26" t="n">
-        <v>1745.934788976794</v>
+        <v>1696.926289792198</v>
       </c>
       <c r="N26" t="n">
-        <v>2331.562223067081</v>
+        <v>2282.553723882485</v>
       </c>
       <c r="O26" t="n">
-        <v>2837.889473621787</v>
+        <v>2788.880974437191</v>
       </c>
       <c r="P26" t="n">
-        <v>3252.538761604866</v>
+        <v>3203.53026242027</v>
       </c>
       <c r="Q26" t="n">
-        <v>3511.950122464183</v>
+        <v>3462.941623279587</v>
       </c>
       <c r="R26" t="n">
-        <v>3511.950122464183</v>
+        <v>3511.950122464182</v>
       </c>
       <c r="S26" t="n">
         <v>3440.82870123094</v>
@@ -6260,16 +6260,16 @@
         <v>3168.597910931419</v>
       </c>
       <c r="V26" t="n">
-        <v>2933.759344122517</v>
+        <v>2933.759344122516</v>
       </c>
       <c r="W26" t="n">
-        <v>2673.365121275275</v>
+        <v>2673.365121275274</v>
       </c>
       <c r="X26" t="n">
-        <v>2393.475688091924</v>
+        <v>2393.475688091923</v>
       </c>
       <c r="Y26" t="n">
-        <v>2102.074539962919</v>
+        <v>2102.074539962918</v>
       </c>
     </row>
     <row r="27">
@@ -6294,34 +6294,34 @@
         <v>352.5016000428008</v>
       </c>
       <c r="G27" t="n">
-        <v>224.1010395887885</v>
+        <v>224.1010395887884</v>
       </c>
       <c r="H27" t="n">
-        <v>127.3303875258036</v>
+        <v>127.3303875258035</v>
       </c>
       <c r="I27" t="n">
-        <v>70.23900244928366</v>
+        <v>70.23900244928365</v>
       </c>
       <c r="J27" t="n">
-        <v>160.8596786661748</v>
+        <v>70.23900244928365</v>
       </c>
       <c r="K27" t="n">
-        <v>442.251467165638</v>
+        <v>117.2170367589568</v>
       </c>
       <c r="L27" t="n">
-        <v>877.8609290664428</v>
+        <v>552.8264986597617</v>
       </c>
       <c r="M27" t="n">
-        <v>920.4989247619706</v>
+        <v>1119.298709225476</v>
       </c>
       <c r="N27" t="n">
-        <v>1515.358872157957</v>
+        <v>1714.158656621462</v>
       </c>
       <c r="O27" t="n">
-        <v>1984.031277134405</v>
+        <v>2182.83106159791</v>
       </c>
       <c r="P27" t="n">
-        <v>2347.503082830075</v>
+        <v>2546.30286729358</v>
       </c>
       <c r="Q27" t="n">
         <v>2546.30286729358</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>443.9396799526547</v>
+        <v>443.9396799526549</v>
       </c>
       <c r="C28" t="n">
-        <v>376.4644177094914</v>
+        <v>376.4644177094916</v>
       </c>
       <c r="D28" t="n">
         <v>325.5332318324106</v>
       </c>
       <c r="E28" t="n">
-        <v>275.6649248888858</v>
+        <v>275.6649248888859</v>
       </c>
       <c r="F28" t="n">
-        <v>225.3249772098193</v>
+        <v>225.3249772098194</v>
       </c>
       <c r="G28" t="n">
         <v>158.8208693524575</v>
@@ -6379,55 +6379,55 @@
         <v>104.033340000341</v>
       </c>
       <c r="I28" t="n">
-        <v>70.23900244928366</v>
+        <v>70.23900244928365</v>
       </c>
       <c r="J28" t="n">
-        <v>130.535994980764</v>
+        <v>130.5359949807639</v>
       </c>
       <c r="K28" t="n">
-        <v>295.5549102843615</v>
+        <v>295.5549102843623</v>
       </c>
       <c r="L28" t="n">
-        <v>536.3317924463528</v>
+        <v>536.3317924463536</v>
       </c>
       <c r="M28" t="n">
-        <v>796.6728466785146</v>
+        <v>796.6728466785155</v>
       </c>
       <c r="N28" t="n">
-        <v>1056.438377038232</v>
+        <v>1056.438377038233</v>
       </c>
       <c r="O28" t="n">
         <v>1293.097402509018</v>
       </c>
       <c r="P28" t="n">
-        <v>1488.764234223154</v>
+        <v>1488.764234223155</v>
       </c>
       <c r="Q28" t="n">
         <v>1573.665686612331</v>
       </c>
       <c r="R28" t="n">
-        <v>1538.646621524217</v>
+        <v>1538.646621524218</v>
       </c>
       <c r="S28" t="n">
         <v>1431.868906954462</v>
       </c>
       <c r="T28" t="n">
-        <v>1302.005376841905</v>
+        <v>1302.005376841906</v>
       </c>
       <c r="U28" t="n">
         <v>1116.970840997778</v>
       </c>
       <c r="V28" t="n">
-        <v>958.376243851357</v>
+        <v>958.3762438513575</v>
       </c>
       <c r="W28" t="n">
-        <v>774.3605496639125</v>
+        <v>774.3605496639129</v>
       </c>
       <c r="X28" t="n">
-        <v>645.2487928544447</v>
+        <v>645.248792854445</v>
       </c>
       <c r="Y28" t="n">
-        <v>525.3543413418781</v>
+        <v>525.3543413418784</v>
       </c>
     </row>
     <row r="29">
@@ -6446,58 +6446,58 @@
         <v>1259.695398890399</v>
       </c>
       <c r="E29" t="n">
-        <v>967.0503862916619</v>
+        <v>967.0503862916626</v>
       </c>
       <c r="F29" t="n">
-        <v>655.0399028969889</v>
+        <v>655.0399028969891</v>
       </c>
       <c r="G29" t="n">
-        <v>341.6895406772169</v>
+        <v>341.6895406772165</v>
       </c>
       <c r="H29" t="n">
         <v>117.2860101122129</v>
       </c>
       <c r="I29" t="n">
-        <v>70.23900244928366</v>
+        <v>70.23900244928365</v>
       </c>
       <c r="J29" t="n">
-        <v>238.7520384747853</v>
+        <v>293.3310115116683</v>
       </c>
       <c r="K29" t="n">
-        <v>555.3062449258895</v>
+        <v>709.9933251827551</v>
       </c>
       <c r="L29" t="n">
-        <v>1098.097843785307</v>
+        <v>1252.784924042173</v>
       </c>
       <c r="M29" t="n">
-        <v>1696.926289792199</v>
+        <v>1851.613370049064</v>
       </c>
       <c r="N29" t="n">
-        <v>2282.553723882485</v>
+        <v>2437.240804139351</v>
       </c>
       <c r="O29" t="n">
-        <v>2788.880974437192</v>
+        <v>2937.997580841769</v>
       </c>
       <c r="P29" t="n">
-        <v>3203.53026242027</v>
+        <v>3352.646868824848</v>
       </c>
       <c r="Q29" t="n">
-        <v>3462.941623279587</v>
+        <v>3511.950122464182</v>
       </c>
       <c r="R29" t="n">
-        <v>3511.950122464183</v>
+        <v>3511.950122464182</v>
       </c>
       <c r="S29" t="n">
-        <v>3440.828701230941</v>
+        <v>3440.82870123094</v>
       </c>
       <c r="T29" t="n">
-        <v>3321.293506559799</v>
+        <v>3321.293506559798</v>
       </c>
       <c r="U29" t="n">
         <v>3168.597910931419</v>
       </c>
       <c r="V29" t="n">
-        <v>2933.759344122516</v>
+        <v>2933.759344122517</v>
       </c>
       <c r="W29" t="n">
         <v>2673.365121275274</v>
@@ -6531,34 +6531,34 @@
         <v>352.5016000428008</v>
       </c>
       <c r="G30" t="n">
-        <v>224.1010395887885</v>
+        <v>224.1010395887884</v>
       </c>
       <c r="H30" t="n">
-        <v>127.3303875258036</v>
+        <v>127.3303875258035</v>
       </c>
       <c r="I30" t="n">
-        <v>70.23900244928366</v>
+        <v>70.23900244928365</v>
       </c>
       <c r="J30" t="n">
-        <v>160.8596786661748</v>
+        <v>70.23900244928365</v>
       </c>
       <c r="K30" t="n">
-        <v>442.251467165638</v>
+        <v>117.2170367589568</v>
       </c>
       <c r="L30" t="n">
-        <v>877.8609290664428</v>
+        <v>552.8264986597617</v>
       </c>
       <c r="M30" t="n">
-        <v>920.4989247619706</v>
+        <v>1119.298709225476</v>
       </c>
       <c r="N30" t="n">
-        <v>1515.358872157957</v>
+        <v>1714.158656621462</v>
       </c>
       <c r="O30" t="n">
-        <v>1984.031277134405</v>
+        <v>2182.83106159791</v>
       </c>
       <c r="P30" t="n">
-        <v>2347.503082830075</v>
+        <v>2546.30286729358</v>
       </c>
       <c r="Q30" t="n">
         <v>2546.30286729358</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>443.9396799526553</v>
+        <v>443.9396799526549</v>
       </c>
       <c r="C31" t="n">
-        <v>376.464417709492</v>
+        <v>376.4644177094916</v>
       </c>
       <c r="D31" t="n">
-        <v>325.533231832411</v>
+        <v>325.5332318324106</v>
       </c>
       <c r="E31" t="n">
-        <v>275.6649248888863</v>
+        <v>275.6649248888859</v>
       </c>
       <c r="F31" t="n">
-        <v>225.3249772098198</v>
+        <v>225.3249772098194</v>
       </c>
       <c r="G31" t="n">
-        <v>158.820869352458</v>
+        <v>158.8208693524575</v>
       </c>
       <c r="H31" t="n">
-        <v>104.033340000341</v>
+        <v>104.0333400003412</v>
       </c>
       <c r="I31" t="n">
-        <v>70.23900244928366</v>
+        <v>70.23900244928365</v>
       </c>
       <c r="J31" t="n">
-        <v>130.535994980764</v>
+        <v>130.5359949807641</v>
       </c>
       <c r="K31" t="n">
         <v>295.5549102843624</v>
       </c>
       <c r="L31" t="n">
-        <v>536.3317924463536</v>
+        <v>536.3317924463533</v>
       </c>
       <c r="M31" t="n">
         <v>796.6728466785152</v>
@@ -6655,16 +6655,16 @@
         <v>1116.970840997778</v>
       </c>
       <c r="V31" t="n">
-        <v>958.3762438513572</v>
+        <v>958.3762438513575</v>
       </c>
       <c r="W31" t="n">
-        <v>774.3605496639127</v>
+        <v>774.3605496639129</v>
       </c>
       <c r="X31" t="n">
-        <v>645.2487928544449</v>
+        <v>645.2487928544451</v>
       </c>
       <c r="Y31" t="n">
-        <v>525.3543413418787</v>
+        <v>525.3543413418784</v>
       </c>
     </row>
     <row r="32">
@@ -6677,28 +6677,28 @@
         <v>1810.171707740055</v>
       </c>
       <c r="C32" t="n">
-        <v>1530.378656368019</v>
+        <v>1530.378656368018</v>
       </c>
       <c r="D32" t="n">
-        <v>1259.695398890399</v>
+        <v>1259.695398890398</v>
       </c>
       <c r="E32" t="n">
-        <v>967.0503862916619</v>
+        <v>967.0503862916617</v>
       </c>
       <c r="F32" t="n">
-        <v>655.0399028969886</v>
+        <v>655.0399028969885</v>
       </c>
       <c r="G32" t="n">
-        <v>341.689540677216</v>
+        <v>341.6895406772155</v>
       </c>
       <c r="H32" t="n">
-        <v>117.2860101122128</v>
+        <v>117.2860101122129</v>
       </c>
       <c r="I32" t="n">
-        <v>70.23900244928362</v>
+        <v>70.23900244928365</v>
       </c>
       <c r="J32" t="n">
-        <v>293.3310115116682</v>
+        <v>293.3310115116683</v>
       </c>
       <c r="K32" t="n">
         <v>709.9933251827551</v>
@@ -6713,22 +6713,22 @@
         <v>2437.240804139351</v>
       </c>
       <c r="O32" t="n">
-        <v>2943.568054694057</v>
+        <v>2843.459947474074</v>
       </c>
       <c r="P32" t="n">
         <v>3258.109235457153</v>
       </c>
       <c r="Q32" t="n">
-        <v>3462.941623279586</v>
+        <v>3462.941623279587</v>
       </c>
       <c r="R32" t="n">
-        <v>3511.950122464181</v>
+        <v>3511.950122464182</v>
       </c>
       <c r="S32" t="n">
-        <v>3440.828701230938</v>
+        <v>3440.82870123094</v>
       </c>
       <c r="T32" t="n">
-        <v>3321.293506559796</v>
+        <v>3321.293506559798</v>
       </c>
       <c r="U32" t="n">
         <v>3168.597910931418</v>
@@ -6762,10 +6762,10 @@
         <v>634.2234080360552</v>
       </c>
       <c r="E33" t="n">
-        <v>487.1953980929263</v>
+        <v>487.1953980929264</v>
       </c>
       <c r="F33" t="n">
-        <v>352.5016000428007</v>
+        <v>352.5016000428008</v>
       </c>
       <c r="G33" t="n">
         <v>224.1010395887884</v>
@@ -6774,19 +6774,19 @@
         <v>127.3303875258035</v>
       </c>
       <c r="I33" t="n">
-        <v>70.23900244928362</v>
+        <v>70.23900244928365</v>
       </c>
       <c r="J33" t="n">
         <v>160.8596786661748</v>
       </c>
       <c r="K33" t="n">
-        <v>160.8596786661748</v>
+        <v>442.251467165638</v>
       </c>
       <c r="L33" t="n">
-        <v>354.0267141962565</v>
+        <v>877.8609290664428</v>
       </c>
       <c r="M33" t="n">
-        <v>920.4989247619706</v>
+        <v>1444.333139632157</v>
       </c>
       <c r="N33" t="n">
         <v>1515.358872157957</v>
@@ -6832,40 +6832,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>443.9396799526548</v>
+        <v>443.9396799526551</v>
       </c>
       <c r="C34" t="n">
-        <v>376.4644177094915</v>
+        <v>376.4644177094917</v>
       </c>
       <c r="D34" t="n">
-        <v>325.5332318324106</v>
+        <v>325.5332318324108</v>
       </c>
       <c r="E34" t="n">
-        <v>275.6649248888858</v>
+        <v>275.664924888886</v>
       </c>
       <c r="F34" t="n">
-        <v>225.3249772098193</v>
+        <v>225.3249772098195</v>
       </c>
       <c r="G34" t="n">
-        <v>158.8208693524575</v>
+        <v>158.8208693524576</v>
       </c>
       <c r="H34" t="n">
         <v>104.033340000341</v>
       </c>
       <c r="I34" t="n">
-        <v>70.23900244928362</v>
+        <v>70.23900244928365</v>
       </c>
       <c r="J34" t="n">
         <v>130.535994980764</v>
       </c>
       <c r="K34" t="n">
-        <v>295.5549102843618</v>
+        <v>295.5549102843623</v>
       </c>
       <c r="L34" t="n">
-        <v>536.331792446353</v>
+        <v>536.3317924463536</v>
       </c>
       <c r="M34" t="n">
-        <v>796.6728466785148</v>
+        <v>796.6728466785154</v>
       </c>
       <c r="N34" t="n">
         <v>1056.438377038233</v>
@@ -6877,31 +6877,31 @@
         <v>1488.764234223155</v>
       </c>
       <c r="Q34" t="n">
-        <v>1573.665686612331</v>
+        <v>1573.665686612332</v>
       </c>
       <c r="R34" t="n">
-        <v>1538.646621524217</v>
+        <v>1538.646621524218</v>
       </c>
       <c r="S34" t="n">
-        <v>1431.868906954462</v>
+        <v>1431.868906954463</v>
       </c>
       <c r="T34" t="n">
-        <v>1302.005376841905</v>
+        <v>1302.005376841906</v>
       </c>
       <c r="U34" t="n">
-        <v>1116.970840997778</v>
+        <v>1116.970840997779</v>
       </c>
       <c r="V34" t="n">
-        <v>958.3762438513572</v>
+        <v>958.3762438513576</v>
       </c>
       <c r="W34" t="n">
-        <v>774.3605496639127</v>
+        <v>774.360549663913</v>
       </c>
       <c r="X34" t="n">
-        <v>645.2487928544448</v>
+        <v>645.2487928544451</v>
       </c>
       <c r="Y34" t="n">
-        <v>525.3543413418782</v>
+        <v>525.3543413418786</v>
       </c>
     </row>
     <row r="35">
@@ -6917,16 +6917,16 @@
         <v>1106.443993458708</v>
       </c>
       <c r="D35" t="n">
-        <v>906.8821572143304</v>
+        <v>906.8821572143302</v>
       </c>
       <c r="E35" t="n">
-        <v>685.3585658488362</v>
+        <v>685.3585658488358</v>
       </c>
       <c r="F35" t="n">
-        <v>444.4695036874054</v>
+        <v>444.469503687405</v>
       </c>
       <c r="G35" t="n">
-        <v>202.2405627008747</v>
+        <v>202.2405627008748</v>
       </c>
       <c r="H35" t="n">
         <v>48.95845336911377</v>
@@ -6935,25 +6935,25 @@
         <v>48.95845336911377</v>
       </c>
       <c r="J35" t="n">
-        <v>48.95845336911377</v>
+        <v>171.9423552115156</v>
       </c>
       <c r="K35" t="n">
-        <v>365.5126598202179</v>
+        <v>488.4965616626198</v>
       </c>
       <c r="L35" t="n">
-        <v>808.196151459653</v>
+        <v>931.1800533020549</v>
       </c>
       <c r="M35" t="n">
-        <v>1306.916490246562</v>
+        <v>1082.33976384823</v>
       </c>
       <c r="N35" t="n">
-        <v>1792.435817116866</v>
+        <v>1567.859090718534</v>
       </c>
       <c r="O35" t="n">
-        <v>2198.654960451589</v>
+        <v>1974.078234053258</v>
       </c>
       <c r="P35" t="n">
-        <v>2447.922668455688</v>
+        <v>2288.619414816354</v>
       </c>
       <c r="Q35" t="n">
         <v>2447.922668455688</v>
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>836.3855189669962</v>
+        <v>856.3937836481986</v>
       </c>
       <c r="C36" t="n">
-        <v>674.6818462079509</v>
+        <v>694.6901108891533</v>
       </c>
       <c r="D36" t="n">
-        <v>535.843209198163</v>
+        <v>555.8514738793654</v>
       </c>
       <c r="E36" t="n">
-        <v>388.8151992550342</v>
+        <v>408.8234639362366</v>
       </c>
       <c r="F36" t="n">
-        <v>254.1214012049086</v>
+        <v>274.129665886111</v>
       </c>
       <c r="G36" t="n">
-        <v>125.7208407508963</v>
+        <v>145.7291054320987</v>
       </c>
       <c r="H36" t="n">
-        <v>106.0498384456337</v>
+        <v>48.95845336911377</v>
       </c>
       <c r="I36" t="n">
         <v>48.95845336911377</v>
       </c>
       <c r="J36" t="n">
-        <v>139.5791295860049</v>
+        <v>133.5052123540828</v>
       </c>
       <c r="K36" t="n">
-        <v>139.5791295860049</v>
+        <v>414.897000853546</v>
       </c>
       <c r="L36" t="n">
-        <v>575.1885914868097</v>
+        <v>850.5064627543509</v>
       </c>
       <c r="M36" t="n">
-        <v>1141.660802052524</v>
+        <v>1416.978673320065</v>
       </c>
       <c r="N36" t="n">
-        <v>1615.77845778357</v>
+        <v>1416.978673320065</v>
       </c>
       <c r="O36" t="n">
-        <v>2084.450862760018</v>
+        <v>1885.651078296513</v>
       </c>
       <c r="P36" t="n">
-        <v>2447.922668455688</v>
+        <v>2249.122883992183</v>
       </c>
       <c r="Q36" t="n">
         <v>2447.922668455688</v>
       </c>
       <c r="R36" t="n">
-        <v>2408.499416583027</v>
+        <v>2428.507681264229</v>
       </c>
       <c r="S36" t="n">
-        <v>2261.791262396854</v>
+        <v>2281.799527078056</v>
       </c>
       <c r="T36" t="n">
-        <v>2074.427984972331</v>
+        <v>2094.436249653533</v>
       </c>
       <c r="U36" t="n">
-        <v>1855.95476753924</v>
+        <v>1875.963032220442</v>
       </c>
       <c r="V36" t="n">
-        <v>1627.559144987574</v>
+        <v>1647.567409668776</v>
       </c>
       <c r="W36" t="n">
-        <v>1386.243276220884</v>
+        <v>1406.251540902086</v>
       </c>
       <c r="X36" t="n">
-        <v>1188.326288098678</v>
+        <v>1208.334552779881</v>
       </c>
       <c r="Y36" t="n">
-        <v>995.8049617482571</v>
+        <v>1015.81322642946</v>
       </c>
     </row>
     <row r="37">
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>89.57789494497584</v>
+        <v>280.8024775859849</v>
       </c>
       <c r="C37" t="n">
-        <v>89.57789494497584</v>
+        <v>280.8024775859849</v>
       </c>
       <c r="D37" t="n">
-        <v>89.57789494497584</v>
+        <v>280.8024775859849</v>
       </c>
       <c r="E37" t="n">
-        <v>89.57789494497584</v>
+        <v>280.8024775859849</v>
       </c>
       <c r="F37" t="n">
-        <v>89.57789494497584</v>
+        <v>280.8024775859849</v>
       </c>
       <c r="G37" t="n">
-        <v>89.57789494497584</v>
+        <v>280.8024775859849</v>
       </c>
       <c r="H37" t="n">
-        <v>89.57789494497584</v>
+        <v>123.8742409387119</v>
       </c>
       <c r="I37" t="n">
-        <v>89.57789494497584</v>
+        <v>48.95845336911377</v>
       </c>
       <c r="J37" t="n">
         <v>48.95845336911377</v>
@@ -7117,28 +7117,28 @@
         <v>806.5380492916081</v>
       </c>
       <c r="R37" t="n">
-        <v>788.5755951789976</v>
+        <v>806.5380492916081</v>
       </c>
       <c r="S37" t="n">
-        <v>752.9193018424846</v>
+        <v>770.8817559550952</v>
       </c>
       <c r="T37" t="n">
-        <v>694.1771929631707</v>
+        <v>712.1396470757812</v>
       </c>
       <c r="U37" t="n">
-        <v>407.0019498238868</v>
+        <v>598.2265324648962</v>
       </c>
       <c r="V37" t="n">
-        <v>319.5287739107083</v>
+        <v>510.7533565517176</v>
       </c>
       <c r="W37" t="n">
-        <v>206.6345009565063</v>
+        <v>397.8590835975155</v>
       </c>
       <c r="X37" t="n">
-        <v>148.6441653802809</v>
+        <v>339.8687480212901</v>
       </c>
       <c r="Y37" t="n">
-        <v>99.87113510095681</v>
+        <v>291.0957177419659</v>
       </c>
     </row>
     <row r="38">
@@ -7154,16 +7154,16 @@
         <v>1106.443993458708</v>
       </c>
       <c r="D38" t="n">
-        <v>906.8821572143302</v>
+        <v>906.8821572143306</v>
       </c>
       <c r="E38" t="n">
-        <v>685.3585658488358</v>
+        <v>685.3585658488364</v>
       </c>
       <c r="F38" t="n">
-        <v>444.469503687405</v>
+        <v>444.4695036874057</v>
       </c>
       <c r="G38" t="n">
-        <v>202.2405627008748</v>
+        <v>202.2405627008747</v>
       </c>
       <c r="H38" t="n">
         <v>48.95845336911377</v>
@@ -7172,25 +7172,25 @@
         <v>48.95845336911377</v>
       </c>
       <c r="J38" t="n">
-        <v>48.95845336911377</v>
+        <v>171.9423552115156</v>
       </c>
       <c r="K38" t="n">
-        <v>300.2391870612209</v>
+        <v>488.4965616626198</v>
       </c>
       <c r="L38" t="n">
-        <v>742.922678700656</v>
+        <v>931.1800533020549</v>
       </c>
       <c r="M38" t="n">
-        <v>1241.643017487565</v>
+        <v>1429.900392088964</v>
       </c>
       <c r="N38" t="n">
-        <v>1727.162344357869</v>
+        <v>1915.419718959268</v>
       </c>
       <c r="O38" t="n">
-        <v>2133.381487692592</v>
+        <v>2288.619414816354</v>
       </c>
       <c r="P38" t="n">
-        <v>2447.922668455688</v>
+        <v>2288.619414816354</v>
       </c>
       <c r="Q38" t="n">
         <v>2447.922668455688</v>
@@ -7227,22 +7227,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>836.3855189669962</v>
+        <v>913.4851687247186</v>
       </c>
       <c r="C39" t="n">
-        <v>674.6818462079509</v>
+        <v>751.7814959656733</v>
       </c>
       <c r="D39" t="n">
-        <v>535.843209198163</v>
+        <v>612.9428589558854</v>
       </c>
       <c r="E39" t="n">
-        <v>388.8151992550342</v>
+        <v>465.9148490127566</v>
       </c>
       <c r="F39" t="n">
-        <v>254.1214012049086</v>
+        <v>331.2210509626309</v>
       </c>
       <c r="G39" t="n">
-        <v>125.7208407508963</v>
+        <v>202.8204905086186</v>
       </c>
       <c r="H39" t="n">
         <v>106.0498384456337</v>
@@ -7251,16 +7251,16 @@
         <v>48.95845336911377</v>
       </c>
       <c r="J39" t="n">
-        <v>133.5052123540829</v>
+        <v>48.95845336911377</v>
       </c>
       <c r="K39" t="n">
-        <v>414.897000853546</v>
+        <v>48.95845336911377</v>
       </c>
       <c r="L39" t="n">
-        <v>850.5064627543509</v>
+        <v>255.6465153583646</v>
       </c>
       <c r="M39" t="n">
-        <v>1416.978673320065</v>
+        <v>822.1187259240786</v>
       </c>
       <c r="N39" t="n">
         <v>1416.978673320065</v>
@@ -7275,28 +7275,28 @@
         <v>2447.922668455688</v>
       </c>
       <c r="R39" t="n">
-        <v>2408.499416583027</v>
+        <v>2447.922668455688</v>
       </c>
       <c r="S39" t="n">
-        <v>2261.791262396854</v>
+        <v>2338.890912154576</v>
       </c>
       <c r="T39" t="n">
-        <v>2074.427984972331</v>
+        <v>2151.527634730053</v>
       </c>
       <c r="U39" t="n">
-        <v>1855.95476753924</v>
+        <v>1933.054417296962</v>
       </c>
       <c r="V39" t="n">
-        <v>1627.559144987574</v>
+        <v>1704.658794745296</v>
       </c>
       <c r="W39" t="n">
-        <v>1386.243276220884</v>
+        <v>1463.342925978606</v>
       </c>
       <c r="X39" t="n">
-        <v>1188.326288098678</v>
+        <v>1265.425937856401</v>
       </c>
       <c r="Y39" t="n">
-        <v>995.8049617482571</v>
+        <v>1072.90461150598</v>
       </c>
     </row>
     <row r="40">
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>280.8024775859849</v>
+        <v>48.95845336911377</v>
       </c>
       <c r="C40" t="n">
-        <v>111.1865080476652</v>
+        <v>48.95845336911377</v>
       </c>
       <c r="D40" t="n">
-        <v>111.1865080476652</v>
+        <v>48.95845336911377</v>
       </c>
       <c r="E40" t="n">
-        <v>111.1865080476652</v>
+        <v>48.95845336911377</v>
       </c>
       <c r="F40" t="n">
         <v>48.95845336911377</v>
@@ -7357,25 +7357,25 @@
         <v>806.5380492916081</v>
       </c>
       <c r="S40" t="n">
-        <v>770.8817559550952</v>
+        <v>770.8817559550953</v>
       </c>
       <c r="T40" t="n">
-        <v>712.1396470757812</v>
+        <v>712.1396470757813</v>
       </c>
       <c r="U40" t="n">
-        <v>598.2265324648962</v>
+        <v>598.2265324648963</v>
       </c>
       <c r="V40" t="n">
-        <v>510.7533565517176</v>
+        <v>510.7533565517178</v>
       </c>
       <c r="W40" t="n">
-        <v>397.8590835975155</v>
+        <v>339.2771879090431</v>
       </c>
       <c r="X40" t="n">
-        <v>339.8687480212901</v>
+        <v>281.2868523328177</v>
       </c>
       <c r="Y40" t="n">
-        <v>291.0957177419659</v>
+        <v>59.25169352509474</v>
       </c>
     </row>
     <row r="41">
@@ -7418,16 +7418,16 @@
         <v>808.196151459653</v>
       </c>
       <c r="M41" t="n">
-        <v>1241.643017487565</v>
+        <v>1082.33976384823</v>
       </c>
       <c r="N41" t="n">
-        <v>1727.162344357869</v>
+        <v>1567.859090718534</v>
       </c>
       <c r="O41" t="n">
-        <v>2133.381487692592</v>
+        <v>1974.078234053258</v>
       </c>
       <c r="P41" t="n">
-        <v>2447.922668455688</v>
+        <v>2288.619414816354</v>
       </c>
       <c r="Q41" t="n">
         <v>2447.922668455688</v>
@@ -7439,7 +7439,7 @@
         <v>2447.922668455688</v>
       </c>
       <c r="T41" t="n">
-        <v>2399.508895017789</v>
+        <v>2399.50889501779</v>
       </c>
       <c r="U41" t="n">
         <v>2317.934720622653</v>
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>836.3855189669962</v>
+        <v>913.4851687247186</v>
       </c>
       <c r="C42" t="n">
-        <v>674.6818462079509</v>
+        <v>751.7814959656733</v>
       </c>
       <c r="D42" t="n">
-        <v>535.843209198163</v>
+        <v>612.9428589558854</v>
       </c>
       <c r="E42" t="n">
-        <v>388.8151992550342</v>
+        <v>465.9148490127566</v>
       </c>
       <c r="F42" t="n">
-        <v>254.1214012049086</v>
+        <v>331.2210509626309</v>
       </c>
       <c r="G42" t="n">
-        <v>125.7208407508963</v>
+        <v>202.8204905086186</v>
       </c>
       <c r="H42" t="n">
         <v>106.0498384456337</v>
@@ -7488,25 +7488,25 @@
         <v>48.95845336911377</v>
       </c>
       <c r="J42" t="n">
-        <v>139.5791295860049</v>
+        <v>48.95845336911377</v>
       </c>
       <c r="K42" t="n">
-        <v>420.9709180854681</v>
+        <v>330.350241868577</v>
       </c>
       <c r="L42" t="n">
-        <v>454.4462998218698</v>
+        <v>765.9597037693818</v>
       </c>
       <c r="M42" t="n">
-        <v>1020.918510387584</v>
+        <v>822.1187259240786</v>
       </c>
       <c r="N42" t="n">
-        <v>1615.77845778357</v>
+        <v>1416.978673320065</v>
       </c>
       <c r="O42" t="n">
-        <v>2084.450862760018</v>
+        <v>1885.651078296513</v>
       </c>
       <c r="P42" t="n">
-        <v>2447.922668455688</v>
+        <v>2249.122883992183</v>
       </c>
       <c r="Q42" t="n">
         <v>2447.922668455688</v>
@@ -7515,25 +7515,25 @@
         <v>2408.499416583027</v>
       </c>
       <c r="S42" t="n">
-        <v>2261.791262396854</v>
+        <v>2338.890912154576</v>
       </c>
       <c r="T42" t="n">
-        <v>2074.427984972331</v>
+        <v>2151.527634730053</v>
       </c>
       <c r="U42" t="n">
-        <v>1855.95476753924</v>
+        <v>1933.054417296962</v>
       </c>
       <c r="V42" t="n">
-        <v>1627.559144987574</v>
+        <v>1704.658794745296</v>
       </c>
       <c r="W42" t="n">
-        <v>1386.243276220884</v>
+        <v>1463.342925978606</v>
       </c>
       <c r="X42" t="n">
-        <v>1188.326288098678</v>
+        <v>1265.425937856401</v>
       </c>
       <c r="Y42" t="n">
-        <v>995.8049617482571</v>
+        <v>1072.90461150598</v>
       </c>
     </row>
     <row r="43">
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>107.5403490575862</v>
+        <v>48.95845336911377</v>
       </c>
       <c r="C43" t="n">
-        <v>107.5403490575862</v>
+        <v>48.95845336911377</v>
       </c>
       <c r="D43" t="n">
-        <v>107.5403490575862</v>
+        <v>48.95845336911377</v>
       </c>
       <c r="E43" t="n">
-        <v>107.5403490575862</v>
+        <v>48.95845336911377</v>
       </c>
       <c r="F43" t="n">
-        <v>107.5403490575862</v>
+        <v>48.95845336911377</v>
       </c>
       <c r="G43" t="n">
-        <v>107.5403490575862</v>
+        <v>48.95845336911377</v>
       </c>
       <c r="H43" t="n">
         <v>48.95845336911377</v>
@@ -7597,22 +7597,22 @@
         <v>770.8817559550952</v>
       </c>
       <c r="T43" t="n">
-        <v>712.1396470757812</v>
+        <v>653.5577513873088</v>
       </c>
       <c r="U43" t="n">
-        <v>598.2265324648962</v>
+        <v>366.382508248025</v>
       </c>
       <c r="V43" t="n">
-        <v>510.7533565517176</v>
+        <v>278.9093323348465</v>
       </c>
       <c r="W43" t="n">
-        <v>224.5969550691167</v>
+        <v>166.0150593806443</v>
       </c>
       <c r="X43" t="n">
-        <v>166.6066194928913</v>
+        <v>108.0247238044189</v>
       </c>
       <c r="Y43" t="n">
-        <v>117.8335892135672</v>
+        <v>59.25169352509479</v>
       </c>
     </row>
     <row r="44">
@@ -7625,19 +7625,19 @@
         <v>1315.115623597501</v>
       </c>
       <c r="C44" t="n">
-        <v>1106.443993458707</v>
+        <v>1106.443993458708</v>
       </c>
       <c r="D44" t="n">
-        <v>906.8821572143293</v>
+        <v>906.8821572143302</v>
       </c>
       <c r="E44" t="n">
-        <v>685.358565848835</v>
+        <v>685.3585658488357</v>
       </c>
       <c r="F44" t="n">
-        <v>444.4695036874044</v>
+        <v>444.4695036874048</v>
       </c>
       <c r="G44" t="n">
-        <v>202.2405627008748</v>
+        <v>202.2405627008747</v>
       </c>
       <c r="H44" t="n">
         <v>48.95845336911377</v>
@@ -7652,10 +7652,10 @@
         <v>488.4965616626198</v>
       </c>
       <c r="L44" t="n">
-        <v>931.1800533020548</v>
+        <v>931.1800533020549</v>
       </c>
       <c r="M44" t="n">
-        <v>1429.900392088963</v>
+        <v>1429.900392088964</v>
       </c>
       <c r="N44" t="n">
         <v>1915.419718959268</v>
@@ -7682,16 +7682,16 @@
         <v>2317.934720622653</v>
       </c>
       <c r="V44" t="n">
-        <v>2154.217575046992</v>
+        <v>2154.217575046993</v>
       </c>
       <c r="W44" t="n">
-        <v>1964.944773432992</v>
+        <v>1964.944773432993</v>
       </c>
       <c r="X44" t="n">
         <v>1756.176761482885</v>
       </c>
       <c r="Y44" t="n">
-        <v>1535.897034587121</v>
+        <v>1535.897034587122</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7701,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>856.3937836481986</v>
+        <v>836.3855189669962</v>
       </c>
       <c r="C45" t="n">
-        <v>694.6901108891533</v>
+        <v>674.6818462079509</v>
       </c>
       <c r="D45" t="n">
-        <v>555.8514738793654</v>
+        <v>535.843209198163</v>
       </c>
       <c r="E45" t="n">
-        <v>408.8234639362366</v>
+        <v>388.8151992550342</v>
       </c>
       <c r="F45" t="n">
-        <v>274.129665886111</v>
+        <v>254.1214012049086</v>
       </c>
       <c r="G45" t="n">
-        <v>145.7291054320987</v>
+        <v>202.8204905086186</v>
       </c>
       <c r="H45" t="n">
-        <v>48.95845336911377</v>
+        <v>106.0498384456337</v>
       </c>
       <c r="I45" t="n">
         <v>48.95845336911377</v>
@@ -7731,13 +7731,13 @@
         <v>420.9709180854681</v>
       </c>
       <c r="L45" t="n">
-        <v>856.5803799862729</v>
+        <v>724.3189203348131</v>
       </c>
       <c r="M45" t="n">
-        <v>1416.978673320065</v>
+        <v>1290.791130900527</v>
       </c>
       <c r="N45" t="n">
-        <v>1416.978673320065</v>
+        <v>1885.651078296513</v>
       </c>
       <c r="O45" t="n">
         <v>1885.651078296513</v>
@@ -7752,25 +7752,25 @@
         <v>2408.499416583027</v>
       </c>
       <c r="S45" t="n">
-        <v>2281.799527078056</v>
+        <v>2261.791262396854</v>
       </c>
       <c r="T45" t="n">
-        <v>2094.436249653533</v>
+        <v>2074.427984972331</v>
       </c>
       <c r="U45" t="n">
-        <v>1875.963032220442</v>
+        <v>1855.95476753924</v>
       </c>
       <c r="V45" t="n">
-        <v>1647.567409668776</v>
+        <v>1627.559144987574</v>
       </c>
       <c r="W45" t="n">
-        <v>1406.251540902086</v>
+        <v>1386.243276220884</v>
       </c>
       <c r="X45" t="n">
-        <v>1208.334552779881</v>
+        <v>1188.326288098678</v>
       </c>
       <c r="Y45" t="n">
-        <v>1015.81322642946</v>
+        <v>995.8049617482571</v>
       </c>
     </row>
     <row r="46">
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>265.2870660659295</v>
+        <v>89.57789494497584</v>
       </c>
       <c r="C46" t="n">
-        <v>265.2870660659295</v>
+        <v>89.57789494497584</v>
       </c>
       <c r="D46" t="n">
-        <v>265.2870660659295</v>
+        <v>89.57789494497584</v>
       </c>
       <c r="E46" t="n">
-        <v>265.2870660659295</v>
+        <v>89.57789494497584</v>
       </c>
       <c r="F46" t="n">
-        <v>265.2870660659295</v>
+        <v>89.57789494497584</v>
       </c>
       <c r="G46" t="n">
-        <v>265.2870660659295</v>
+        <v>89.57789494497584</v>
       </c>
       <c r="H46" t="n">
-        <v>108.3588294186565</v>
+        <v>89.57789494497584</v>
       </c>
       <c r="I46" t="n">
         <v>89.57789494497584</v>
@@ -7828,28 +7828,28 @@
         <v>791.0226377715527</v>
       </c>
       <c r="R46" t="n">
-        <v>791.0226377715527</v>
+        <v>653.8628653882824</v>
       </c>
       <c r="S46" t="n">
-        <v>755.3663444350398</v>
+        <v>618.2065720517695</v>
       </c>
       <c r="T46" t="n">
-        <v>696.6242355557258</v>
+        <v>559.4644631724556</v>
       </c>
       <c r="U46" t="n">
-        <v>582.7111209448408</v>
+        <v>407.0019498238869</v>
       </c>
       <c r="V46" t="n">
-        <v>495.2379450316622</v>
+        <v>319.5287739107084</v>
       </c>
       <c r="W46" t="n">
-        <v>382.3436720774601</v>
+        <v>206.6345009565063</v>
       </c>
       <c r="X46" t="n">
-        <v>324.3533365012347</v>
+        <v>148.6441653802809</v>
       </c>
       <c r="Y46" t="n">
-        <v>275.5803062219105</v>
+        <v>99.87113510095683</v>
       </c>
     </row>
   </sheetData>
@@ -8450,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>147.0997974279331</v>
+        <v>147.0997974279326</v>
       </c>
       <c r="K8" t="n">
-        <v>178.8230039740472</v>
+        <v>178.8230039740467</v>
       </c>
       <c r="L8" t="n">
         <v>191.5602121631146</v>
@@ -8465,13 +8465,13 @@
         <v>186.3981141722301</v>
       </c>
       <c r="O8" t="n">
-        <v>186.9547967801219</v>
+        <v>186.9547967801205</v>
       </c>
       <c r="P8" t="n">
-        <v>187.876809051157</v>
+        <v>187.8768090511565</v>
       </c>
       <c r="Q8" t="n">
-        <v>180.6233730229907</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R8" t="n">
         <v>85.43134583487716</v>
@@ -8529,10 +8529,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>103.0555716666671</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K9" t="n">
-        <v>111.9961691666671</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L9" t="n">
         <v>112.5754335711478</v>
@@ -8541,10 +8541,10 @@
         <v>115.4839025616399</v>
       </c>
       <c r="N9" t="n">
-        <v>106.7151410677088</v>
+        <v>106.7151410677083</v>
       </c>
       <c r="O9" t="n">
-        <v>115.8594486111129</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P9" t="n">
         <v>108.8542060241433</v>
@@ -8614,13 +8614,13 @@
         <v>104.82327226356</v>
       </c>
       <c r="L10" t="n">
-        <v>109.593799478507</v>
+        <v>109.5937994785061</v>
       </c>
       <c r="M10" t="n">
-        <v>112.8771994574296</v>
+        <v>112.8771994574291</v>
       </c>
       <c r="N10" t="n">
-        <v>103.7445048780024</v>
+        <v>103.744504878002</v>
       </c>
       <c r="O10" t="n">
         <v>112.4959374921223</v>
@@ -8687,28 +8687,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>95.59943624652234</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K11" t="n">
-        <v>101.6373126545302</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L11" t="n">
-        <v>470.743049297807</v>
+        <v>95.80453685555008</v>
       </c>
       <c r="M11" t="n">
-        <v>122.6807928034493</v>
+        <v>80.60967557410797</v>
       </c>
       <c r="N11" t="n">
-        <v>453.0659516825795</v>
+        <v>265.1853167755507</v>
       </c>
       <c r="O11" t="n">
-        <v>459.6563810790547</v>
+        <v>459.6563810790545</v>
       </c>
       <c r="P11" t="n">
         <v>418.3383206229274</v>
       </c>
       <c r="Q11" t="n">
-        <v>115.0971104444071</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R11" t="n">
         <v>85.43134583487716</v>
@@ -8769,25 +8769,25 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K12" t="n">
-        <v>59.57067831891466</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L12" t="n">
-        <v>318.1316108385499</v>
+        <v>417.0214038611933</v>
       </c>
       <c r="M12" t="n">
-        <v>408.160943230677</v>
+        <v>199.1676697584029</v>
       </c>
       <c r="N12" t="n">
-        <v>22.27645291330012</v>
+        <v>22.27645291330009</v>
       </c>
       <c r="O12" t="n">
-        <v>413.5530578288249</v>
+        <v>38.61454538656798</v>
       </c>
       <c r="P12" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
-        <v>72.29261096215423</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -8927,19 +8927,19 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K14" t="n">
-        <v>101.6373126545302</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L14" t="n">
-        <v>470.743049297807</v>
+        <v>470.7430492978069</v>
       </c>
       <c r="M14" t="n">
-        <v>155.2606163199746</v>
+        <v>455.5481880163647</v>
       </c>
       <c r="N14" t="n">
-        <v>453.0659516825795</v>
+        <v>207.9651687404618</v>
       </c>
       <c r="O14" t="n">
-        <v>459.6563810790547</v>
+        <v>84.71786863679765</v>
       </c>
       <c r="P14" t="n">
         <v>100.6199562157595</v>
@@ -9009,16 +9009,16 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L15" t="n">
-        <v>42.08289141893647</v>
+        <v>42.08289141893646</v>
       </c>
       <c r="M15" t="n">
-        <v>33.2224307884201</v>
+        <v>33.22243078842006</v>
       </c>
       <c r="N15" t="n">
-        <v>188.2216918832833</v>
+        <v>397.2149653555569</v>
       </c>
       <c r="O15" t="n">
-        <v>413.5530578288249</v>
+        <v>204.5597843565508</v>
       </c>
       <c r="P15" t="n">
         <v>414.0015992319183</v>
@@ -9167,22 +9167,22 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L17" t="n">
-        <v>470.743049297807</v>
+        <v>282.8624143907783</v>
       </c>
       <c r="M17" t="n">
-        <v>80.609675574108</v>
+        <v>455.5481880163649</v>
       </c>
       <c r="N17" t="n">
-        <v>78.12743924032254</v>
+        <v>78.12743924032253</v>
       </c>
       <c r="O17" t="n">
-        <v>432.6881235854953</v>
+        <v>84.71786863679766</v>
       </c>
       <c r="P17" t="n">
         <v>418.3383206229274</v>
       </c>
       <c r="Q17" t="n">
-        <v>115.0971104444071</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R17" t="n">
         <v>85.43134583487716</v>
@@ -9240,22 +9240,22 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>163.9183459425315</v>
+        <v>72.38230935981316</v>
       </c>
       <c r="K18" t="n">
-        <v>343.8048081163522</v>
+        <v>59.57067831891464</v>
       </c>
       <c r="L18" t="n">
-        <v>208.0281303889196</v>
+        <v>417.0214038611933</v>
       </c>
       <c r="M18" t="n">
-        <v>33.2224307884201</v>
+        <v>199.9993236963022</v>
       </c>
       <c r="N18" t="n">
-        <v>22.27645291330012</v>
+        <v>22.27645291330009</v>
       </c>
       <c r="O18" t="n">
-        <v>413.5530578288249</v>
+        <v>413.5530578288248</v>
       </c>
       <c r="P18" t="n">
         <v>414.0015992319183</v>
@@ -9398,28 +9398,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>95.59943624652234</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K20" t="n">
-        <v>101.6373126545302</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L20" t="n">
-        <v>470.743049297807</v>
+        <v>470.7430492978069</v>
       </c>
       <c r="M20" t="n">
-        <v>455.5481880163649</v>
+        <v>267.667553109336</v>
       </c>
       <c r="N20" t="n">
-        <v>453.0659516825795</v>
+        <v>78.12743924032253</v>
       </c>
       <c r="O20" t="n">
-        <v>444.5073502733068</v>
+        <v>84.71786863679766</v>
       </c>
       <c r="P20" t="n">
-        <v>100.6199562157595</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q20" t="n">
-        <v>115.0971104444071</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R20" t="n">
         <v>85.43134583487716</v>
@@ -9477,28 +9477,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>72.38230935981316</v>
+        <v>147.9376611988848</v>
       </c>
       <c r="K21" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L21" t="n">
-        <v>417.0214038611934</v>
+        <v>417.0214038611933</v>
       </c>
       <c r="M21" t="n">
-        <v>408.160943230677</v>
+        <v>408.1609432306769</v>
       </c>
       <c r="N21" t="n">
-        <v>22.27645291330012</v>
+        <v>397.2149653555569</v>
       </c>
       <c r="O21" t="n">
-        <v>121.9651715914622</v>
+        <v>38.61454538656798</v>
       </c>
       <c r="P21" t="n">
-        <v>414.0015992319183</v>
+        <v>46.85836115548407</v>
       </c>
       <c r="Q21" t="n">
-        <v>72.29261096215423</v>
+        <v>72.29261096215421</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9635,28 +9635,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>95.59943624652234</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K23" t="n">
-        <v>101.6373126545302</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L23" t="n">
-        <v>470.743049297807</v>
+        <v>470.7430492978069</v>
       </c>
       <c r="M23" t="n">
-        <v>455.5481880163649</v>
+        <v>267.667553109336</v>
       </c>
       <c r="N23" t="n">
-        <v>453.0659516825795</v>
+        <v>78.12743924032253</v>
       </c>
       <c r="O23" t="n">
-        <v>444.5073502733068</v>
+        <v>84.71786863679766</v>
       </c>
       <c r="P23" t="n">
-        <v>100.6199562157595</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q23" t="n">
-        <v>115.0971104444071</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R23" t="n">
         <v>85.43134583487716</v>
@@ -9714,28 +9714,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>163.9183459425315</v>
+        <v>72.38230935981316</v>
       </c>
       <c r="K24" t="n">
-        <v>343.8048081163522</v>
+        <v>226.3475712267967</v>
       </c>
       <c r="L24" t="n">
-        <v>417.0214038611934</v>
+        <v>417.0214038611933</v>
       </c>
       <c r="M24" t="n">
-        <v>33.2224307884201</v>
+        <v>33.22243078842008</v>
       </c>
       <c r="N24" t="n">
-        <v>22.27645291330012</v>
+        <v>22.27645291330009</v>
       </c>
       <c r="O24" t="n">
-        <v>405.3676474510009</v>
+        <v>413.5530578288248</v>
       </c>
       <c r="P24" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
-        <v>72.29261096215423</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9951,16 +9951,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>163.9183459425315</v>
+        <v>72.38230935981316</v>
       </c>
       <c r="K27" t="n">
-        <v>343.8048081163522</v>
+        <v>107.0232382276754</v>
       </c>
       <c r="L27" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M27" t="n">
-        <v>76.29111330915515</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N27" t="n">
         <v>623.1450866466196</v>
@@ -9972,7 +9972,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q27" t="n">
-        <v>273.1004740566038</v>
+        <v>72.29261096215421</v>
       </c>
       <c r="R27" t="n">
         <v>59.17817075471706</v>
@@ -10188,16 +10188,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>163.9183459425315</v>
+        <v>72.38230935981316</v>
       </c>
       <c r="K30" t="n">
-        <v>343.8048081163522</v>
+        <v>107.0232382276754</v>
       </c>
       <c r="L30" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M30" t="n">
-        <v>76.29111330915515</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N30" t="n">
         <v>623.1450866466196</v>
@@ -10209,7 +10209,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q30" t="n">
-        <v>273.1004740566038</v>
+        <v>72.29261096215421</v>
       </c>
       <c r="R30" t="n">
         <v>59.17817075471706</v>
@@ -10428,16 +10428,16 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K33" t="n">
-        <v>59.57067831891466</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L33" t="n">
-        <v>237.2011091260898</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M33" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N33" t="n">
-        <v>623.1450866466196</v>
+        <v>94.01961708077471</v>
       </c>
       <c r="O33" t="n">
         <v>512.0210150597484</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>95.59943624652234</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K35" t="n">
         <v>421.3890363425141</v>
@@ -10592,7 +10592,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M35" t="n">
-        <v>584.3675935406823</v>
+        <v>233.2962518833759</v>
       </c>
       <c r="N35" t="n">
         <v>568.5510017355793</v>
@@ -10601,10 +10601,10 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P35" t="n">
-        <v>352.4055198562635</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q35" t="n">
-        <v>115.0971104444071</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R35" t="n">
         <v>85.43134583487716</v>
@@ -10662,10 +10662,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>163.9183459425315</v>
+        <v>157.7830760112971</v>
       </c>
       <c r="K36" t="n">
-        <v>59.57067831891466</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L36" t="n">
         <v>482.0924488944969</v>
@@ -10674,7 +10674,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N36" t="n">
-        <v>501.183175873953</v>
+        <v>22.27645291330009</v>
       </c>
       <c r="O36" t="n">
         <v>512.0210150597484</v>
@@ -10683,7 +10683,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q36" t="n">
-        <v>72.29261096215423</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10820,10 +10820,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>95.59943624652234</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K38" t="n">
-        <v>355.4562355758505</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L38" t="n">
         <v>542.9595789155856</v>
@@ -10835,13 +10835,13 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O38" t="n">
-        <v>495.0402356415689</v>
+        <v>461.6872583914302</v>
       </c>
       <c r="P38" t="n">
-        <v>418.3383206229274</v>
+        <v>100.6199562157595</v>
       </c>
       <c r="Q38" t="n">
-        <v>115.0971104444071</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R38" t="n">
         <v>85.43134583487716</v>
@@ -10899,19 +10899,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>157.7830760112971</v>
+        <v>72.38230935981316</v>
       </c>
       <c r="K39" t="n">
-        <v>343.8048081163522</v>
+        <v>59.57067831891464</v>
       </c>
       <c r="L39" t="n">
-        <v>482.0924488944969</v>
+        <v>250.8587116100989</v>
       </c>
       <c r="M39" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>22.27645291330012</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O39" t="n">
         <v>512.0210150597484</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>95.59943624652234</v>
+        <v>95.59943624652233</v>
       </c>
       <c r="K41" t="n">
         <v>421.3890363425141</v>
@@ -11066,7 +11066,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M41" t="n">
-        <v>518.4347927740187</v>
+        <v>357.5224153605495</v>
       </c>
       <c r="N41" t="n">
         <v>568.5510017355793</v>
@@ -11078,7 +11078,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q41" t="n">
-        <v>115.0971104444071</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R41" t="n">
         <v>85.43134583487716</v>
@@ -11136,16 +11136,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>163.9183459425315</v>
+        <v>72.38230935981316</v>
       </c>
       <c r="K42" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L42" t="n">
-        <v>75.89640832439278</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M42" t="n">
-        <v>605.4165828749999</v>
+        <v>89.94871579316433</v>
       </c>
       <c r="N42" t="n">
         <v>623.1450866466196</v>
@@ -11157,7 +11157,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q42" t="n">
-        <v>72.29261096215423</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -11309,7 +11309,7 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O44" t="n">
-        <v>143.9688939842625</v>
+        <v>143.9688939842623</v>
       </c>
       <c r="P44" t="n">
         <v>418.3383206229274</v>
@@ -11379,16 +11379,16 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L45" t="n">
-        <v>482.0924488944969</v>
+        <v>348.4950149031234</v>
       </c>
       <c r="M45" t="n">
-        <v>599.2813129437656</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N45" t="n">
-        <v>22.27645291330012</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O45" t="n">
-        <v>512.0210150597484</v>
+        <v>38.61454538656798</v>
       </c>
       <c r="P45" t="n">
         <v>414.0015992319183</v>
@@ -23030,10 +23030,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>10.00967878293091</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G8" t="n">
-        <v>11.94294668035343</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23255,22 +23255,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>241.1078504188221</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>220.1004714210319</v>
+        <v>220.1004714210318</v>
       </c>
       <c r="E11" t="n">
-        <v>241.8426089909374</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>261.0144250789146</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>224.5283240570027</v>
+        <v>262.3409051157628</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>22.53425353909796</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>103.2926861902832</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>184.6142276590013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>19.48349436684779</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>229.2145853697048</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>240.6111831659035</v>
       </c>
     </row>
     <row r="12">
@@ -23492,22 +23492,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>241.1078504188222</v>
+        <v>241.1078504188221</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>220.1004714210319</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>13.21774386607246</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>261.0144250789145</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>78.83047170482473</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>22.53425353909799</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>103.2926861902832</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>184.6142276590013</v>
+        <v>184.6142276590012</v>
       </c>
       <c r="W14" t="n">
-        <v>209.9143271369582</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>229.2145853697048</v>
       </c>
       <c r="Y14" t="n">
-        <v>240.6111831659036</v>
+        <v>240.6111831659035</v>
       </c>
     </row>
     <row r="15">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1330757.257400612</v>
+        <v>1330757.257400611</v>
       </c>
     </row>
     <row r="5">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>95734.57893841306</v>
+        <v>95734.57893841309</v>
       </c>
       <c r="C2" t="n">
         <v>95734.57893841308</v>
       </c>
       <c r="D2" t="n">
-        <v>95734.578938413</v>
+        <v>95734.57893841308</v>
       </c>
       <c r="E2" t="n">
+        <v>83660.84976497084</v>
+      </c>
+      <c r="F2" t="n">
         <v>83660.84976497089</v>
       </c>
-      <c r="F2" t="n">
-        <v>83660.84976497084</v>
-      </c>
       <c r="G2" t="n">
-        <v>95953.00756177276</v>
+        <v>95953.00756177277</v>
       </c>
       <c r="H2" t="n">
-        <v>95953.00756177273</v>
+        <v>95953.00756177279</v>
       </c>
       <c r="I2" t="n">
-        <v>95953.00756177273</v>
+        <v>95953.00756177277</v>
       </c>
       <c r="J2" t="n">
-        <v>95953.00756177267</v>
+        <v>95953.00756177271</v>
       </c>
       <c r="K2" t="n">
         <v>95953.00756177268</v>
       </c>
       <c r="L2" t="n">
-        <v>95953.00756177267</v>
+        <v>95953.00756177268</v>
       </c>
       <c r="M2" t="n">
         <v>95953.00756177263</v>
       </c>
       <c r="N2" t="n">
-        <v>95953.0075617726</v>
+        <v>95953.00756177261</v>
       </c>
       <c r="O2" t="n">
-        <v>95953.00756177258</v>
+        <v>95953.00756177267</v>
       </c>
       <c r="P2" t="n">
-        <v>95953.00756177264</v>
+        <v>95953.00756177265</v>
       </c>
     </row>
     <row r="3">
@@ -26369,19 +26369,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.412581696058623e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>352409.0220339867</v>
+        <v>352409.0220339869</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>76159.64004103023</v>
+        <v>76159.6400410303</v>
       </c>
       <c r="H3" t="n">
-        <v>6.821210263296962e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26393,19 +26393,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>76159.64004103023</v>
+        <v>76159.64004103027</v>
       </c>
       <c r="M3" t="n">
-        <v>83474.36825920509</v>
+        <v>83474.36825920502</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>4735.800136733542</v>
+        <v>4735.800136733496</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26442,7 +26442,7 @@
         <v>348294.7670570375</v>
       </c>
       <c r="K4" t="n">
-        <v>348294.7670570376</v>
+        <v>348294.7670570374</v>
       </c>
       <c r="L4" t="n">
         <v>348294.7670570374</v>
@@ -26473,22 +26473,22 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>33627.60000000003</v>
+        <v>33627.6</v>
       </c>
       <c r="E5" t="n">
         <v>38612.60241106099</v>
       </c>
       <c r="F5" t="n">
-        <v>38612.602411061</v>
+        <v>38612.60241106099</v>
       </c>
       <c r="G5" t="n">
         <v>46615.93338432271</v>
       </c>
       <c r="H5" t="n">
-        <v>46615.93338432272</v>
+        <v>46615.93338432271</v>
       </c>
       <c r="I5" t="n">
-        <v>46615.93338432272</v>
+        <v>46615.93338432271</v>
       </c>
       <c r="J5" t="n">
         <v>65173.0991827649</v>
@@ -26497,19 +26497,19 @@
         <v>65173.0991827649</v>
       </c>
       <c r="L5" t="n">
-        <v>65173.09918276488</v>
+        <v>65173.09918276489</v>
       </c>
       <c r="M5" t="n">
+        <v>54919.19757587667</v>
+      </c>
+      <c r="N5" t="n">
         <v>54919.19757587668</v>
-      </c>
-      <c r="N5" t="n">
-        <v>54919.19757587667</v>
       </c>
       <c r="O5" t="n">
         <v>54919.19757587667</v>
       </c>
       <c r="P5" t="n">
-        <v>54919.19757587667</v>
+        <v>54919.19757587668</v>
       </c>
     </row>
     <row r="6">
@@ -26519,22 +26519,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-357649.4235182614</v>
+        <v>-357653.7920907286</v>
       </c>
       <c r="C6" t="n">
-        <v>-357649.4235182614</v>
+        <v>-357653.7920907286</v>
       </c>
       <c r="D6" t="n">
-        <v>-357649.4235182617</v>
+        <v>-357653.7920907286</v>
       </c>
       <c r="E6" t="n">
-        <v>-610661.0658178695</v>
+        <v>-610906.9089738057</v>
       </c>
       <c r="F6" t="n">
-        <v>-258252.0437838829</v>
+        <v>-258497.8869398189</v>
       </c>
       <c r="G6" t="n">
-        <v>-386250.5286661987</v>
+        <v>-386250.5286661988</v>
       </c>
       <c r="H6" t="n">
         <v>-310090.8886251685</v>
@@ -26546,7 +26546,7 @@
         <v>-453870.416125826</v>
       </c>
       <c r="K6" t="n">
-        <v>-317514.8586780298</v>
+        <v>-317514.8586780297</v>
       </c>
       <c r="L6" t="n">
         <v>-393674.4987190599</v>
@@ -26555,10 +26555,10 @@
         <v>-392374.7889191656</v>
       </c>
       <c r="N6" t="n">
-        <v>-308900.4206599605</v>
+        <v>-308900.4206599607</v>
       </c>
       <c r="O6" t="n">
-        <v>-313636.2207966941</v>
+        <v>-313636.220796694</v>
       </c>
       <c r="P6" t="n">
         <v>-308900.4206599605</v>
@@ -26698,7 +26698,7 @@
         <v>148.9952537040168</v>
       </c>
       <c r="G2" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553047</v>
       </c>
       <c r="H2" t="n">
         <v>244.1948037553047</v>
@@ -26716,10 +26716,10 @@
         <v>101.1193002222048</v>
       </c>
       <c r="M2" t="n">
+        <v>171.5295072431148</v>
+      </c>
+      <c r="N2" t="n">
         <v>171.5295072431149</v>
-      </c>
-      <c r="N2" t="n">
-        <v>171.5295072431148</v>
       </c>
       <c r="O2" t="n">
         <v>171.5295072431148</v>
@@ -26747,7 +26747,7 @@
         <v>150.9384803178345</v>
       </c>
       <c r="F3" t="n">
-        <v>150.9384803178345</v>
+        <v>150.9384803178346</v>
       </c>
       <c r="G3" t="n">
         <v>150.9384803178345</v>
@@ -26793,31 +26793,31 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>374.9385124422569</v>
+        <v>374.9385124422568</v>
       </c>
       <c r="F4" t="n">
-        <v>374.9385124422569</v>
+        <v>374.9385124422568</v>
       </c>
       <c r="G4" t="n">
-        <v>374.9385124422569</v>
+        <v>374.9385124422568</v>
       </c>
       <c r="H4" t="n">
-        <v>374.9385124422569</v>
+        <v>374.9385124422568</v>
       </c>
       <c r="I4" t="n">
-        <v>374.9385124422569</v>
+        <v>374.9385124422568</v>
       </c>
       <c r="J4" t="n">
-        <v>877.9875306160457</v>
+        <v>877.9875306160455</v>
       </c>
       <c r="K4" t="n">
-        <v>877.9875306160457</v>
+        <v>877.9875306160455</v>
       </c>
       <c r="L4" t="n">
-        <v>877.9875306160452</v>
+        <v>877.9875306160455</v>
       </c>
       <c r="M4" t="n">
         <v>611.9806671139221</v>
@@ -26917,13 +26917,13 @@
         <v>148.9952537040168</v>
       </c>
       <c r="F2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>95.19955005128779</v>
+        <v>95.19955005128787</v>
       </c>
       <c r="H2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26935,19 +26935,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>95.19955005128779</v>
+        <v>95.19955005128784</v>
       </c>
       <c r="M2" t="n">
-        <v>70.41020702091012</v>
+        <v>70.41020702091002</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>5.919750170916927</v>
+        <v>5.919750170916871</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>374.9385124422565</v>
+        <v>374.9385124422568</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27154,13 +27154,13 @@
         <v>148.9952537040168</v>
       </c>
       <c r="K2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>95.19955005128779</v>
+        <v>95.19955005128787</v>
       </c>
       <c r="M2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>374.9385124422565</v>
+        <v>374.9385124422568</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
-        <v>171.0890268032915</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27913,7 +27913,7 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
-        <v>358.9095808409731</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
         <v>378.2098390737216</v>
@@ -27941,16 +27941,16 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F9" t="n">
-        <v>133.3468600696226</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
-        <v>127.4412149769478</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
-        <v>98.93847887876848</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
-        <v>67.69846245683915</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>181.7198149975356</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C10" t="n">
         <v>167.9198098429365</v>
@@ -28032,7 +28032,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J10" t="n">
-        <v>59.45666619996855</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,19 +28056,19 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R10" t="n">
-        <v>148.0265635717651</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S10" t="n">
-        <v>211.572664970348</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T10" t="n">
-        <v>230.8471636524775</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U10" t="n">
-        <v>284.3183371157907</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V10" t="n">
-        <v>258.1279513971612</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W10" t="n">
         <v>283.2948374677749</v>
@@ -28135,7 +28135,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>51.61576569231052</v>
+        <v>51.61576569231051</v>
       </c>
       <c r="S11" t="n">
         <v>148.9952537040168</v>
@@ -28169,7 +28169,7 @@
         <v>148.9952537040168</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>148.9952537040168</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -28178,16 +28178,16 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G12" t="n">
         <v>127.1165548494722</v>
       </c>
       <c r="H12" t="n">
-        <v>32.35371422040274</v>
+        <v>95.80294554235505</v>
       </c>
       <c r="I12" t="n">
-        <v>56.52047122575469</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28214,25 +28214,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>39.02901935393511</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>145.2410726443114</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>148.9952537040168</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>148.9952537040168</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>148.9952537040168</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>148.9952537040168</v>
+        <v>43.99447183242447</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -28269,7 +28269,7 @@
         <v>134.5756943977516</v>
       </c>
       <c r="J13" t="n">
-        <v>40.21324716010345</v>
+        <v>40.21324716010344</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -28293,7 +28293,7 @@
         <v>15.36025740485484</v>
       </c>
       <c r="R13" t="n">
-        <v>135.7881746594385</v>
+        <v>135.7881746594375</v>
       </c>
       <c r="S13" t="n">
         <v>148.9952537040168</v>
@@ -28372,7 +28372,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>51.61576569231052</v>
+        <v>51.6157656923105</v>
       </c>
       <c r="S14" t="n">
         <v>148.9952537040168</v>
@@ -28403,7 +28403,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>148.9952537040168</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>148.9952537040168</v>
@@ -28415,13 +28415,13 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G15" t="n">
         <v>127.1165548494722</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>95.80294554235505</v>
       </c>
       <c r="I15" t="n">
         <v>56.52047122575469</v>
@@ -28451,13 +28451,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>39.02901935393511</v>
       </c>
       <c r="S15" t="n">
-        <v>82.61107943927823</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>148.9952537040168</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -28466,7 +28466,7 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>112.4227618813977</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -28506,7 +28506,7 @@
         <v>134.5756943977516</v>
       </c>
       <c r="J16" t="n">
-        <v>40.21324716010345</v>
+        <v>40.21324716010344</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -28527,7 +28527,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>15.36025740485484</v>
+        <v>15.36025740485483</v>
       </c>
       <c r="R16" t="n">
         <v>135.7881746594375</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553047</v>
       </c>
       <c r="C17" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553047</v>
       </c>
       <c r="D17" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553047</v>
       </c>
       <c r="E17" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553047</v>
       </c>
       <c r="F17" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553047</v>
       </c>
       <c r="G17" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553047</v>
       </c>
       <c r="H17" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553047</v>
       </c>
       <c r="I17" t="n">
         <v>147.6958378085047</v>
@@ -28609,7 +28609,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>51.61576569231052</v>
+        <v>51.61576569231051</v>
       </c>
       <c r="S17" t="n">
         <v>171.5295072431148</v>
@@ -28618,19 +28618,19 @@
         <v>219.4591429466353</v>
       </c>
       <c r="U17" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553047</v>
       </c>
       <c r="V17" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553047</v>
       </c>
       <c r="W17" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553047</v>
       </c>
       <c r="X17" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553047</v>
       </c>
       <c r="Y17" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553047</v>
       </c>
     </row>
     <row r="18">
@@ -28652,10 +28652,10 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>127.1165548494722</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>95.80294554235505</v>
@@ -28688,28 +28688,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>39.02901935393511</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>145.2410726443114</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>160.2822133454674</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>218.4817889349101</v>
       </c>
       <c r="W18" t="n">
         <v>238.9027100790231</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="19">
@@ -28725,16 +28725,16 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D19" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>150.4889240962943</v>
       </c>
       <c r="F19" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.958367000993</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>155.3589542808002</v>
@@ -28743,7 +28743,7 @@
         <v>134.5756943977516</v>
       </c>
       <c r="J19" t="n">
-        <v>40.21324716010345</v>
+        <v>40.21324716010344</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28764,7 +28764,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>15.36025740485484</v>
       </c>
       <c r="R19" t="n">
         <v>135.7881746594375</v>
@@ -28773,22 +28773,22 @@
         <v>206.8292376462626</v>
       </c>
       <c r="T19" t="n">
-        <v>52.19213175708498</v>
+        <v>229.6841950336356</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>244.1948037553047</v>
       </c>
       <c r="V19" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553047</v>
       </c>
       <c r="W19" t="n">
-        <v>244.1948037553046</v>
+        <v>56.78826176493726</v>
       </c>
       <c r="X19" t="n">
         <v>228.939939463578</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="20">
@@ -28846,7 +28846,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>51.61576569231052</v>
+        <v>51.61576569231051</v>
       </c>
       <c r="S20" t="n">
         <v>171.5295072431148</v>
@@ -28877,13 +28877,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -28925,22 +28925,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>39.02901935393511</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>145.2410726443114</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>185.4896446502776</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>1.045469054496152</v>
       </c>
       <c r="W21" t="n">
-        <v>154.3457807574494</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X21" t="n">
         <v>195.9378182409833</v>
@@ -28962,16 +28962,16 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D22" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>150.4889240962943</v>
       </c>
       <c r="F22" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.958367000993</v>
+        <v>112.3617663298955</v>
       </c>
       <c r="H22" t="n">
         <v>155.3589542808002</v>
@@ -29004,16 +29004,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>135.7881746594375</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>206.8292376462626</v>
       </c>
       <c r="T22" t="n">
-        <v>190.8279874675838</v>
+        <v>229.6841950336356</v>
       </c>
       <c r="U22" t="n">
-        <v>244.1948037553047</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>244.1948037553047</v>
@@ -29025,7 +29025,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="23">
@@ -29083,7 +29083,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>51.61576569231052</v>
+        <v>51.61576569231051</v>
       </c>
       <c r="S23" t="n">
         <v>171.5295072431148</v>
@@ -29114,7 +29114,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -29129,10 +29129,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>88.27901333415495</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>95.80294554235505</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -29162,28 +29162,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>39.02901935393511</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>145.2410726443114</v>
       </c>
       <c r="T24" t="n">
-        <v>182.8061092644053</v>
+        <v>185.4896446502776</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>216.28848525876</v>
       </c>
       <c r="V24" t="n">
         <v>226.1116663261494</v>
       </c>
       <c r="W24" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -29211,13 +29211,13 @@
         <v>166.958367000993</v>
       </c>
       <c r="H25" t="n">
-        <v>155.3589542808002</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>134.5756943977516</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>40.21324716010345</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29238,16 +29238,16 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>15.36025740485484</v>
       </c>
       <c r="R25" t="n">
-        <v>135.7881746594375</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>23.95169789197507</v>
+        <v>15.90337648799934</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>229.6841950336356</v>
       </c>
       <c r="U25" t="n">
         <v>244.1948037553047</v>
@@ -29259,7 +29259,7 @@
         <v>244.1948037553047</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y25" t="n">
         <v>219.8148072196457</v>
@@ -29296,13 +29296,13 @@
         <v>101.1193002222048</v>
       </c>
       <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
         <v>101.1193002222048</v>
       </c>
-      <c r="K26" t="n">
-        <v>95.49255895726765</v>
-      </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>45.98902442737301</v>
       </c>
       <c r="M26" t="n">
         <v>101.1193002222048</v>
@@ -29320,7 +29320,7 @@
         <v>101.1193002222048</v>
       </c>
       <c r="R26" t="n">
-        <v>51.61576569231052</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="S26" t="n">
         <v>101.1193002222048</v>
@@ -29457,7 +29457,7 @@
         <v>101.1193002222048</v>
       </c>
       <c r="K28" t="n">
-        <v>101.1193002222039</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="L28" t="n">
         <v>101.1193002222048</v>
@@ -29533,10 +29533,10 @@
         <v>101.1193002222048</v>
       </c>
       <c r="J29" t="n">
-        <v>45.98902442737355</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="L29" t="n">
         <v>101.1193002222048</v>
@@ -29548,16 +29548,16 @@
         <v>101.1193002222048</v>
       </c>
       <c r="O29" t="n">
-        <v>101.1193002222048</v>
+        <v>95.49255895726708</v>
       </c>
       <c r="P29" t="n">
         <v>101.1193002222048</v>
       </c>
       <c r="Q29" t="n">
-        <v>101.1193002222048</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>101.1193002222048</v>
+        <v>51.61576569231051</v>
       </c>
       <c r="S29" t="n">
         <v>101.1193002222048</v>
@@ -29785,13 +29785,13 @@
         <v>101.1193002222048</v>
       </c>
       <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
         <v>101.1193002222048</v>
       </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
       <c r="Q32" t="n">
-        <v>45.98902442737179</v>
+        <v>45.98902442737312</v>
       </c>
       <c r="R32" t="n">
         <v>101.1193002222048</v>
@@ -29949,7 +29949,7 @@
         <v>101.1193002222048</v>
       </c>
       <c r="Q34" t="n">
-        <v>101.1193002222048</v>
+        <v>101.1193002222053</v>
       </c>
       <c r="R34" t="n">
         <v>101.1193002222048</v>
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>171.5295072431149</v>
+        <v>171.5295072431148</v>
       </c>
       <c r="C35" t="n">
-        <v>171.5295072431149</v>
+        <v>171.5295072431148</v>
       </c>
       <c r="D35" t="n">
-        <v>171.5295072431149</v>
+        <v>171.5295072431148</v>
       </c>
       <c r="E35" t="n">
-        <v>171.5295072431149</v>
+        <v>171.5295072431148</v>
       </c>
       <c r="F35" t="n">
-        <v>171.5295072431149</v>
+        <v>171.5295072431148</v>
       </c>
       <c r="G35" t="n">
-        <v>171.5295072431149</v>
+        <v>171.5295072431148</v>
       </c>
       <c r="H35" t="n">
-        <v>171.5295072431149</v>
+        <v>171.5295072431148</v>
       </c>
       <c r="I35" t="n">
         <v>147.6958378085047</v>
@@ -30031,28 +30031,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>51.61576569231052</v>
+        <v>51.61576569231051</v>
       </c>
       <c r="S35" t="n">
         <v>171.5295072431148</v>
       </c>
       <c r="T35" t="n">
-        <v>171.5295072431149</v>
+        <v>171.5295072431148</v>
       </c>
       <c r="U35" t="n">
-        <v>171.5295072431149</v>
+        <v>171.5295072431148</v>
       </c>
       <c r="V35" t="n">
-        <v>171.5295072431149</v>
+        <v>171.5295072431148</v>
       </c>
       <c r="W35" t="n">
-        <v>171.5295072431149</v>
+        <v>171.5295072431148</v>
       </c>
       <c r="X35" t="n">
-        <v>171.5295072431149</v>
+        <v>171.5295072431148</v>
       </c>
       <c r="Y35" t="n">
-        <v>171.5295072431149</v>
+        <v>171.5295072431148</v>
       </c>
     </row>
     <row r="36">
@@ -30080,10 +30080,10 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>76.32865326014509</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>56.52047122575469</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30110,7 +30110,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>19.80818203439005</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>171.5295072431149</v>
+        <v>171.5295072431148</v>
       </c>
       <c r="C37" t="n">
         <v>167.9198098429365</v>
@@ -30159,13 +30159,13 @@
         <v>166.958367000993</v>
       </c>
       <c r="H37" t="n">
-        <v>155.3589542808002</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>134.5756943977516</v>
+        <v>60.4090647038494</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>40.21324716010344</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30189,28 +30189,28 @@
         <v>15.36025740485484</v>
       </c>
       <c r="R37" t="n">
-        <v>118.0053450879531</v>
+        <v>135.7881746594375</v>
       </c>
       <c r="S37" t="n">
-        <v>171.5295072431149</v>
+        <v>171.5295072431148</v>
       </c>
       <c r="T37" t="n">
-        <v>171.5295072431149</v>
+        <v>171.5295072431148</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>171.5295072431148</v>
       </c>
       <c r="V37" t="n">
-        <v>171.5295072431149</v>
+        <v>171.5295072431148</v>
       </c>
       <c r="W37" t="n">
-        <v>171.5295072431149</v>
+        <v>171.5295072431148</v>
       </c>
       <c r="X37" t="n">
-        <v>171.5295072431149</v>
+        <v>171.5295072431148</v>
       </c>
       <c r="Y37" t="n">
-        <v>171.5295072431149</v>
+        <v>171.5295072431148</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431149</v>
       </c>
       <c r="C38" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431149</v>
       </c>
       <c r="D38" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431149</v>
       </c>
       <c r="E38" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431149</v>
       </c>
       <c r="F38" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431149</v>
       </c>
       <c r="G38" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431149</v>
       </c>
       <c r="H38" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431149</v>
       </c>
       <c r="I38" t="n">
         <v>147.6958378085047</v>
@@ -30268,28 +30268,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>51.61576569231052</v>
+        <v>51.61576569231051</v>
       </c>
       <c r="S38" t="n">
         <v>171.5295072431148</v>
       </c>
       <c r="T38" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431149</v>
       </c>
       <c r="U38" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431149</v>
       </c>
       <c r="V38" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431149</v>
       </c>
       <c r="W38" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431149</v>
       </c>
       <c r="X38" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431149</v>
       </c>
       <c r="Y38" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431149</v>
       </c>
     </row>
     <row r="39">
@@ -30317,7 +30317,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>76.32865326014509</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -30347,10 +30347,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>39.02901935393511</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>37.29963390620986</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -30378,10 +30378,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431149</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D40" t="n">
         <v>151.5411742405149</v>
@@ -30390,7 +30390,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F40" t="n">
-        <v>89.35007429271477</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
         <v>166.958367000993</v>
@@ -30402,7 +30402,7 @@
         <v>134.5756943977516</v>
       </c>
       <c r="J40" t="n">
-        <v>40.21324716010345</v>
+        <v>40.21324716010344</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30429,25 +30429,25 @@
         <v>135.7881746594375</v>
       </c>
       <c r="S40" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431149</v>
       </c>
       <c r="T40" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431149</v>
       </c>
       <c r="U40" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431149</v>
       </c>
       <c r="V40" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431149</v>
       </c>
       <c r="W40" t="n">
-        <v>171.5295072431148</v>
+        <v>113.5334305115269</v>
       </c>
       <c r="X40" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431149</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.5295072431148</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30505,7 +30505,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>51.61576569231052</v>
+        <v>51.61576569231051</v>
       </c>
       <c r="S41" t="n">
         <v>171.5295072431148</v>
@@ -30554,7 +30554,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>76.32865326014509</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -30587,7 +30587,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>76.32865326014495</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -30633,13 +30633,13 @@
         <v>166.958367000993</v>
       </c>
       <c r="H43" t="n">
-        <v>97.36287754921253</v>
+        <v>155.3589542808002</v>
       </c>
       <c r="I43" t="n">
         <v>134.5756943977516</v>
       </c>
       <c r="J43" t="n">
-        <v>40.21324716010345</v>
+        <v>40.21324716010344</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30669,16 +30669,16 @@
         <v>171.5295072431148</v>
       </c>
       <c r="T43" t="n">
-        <v>171.5295072431148</v>
+        <v>113.5334305115271</v>
       </c>
       <c r="U43" t="n">
-        <v>171.5295072431148</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>171.5295072431148</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>171.5295072431148</v>
       </c>
       <c r="X43" t="n">
         <v>171.5295072431148</v>
@@ -30742,7 +30742,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>51.61576569231052</v>
+        <v>51.61576569231051</v>
       </c>
       <c r="S44" t="n">
         <v>171.5295072431148</v>
@@ -30788,13 +30788,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>76.3286532601451</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>56.52047122575469</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30824,7 +30824,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>19.8081820343901</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -30870,10 +30870,10 @@
         <v>166.958367000993</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>155.3589542808002</v>
       </c>
       <c r="I46" t="n">
-        <v>115.9825692688077</v>
+        <v>134.5756943977516</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -30900,7 +30900,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>135.7881746594375</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>171.5295072431148</v>
@@ -30909,7 +30909,7 @@
         <v>171.5295072431148</v>
       </c>
       <c r="U46" t="n">
-        <v>171.5295072431148</v>
+        <v>133.3656024928081</v>
       </c>
       <c r="V46" t="n">
         <v>171.5295072431148</v>
@@ -31750,22 +31750,22 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6067878605742086</v>
+        <v>0.6067878605742087</v>
       </c>
       <c r="H11" t="n">
-        <v>6.214266177105616</v>
+        <v>6.214266177105618</v>
       </c>
       <c r="I11" t="n">
-        <v>23.3931889947872</v>
+        <v>23.39318899478721</v>
       </c>
       <c r="J11" t="n">
-        <v>51.50036118141029</v>
+        <v>51.5003611814103</v>
       </c>
       <c r="K11" t="n">
-        <v>77.18569131951655</v>
+        <v>77.18569131951656</v>
       </c>
       <c r="L11" t="n">
-        <v>95.75567530756452</v>
+        <v>95.75567530756453</v>
       </c>
       <c r="M11" t="n">
         <v>106.5466389230511</v>
@@ -31777,22 +31777,22 @@
         <v>102.2369281433228</v>
       </c>
       <c r="P11" t="n">
-        <v>87.25685283539698</v>
+        <v>87.25685283539701</v>
       </c>
       <c r="Q11" t="n">
-        <v>65.52626257858311</v>
+        <v>65.52626257858313</v>
       </c>
       <c r="R11" t="n">
         <v>38.11613794679467</v>
       </c>
       <c r="S11" t="n">
-        <v>13.82717837283479</v>
+        <v>13.8271783728348</v>
       </c>
       <c r="T11" t="n">
         <v>2.6562138596636</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04854302884593668</v>
+        <v>0.04854302884593669</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3246601274760969</v>
+        <v>0.324660127476097</v>
       </c>
       <c r="H12" t="n">
         <v>3.135533336413884</v>
@@ -31841,37 +31841,37 @@
         <v>30.67326230685353</v>
       </c>
       <c r="K12" t="n">
-        <v>52.42549084775202</v>
+        <v>52.42549084775203</v>
       </c>
       <c r="L12" t="n">
-        <v>70.49254215221131</v>
+        <v>70.49254215221133</v>
       </c>
       <c r="M12" t="n">
-        <v>82.2614717732198</v>
+        <v>82.26147177321981</v>
       </c>
       <c r="N12" t="n">
-        <v>84.4386881544082</v>
+        <v>84.43868815440823</v>
       </c>
       <c r="O12" t="n">
-        <v>77.24490322454311</v>
+        <v>77.24490322454312</v>
       </c>
       <c r="P12" t="n">
         <v>61.99584486865925</v>
       </c>
       <c r="Q12" t="n">
-        <v>41.44258048273826</v>
+        <v>41.44258048273827</v>
       </c>
       <c r="R12" t="n">
-        <v>20.15740686206855</v>
+        <v>20.15740686206856</v>
       </c>
       <c r="S12" t="n">
-        <v>6.030419473075743</v>
+        <v>6.030419473075744</v>
       </c>
       <c r="T12" t="n">
-        <v>1.308608145397074</v>
+        <v>1.308608145397075</v>
       </c>
       <c r="U12" t="n">
-        <v>0.02135921891290112</v>
+        <v>0.02135921891290113</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,34 +31908,34 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2721841448354392</v>
+        <v>0.2721841448354393</v>
       </c>
       <c r="H13" t="n">
-        <v>2.419964487718725</v>
+        <v>2.419964487718726</v>
       </c>
       <c r="I13" t="n">
-        <v>8.185319555596667</v>
+        <v>8.185319555596669</v>
       </c>
       <c r="J13" t="n">
-        <v>19.24341903986555</v>
+        <v>19.24341903986556</v>
       </c>
       <c r="K13" t="n">
-        <v>31.62284882724466</v>
+        <v>31.62284882724467</v>
       </c>
       <c r="L13" t="n">
-        <v>40.46635913307977</v>
+        <v>40.46635913307978</v>
       </c>
       <c r="M13" t="n">
-        <v>42.66610190361344</v>
+        <v>42.66610190361345</v>
       </c>
       <c r="N13" t="n">
         <v>41.6515973637723</v>
       </c>
       <c r="O13" t="n">
-        <v>38.47199167183101</v>
+        <v>38.47199167183102</v>
       </c>
       <c r="P13" t="n">
-        <v>32.91943511718802</v>
+        <v>32.91943511718803</v>
       </c>
       <c r="Q13" t="n">
         <v>22.79171052799301</v>
@@ -31944,7 +31944,7 @@
         <v>12.23838891232802</v>
       </c>
       <c r="S13" t="n">
-        <v>4.743427324086699</v>
+        <v>4.7434273240867</v>
       </c>
       <c r="T13" t="n">
         <v>1.162968618842331</v>
@@ -31987,22 +31987,22 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6067878605742086</v>
+        <v>0.6067878605742089</v>
       </c>
       <c r="H14" t="n">
-        <v>6.214266177105616</v>
+        <v>6.214266177105618</v>
       </c>
       <c r="I14" t="n">
-        <v>23.3931889947872</v>
+        <v>23.39318899478721</v>
       </c>
       <c r="J14" t="n">
-        <v>51.50036118141029</v>
+        <v>51.50036118141031</v>
       </c>
       <c r="K14" t="n">
-        <v>77.18569131951655</v>
+        <v>77.18569131951658</v>
       </c>
       <c r="L14" t="n">
-        <v>95.75567530756452</v>
+        <v>95.75567530756454</v>
       </c>
       <c r="M14" t="n">
         <v>106.5466389230511</v>
@@ -32014,22 +32014,22 @@
         <v>102.2369281433228</v>
       </c>
       <c r="P14" t="n">
-        <v>87.25685283539698</v>
+        <v>87.25685283539703</v>
       </c>
       <c r="Q14" t="n">
-        <v>65.52626257858311</v>
+        <v>65.52626257858314</v>
       </c>
       <c r="R14" t="n">
-        <v>38.11613794679467</v>
+        <v>38.11613794679468</v>
       </c>
       <c r="S14" t="n">
-        <v>13.82717837283479</v>
+        <v>13.8271783728348</v>
       </c>
       <c r="T14" t="n">
-        <v>2.6562138596636</v>
+        <v>2.656213859663601</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04854302884593668</v>
+        <v>0.0485430288459367</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3246601274760969</v>
+        <v>0.324660127476097</v>
       </c>
       <c r="H15" t="n">
-        <v>3.135533336413884</v>
+        <v>3.135533336413885</v>
       </c>
       <c r="I15" t="n">
         <v>11.17799123108492</v>
       </c>
       <c r="J15" t="n">
-        <v>30.67326230685353</v>
+        <v>30.67326230685354</v>
       </c>
       <c r="K15" t="n">
-        <v>52.42549084775202</v>
+        <v>52.42549084775204</v>
       </c>
       <c r="L15" t="n">
-        <v>70.49254215221131</v>
+        <v>70.49254215221133</v>
       </c>
       <c r="M15" t="n">
-        <v>82.2614717732198</v>
+        <v>82.26147177321984</v>
       </c>
       <c r="N15" t="n">
-        <v>84.4386881544082</v>
+        <v>84.43868815440824</v>
       </c>
       <c r="O15" t="n">
-        <v>77.24490322454311</v>
+        <v>77.24490322454314</v>
       </c>
       <c r="P15" t="n">
-        <v>61.99584486865925</v>
+        <v>61.99584486865927</v>
       </c>
       <c r="Q15" t="n">
-        <v>41.44258048273826</v>
+        <v>41.44258048273829</v>
       </c>
       <c r="R15" t="n">
-        <v>20.15740686206855</v>
+        <v>20.15740686206856</v>
       </c>
       <c r="S15" t="n">
-        <v>6.030419473075743</v>
+        <v>6.030419473075745</v>
       </c>
       <c r="T15" t="n">
-        <v>1.308608145397074</v>
+        <v>1.308608145397075</v>
       </c>
       <c r="U15" t="n">
-        <v>0.02135921891290112</v>
+        <v>0.02135921891290113</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,46 +32145,46 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2721841448354392</v>
+        <v>0.2721841448354393</v>
       </c>
       <c r="H16" t="n">
-        <v>2.419964487718725</v>
+        <v>2.419964487718727</v>
       </c>
       <c r="I16" t="n">
-        <v>8.185319555596667</v>
+        <v>8.185319555596671</v>
       </c>
       <c r="J16" t="n">
-        <v>19.24341903986555</v>
+        <v>19.24341903986556</v>
       </c>
       <c r="K16" t="n">
-        <v>31.62284882724466</v>
+        <v>31.62284882724468</v>
       </c>
       <c r="L16" t="n">
-        <v>40.46635913307977</v>
+        <v>40.46635913307978</v>
       </c>
       <c r="M16" t="n">
-        <v>42.66610190361344</v>
+        <v>42.66610190361346</v>
       </c>
       <c r="N16" t="n">
-        <v>41.6515973637723</v>
+        <v>41.65159736377231</v>
       </c>
       <c r="O16" t="n">
-        <v>38.47199167183101</v>
+        <v>38.47199167183103</v>
       </c>
       <c r="P16" t="n">
-        <v>32.91943511718802</v>
+        <v>32.91943511718804</v>
       </c>
       <c r="Q16" t="n">
-        <v>22.79171052799301</v>
+        <v>22.79171052799302</v>
       </c>
       <c r="R16" t="n">
-        <v>12.23838891232802</v>
+        <v>12.23838891232803</v>
       </c>
       <c r="S16" t="n">
-        <v>4.743427324086699</v>
+        <v>4.743427324086701</v>
       </c>
       <c r="T16" t="n">
-        <v>1.162968618842331</v>
+        <v>1.162968618842332</v>
       </c>
       <c r="U16" t="n">
         <v>0.01484640790011489</v>
@@ -32224,22 +32224,22 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6067878605742086</v>
+        <v>0.6067878605742087</v>
       </c>
       <c r="H17" t="n">
-        <v>6.214266177105616</v>
+        <v>6.214266177105618</v>
       </c>
       <c r="I17" t="n">
-        <v>23.3931889947872</v>
+        <v>23.39318899478721</v>
       </c>
       <c r="J17" t="n">
-        <v>51.50036118141029</v>
+        <v>51.5003611814103</v>
       </c>
       <c r="K17" t="n">
-        <v>77.18569131951655</v>
+        <v>77.18569131951656</v>
       </c>
       <c r="L17" t="n">
-        <v>95.75567530756452</v>
+        <v>95.75567530756453</v>
       </c>
       <c r="M17" t="n">
         <v>106.5466389230511</v>
@@ -32251,22 +32251,22 @@
         <v>102.2369281433228</v>
       </c>
       <c r="P17" t="n">
-        <v>87.25685283539698</v>
+        <v>87.25685283539701</v>
       </c>
       <c r="Q17" t="n">
-        <v>65.52626257858311</v>
+        <v>65.52626257858313</v>
       </c>
       <c r="R17" t="n">
         <v>38.11613794679467</v>
       </c>
       <c r="S17" t="n">
-        <v>13.82717837283479</v>
+        <v>13.8271783728348</v>
       </c>
       <c r="T17" t="n">
         <v>2.6562138596636</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04854302884593668</v>
+        <v>0.04854302884593669</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3246601274760969</v>
+        <v>0.324660127476097</v>
       </c>
       <c r="H18" t="n">
         <v>3.135533336413884</v>
@@ -32315,37 +32315,37 @@
         <v>30.67326230685353</v>
       </c>
       <c r="K18" t="n">
-        <v>52.42549084775202</v>
+        <v>52.42549084775203</v>
       </c>
       <c r="L18" t="n">
-        <v>70.49254215221131</v>
+        <v>70.49254215221133</v>
       </c>
       <c r="M18" t="n">
-        <v>82.2614717732198</v>
+        <v>82.26147177321981</v>
       </c>
       <c r="N18" t="n">
-        <v>84.4386881544082</v>
+        <v>84.43868815440823</v>
       </c>
       <c r="O18" t="n">
-        <v>77.24490322454311</v>
+        <v>77.24490322454312</v>
       </c>
       <c r="P18" t="n">
         <v>61.99584486865925</v>
       </c>
       <c r="Q18" t="n">
-        <v>41.44258048273826</v>
+        <v>41.44258048273827</v>
       </c>
       <c r="R18" t="n">
-        <v>20.15740686206855</v>
+        <v>20.15740686206856</v>
       </c>
       <c r="S18" t="n">
-        <v>6.030419473075743</v>
+        <v>6.030419473075744</v>
       </c>
       <c r="T18" t="n">
-        <v>1.308608145397074</v>
+        <v>1.308608145397075</v>
       </c>
       <c r="U18" t="n">
-        <v>0.02135921891290112</v>
+        <v>0.02135921891290113</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,34 +32382,34 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2721841448354392</v>
+        <v>0.2721841448354393</v>
       </c>
       <c r="H19" t="n">
-        <v>2.419964487718725</v>
+        <v>2.419964487718726</v>
       </c>
       <c r="I19" t="n">
-        <v>8.185319555596667</v>
+        <v>8.185319555596669</v>
       </c>
       <c r="J19" t="n">
-        <v>19.24341903986555</v>
+        <v>19.24341903986556</v>
       </c>
       <c r="K19" t="n">
-        <v>31.62284882724466</v>
+        <v>31.62284882724467</v>
       </c>
       <c r="L19" t="n">
-        <v>40.46635913307977</v>
+        <v>40.46635913307978</v>
       </c>
       <c r="M19" t="n">
-        <v>42.66610190361344</v>
+        <v>42.66610190361345</v>
       </c>
       <c r="N19" t="n">
         <v>41.6515973637723</v>
       </c>
       <c r="O19" t="n">
-        <v>38.47199167183101</v>
+        <v>38.47199167183102</v>
       </c>
       <c r="P19" t="n">
-        <v>32.91943511718802</v>
+        <v>32.91943511718803</v>
       </c>
       <c r="Q19" t="n">
         <v>22.79171052799301</v>
@@ -32418,7 +32418,7 @@
         <v>12.23838891232802</v>
       </c>
       <c r="S19" t="n">
-        <v>4.743427324086699</v>
+        <v>4.7434273240867</v>
       </c>
       <c r="T19" t="n">
         <v>1.162968618842331</v>
@@ -32461,22 +32461,22 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.6067878605742086</v>
+        <v>0.6067878605742087</v>
       </c>
       <c r="H20" t="n">
-        <v>6.214266177105616</v>
+        <v>6.214266177105618</v>
       </c>
       <c r="I20" t="n">
-        <v>23.3931889947872</v>
+        <v>23.39318899478721</v>
       </c>
       <c r="J20" t="n">
-        <v>51.50036118141029</v>
+        <v>51.5003611814103</v>
       </c>
       <c r="K20" t="n">
-        <v>77.18569131951655</v>
+        <v>77.18569131951656</v>
       </c>
       <c r="L20" t="n">
-        <v>95.75567530756452</v>
+        <v>95.75567530756453</v>
       </c>
       <c r="M20" t="n">
         <v>106.5466389230511</v>
@@ -32488,22 +32488,22 @@
         <v>102.2369281433228</v>
       </c>
       <c r="P20" t="n">
-        <v>87.25685283539698</v>
+        <v>87.25685283539701</v>
       </c>
       <c r="Q20" t="n">
-        <v>65.52626257858311</v>
+        <v>65.52626257858313</v>
       </c>
       <c r="R20" t="n">
         <v>38.11613794679467</v>
       </c>
       <c r="S20" t="n">
-        <v>13.82717837283479</v>
+        <v>13.8271783728348</v>
       </c>
       <c r="T20" t="n">
         <v>2.6562138596636</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04854302884593668</v>
+        <v>0.04854302884593669</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3246601274760969</v>
+        <v>0.324660127476097</v>
       </c>
       <c r="H21" t="n">
         <v>3.135533336413884</v>
@@ -32552,37 +32552,37 @@
         <v>30.67326230685353</v>
       </c>
       <c r="K21" t="n">
-        <v>52.42549084775202</v>
+        <v>52.42549084775203</v>
       </c>
       <c r="L21" t="n">
-        <v>70.49254215221131</v>
+        <v>70.49254215221133</v>
       </c>
       <c r="M21" t="n">
-        <v>82.2614717732198</v>
+        <v>82.26147177321981</v>
       </c>
       <c r="N21" t="n">
-        <v>84.4386881544082</v>
+        <v>84.43868815440823</v>
       </c>
       <c r="O21" t="n">
-        <v>77.24490322454311</v>
+        <v>77.24490322454312</v>
       </c>
       <c r="P21" t="n">
         <v>61.99584486865925</v>
       </c>
       <c r="Q21" t="n">
-        <v>41.44258048273826</v>
+        <v>41.44258048273827</v>
       </c>
       <c r="R21" t="n">
-        <v>20.15740686206855</v>
+        <v>20.15740686206856</v>
       </c>
       <c r="S21" t="n">
-        <v>6.030419473075743</v>
+        <v>6.030419473075744</v>
       </c>
       <c r="T21" t="n">
-        <v>1.308608145397074</v>
+        <v>1.308608145397075</v>
       </c>
       <c r="U21" t="n">
-        <v>0.02135921891290112</v>
+        <v>0.02135921891290113</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,34 +32619,34 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2721841448354392</v>
+        <v>0.2721841448354393</v>
       </c>
       <c r="H22" t="n">
-        <v>2.419964487718725</v>
+        <v>2.419964487718726</v>
       </c>
       <c r="I22" t="n">
-        <v>8.185319555596667</v>
+        <v>8.185319555596669</v>
       </c>
       <c r="J22" t="n">
-        <v>19.24341903986555</v>
+        <v>19.24341903986556</v>
       </c>
       <c r="K22" t="n">
-        <v>31.62284882724466</v>
+        <v>31.62284882724467</v>
       </c>
       <c r="L22" t="n">
-        <v>40.46635913307977</v>
+        <v>40.46635913307978</v>
       </c>
       <c r="M22" t="n">
-        <v>42.66610190361344</v>
+        <v>42.66610190361345</v>
       </c>
       <c r="N22" t="n">
         <v>41.6515973637723</v>
       </c>
       <c r="O22" t="n">
-        <v>38.47199167183101</v>
+        <v>38.47199167183102</v>
       </c>
       <c r="P22" t="n">
-        <v>32.91943511718802</v>
+        <v>32.91943511718803</v>
       </c>
       <c r="Q22" t="n">
         <v>22.79171052799301</v>
@@ -32655,7 +32655,7 @@
         <v>12.23838891232802</v>
       </c>
       <c r="S22" t="n">
-        <v>4.743427324086699</v>
+        <v>4.7434273240867</v>
       </c>
       <c r="T22" t="n">
         <v>1.162968618842331</v>
@@ -32698,22 +32698,22 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6067878605742086</v>
+        <v>0.6067878605742087</v>
       </c>
       <c r="H23" t="n">
-        <v>6.214266177105616</v>
+        <v>6.214266177105618</v>
       </c>
       <c r="I23" t="n">
-        <v>23.3931889947872</v>
+        <v>23.39318899478721</v>
       </c>
       <c r="J23" t="n">
-        <v>51.50036118141029</v>
+        <v>51.5003611814103</v>
       </c>
       <c r="K23" t="n">
-        <v>77.18569131951655</v>
+        <v>77.18569131951656</v>
       </c>
       <c r="L23" t="n">
-        <v>95.75567530756452</v>
+        <v>95.75567530756453</v>
       </c>
       <c r="M23" t="n">
         <v>106.5466389230511</v>
@@ -32725,22 +32725,22 @@
         <v>102.2369281433228</v>
       </c>
       <c r="P23" t="n">
-        <v>87.25685283539698</v>
+        <v>87.25685283539701</v>
       </c>
       <c r="Q23" t="n">
-        <v>65.52626257858311</v>
+        <v>65.52626257858313</v>
       </c>
       <c r="R23" t="n">
         <v>38.11613794679467</v>
       </c>
       <c r="S23" t="n">
-        <v>13.82717837283479</v>
+        <v>13.8271783728348</v>
       </c>
       <c r="T23" t="n">
         <v>2.6562138596636</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04854302884593668</v>
+        <v>0.04854302884593669</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3246601274760969</v>
+        <v>0.324660127476097</v>
       </c>
       <c r="H24" t="n">
         <v>3.135533336413884</v>
@@ -32789,37 +32789,37 @@
         <v>30.67326230685353</v>
       </c>
       <c r="K24" t="n">
-        <v>52.42549084775202</v>
+        <v>52.42549084775203</v>
       </c>
       <c r="L24" t="n">
-        <v>70.49254215221131</v>
+        <v>70.49254215221133</v>
       </c>
       <c r="M24" t="n">
-        <v>82.2614717732198</v>
+        <v>82.26147177321981</v>
       </c>
       <c r="N24" t="n">
-        <v>84.4386881544082</v>
+        <v>84.43868815440823</v>
       </c>
       <c r="O24" t="n">
-        <v>77.24490322454311</v>
+        <v>77.24490322454312</v>
       </c>
       <c r="P24" t="n">
         <v>61.99584486865925</v>
       </c>
       <c r="Q24" t="n">
-        <v>41.44258048273826</v>
+        <v>41.44258048273827</v>
       </c>
       <c r="R24" t="n">
-        <v>20.15740686206855</v>
+        <v>20.15740686206856</v>
       </c>
       <c r="S24" t="n">
-        <v>6.030419473075743</v>
+        <v>6.030419473075744</v>
       </c>
       <c r="T24" t="n">
-        <v>1.308608145397074</v>
+        <v>1.308608145397075</v>
       </c>
       <c r="U24" t="n">
-        <v>0.02135921891290112</v>
+        <v>0.02135921891290113</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,34 +32856,34 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2721841448354392</v>
+        <v>0.2721841448354393</v>
       </c>
       <c r="H25" t="n">
-        <v>2.419964487718725</v>
+        <v>2.419964487718726</v>
       </c>
       <c r="I25" t="n">
-        <v>8.185319555596667</v>
+        <v>8.185319555596669</v>
       </c>
       <c r="J25" t="n">
-        <v>19.24341903986555</v>
+        <v>19.24341903986556</v>
       </c>
       <c r="K25" t="n">
-        <v>31.62284882724466</v>
+        <v>31.62284882724467</v>
       </c>
       <c r="L25" t="n">
-        <v>40.46635913307977</v>
+        <v>40.46635913307978</v>
       </c>
       <c r="M25" t="n">
-        <v>42.66610190361344</v>
+        <v>42.66610190361345</v>
       </c>
       <c r="N25" t="n">
         <v>41.6515973637723</v>
       </c>
       <c r="O25" t="n">
-        <v>38.47199167183101</v>
+        <v>38.47199167183102</v>
       </c>
       <c r="P25" t="n">
-        <v>32.91943511718802</v>
+        <v>32.91943511718803</v>
       </c>
       <c r="Q25" t="n">
         <v>22.79171052799301</v>
@@ -32892,7 +32892,7 @@
         <v>12.23838891232802</v>
       </c>
       <c r="S25" t="n">
-        <v>4.743427324086699</v>
+        <v>4.7434273240867</v>
       </c>
       <c r="T25" t="n">
         <v>1.162968618842331</v>
@@ -32935,22 +32935,22 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.6067878605742086</v>
+        <v>0.6067878605742087</v>
       </c>
       <c r="H26" t="n">
-        <v>6.214266177105616</v>
+        <v>6.214266177105618</v>
       </c>
       <c r="I26" t="n">
-        <v>23.3931889947872</v>
+        <v>23.39318899478721</v>
       </c>
       <c r="J26" t="n">
-        <v>51.50036118141029</v>
+        <v>51.5003611814103</v>
       </c>
       <c r="K26" t="n">
-        <v>77.18569131951655</v>
+        <v>77.18569131951656</v>
       </c>
       <c r="L26" t="n">
-        <v>95.75567530756452</v>
+        <v>95.75567530756453</v>
       </c>
       <c r="M26" t="n">
         <v>106.5466389230511</v>
@@ -32962,22 +32962,22 @@
         <v>102.2369281433228</v>
       </c>
       <c r="P26" t="n">
-        <v>87.25685283539698</v>
+        <v>87.25685283539701</v>
       </c>
       <c r="Q26" t="n">
-        <v>65.52626257858311</v>
+        <v>65.52626257858313</v>
       </c>
       <c r="R26" t="n">
         <v>38.11613794679467</v>
       </c>
       <c r="S26" t="n">
-        <v>13.82717837283479</v>
+        <v>13.8271783728348</v>
       </c>
       <c r="T26" t="n">
         <v>2.6562138596636</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04854302884593668</v>
+        <v>0.04854302884593669</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3246601274760969</v>
+        <v>0.324660127476097</v>
       </c>
       <c r="H27" t="n">
         <v>3.135533336413884</v>
@@ -33026,37 +33026,37 @@
         <v>30.67326230685353</v>
       </c>
       <c r="K27" t="n">
-        <v>52.42549084775202</v>
+        <v>52.42549084775203</v>
       </c>
       <c r="L27" t="n">
-        <v>70.49254215221131</v>
+        <v>70.49254215221133</v>
       </c>
       <c r="M27" t="n">
-        <v>82.2614717732198</v>
+        <v>82.26147177321981</v>
       </c>
       <c r="N27" t="n">
-        <v>84.4386881544082</v>
+        <v>84.43868815440823</v>
       </c>
       <c r="O27" t="n">
-        <v>77.24490322454311</v>
+        <v>77.24490322454312</v>
       </c>
       <c r="P27" t="n">
         <v>61.99584486865925</v>
       </c>
       <c r="Q27" t="n">
-        <v>41.44258048273826</v>
+        <v>41.44258048273827</v>
       </c>
       <c r="R27" t="n">
-        <v>20.15740686206855</v>
+        <v>20.15740686206856</v>
       </c>
       <c r="S27" t="n">
-        <v>6.030419473075743</v>
+        <v>6.030419473075744</v>
       </c>
       <c r="T27" t="n">
-        <v>1.308608145397074</v>
+        <v>1.308608145397075</v>
       </c>
       <c r="U27" t="n">
-        <v>0.02135921891290112</v>
+        <v>0.02135921891290113</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,34 +33093,34 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2721841448354392</v>
+        <v>0.2721841448354393</v>
       </c>
       <c r="H28" t="n">
-        <v>2.419964487718725</v>
+        <v>2.419964487718726</v>
       </c>
       <c r="I28" t="n">
-        <v>8.185319555596667</v>
+        <v>8.185319555596669</v>
       </c>
       <c r="J28" t="n">
-        <v>19.24341903986555</v>
+        <v>19.24341903986556</v>
       </c>
       <c r="K28" t="n">
-        <v>31.62284882724466</v>
+        <v>31.62284882724467</v>
       </c>
       <c r="L28" t="n">
-        <v>40.46635913307977</v>
+        <v>40.46635913307978</v>
       </c>
       <c r="M28" t="n">
-        <v>42.66610190361344</v>
+        <v>42.66610190361345</v>
       </c>
       <c r="N28" t="n">
         <v>41.6515973637723</v>
       </c>
       <c r="O28" t="n">
-        <v>38.47199167183101</v>
+        <v>38.47199167183102</v>
       </c>
       <c r="P28" t="n">
-        <v>32.91943511718802</v>
+        <v>32.91943511718803</v>
       </c>
       <c r="Q28" t="n">
         <v>22.79171052799301</v>
@@ -33129,7 +33129,7 @@
         <v>12.23838891232802</v>
       </c>
       <c r="S28" t="n">
-        <v>4.743427324086699</v>
+        <v>4.7434273240867</v>
       </c>
       <c r="T28" t="n">
         <v>1.162968618842331</v>
@@ -33172,22 +33172,22 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.6067878605742086</v>
+        <v>0.6067878605742087</v>
       </c>
       <c r="H29" t="n">
-        <v>6.214266177105616</v>
+        <v>6.214266177105618</v>
       </c>
       <c r="I29" t="n">
-        <v>23.3931889947872</v>
+        <v>23.39318899478721</v>
       </c>
       <c r="J29" t="n">
-        <v>51.50036118141029</v>
+        <v>51.5003611814103</v>
       </c>
       <c r="K29" t="n">
-        <v>77.18569131951655</v>
+        <v>77.18569131951656</v>
       </c>
       <c r="L29" t="n">
-        <v>95.75567530756452</v>
+        <v>95.75567530756453</v>
       </c>
       <c r="M29" t="n">
         <v>106.5466389230511</v>
@@ -33199,22 +33199,22 @@
         <v>102.2369281433228</v>
       </c>
       <c r="P29" t="n">
-        <v>87.25685283539698</v>
+        <v>87.25685283539701</v>
       </c>
       <c r="Q29" t="n">
-        <v>65.52626257858311</v>
+        <v>65.52626257858313</v>
       </c>
       <c r="R29" t="n">
         <v>38.11613794679467</v>
       </c>
       <c r="S29" t="n">
-        <v>13.82717837283479</v>
+        <v>13.8271783728348</v>
       </c>
       <c r="T29" t="n">
         <v>2.6562138596636</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04854302884593668</v>
+        <v>0.04854302884593669</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.3246601274760969</v>
+        <v>0.324660127476097</v>
       </c>
       <c r="H30" t="n">
         <v>3.135533336413884</v>
@@ -33263,37 +33263,37 @@
         <v>30.67326230685353</v>
       </c>
       <c r="K30" t="n">
-        <v>52.42549084775202</v>
+        <v>52.42549084775203</v>
       </c>
       <c r="L30" t="n">
-        <v>70.49254215221131</v>
+        <v>70.49254215221133</v>
       </c>
       <c r="M30" t="n">
-        <v>82.2614717732198</v>
+        <v>82.26147177321981</v>
       </c>
       <c r="N30" t="n">
-        <v>84.4386881544082</v>
+        <v>84.43868815440823</v>
       </c>
       <c r="O30" t="n">
-        <v>77.24490322454311</v>
+        <v>77.24490322454312</v>
       </c>
       <c r="P30" t="n">
         <v>61.99584486865925</v>
       </c>
       <c r="Q30" t="n">
-        <v>41.44258048273826</v>
+        <v>41.44258048273827</v>
       </c>
       <c r="R30" t="n">
-        <v>20.15740686206855</v>
+        <v>20.15740686206856</v>
       </c>
       <c r="S30" t="n">
-        <v>6.030419473075743</v>
+        <v>6.030419473075744</v>
       </c>
       <c r="T30" t="n">
-        <v>1.308608145397074</v>
+        <v>1.308608145397075</v>
       </c>
       <c r="U30" t="n">
-        <v>0.02135921891290112</v>
+        <v>0.02135921891290113</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,34 +33330,34 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2721841448354392</v>
+        <v>0.2721841448354393</v>
       </c>
       <c r="H31" t="n">
-        <v>2.419964487718725</v>
+        <v>2.419964487718726</v>
       </c>
       <c r="I31" t="n">
-        <v>8.185319555596667</v>
+        <v>8.185319555596669</v>
       </c>
       <c r="J31" t="n">
-        <v>19.24341903986555</v>
+        <v>19.24341903986556</v>
       </c>
       <c r="K31" t="n">
-        <v>31.62284882724466</v>
+        <v>31.62284882724467</v>
       </c>
       <c r="L31" t="n">
-        <v>40.46635913307977</v>
+        <v>40.46635913307978</v>
       </c>
       <c r="M31" t="n">
-        <v>42.66610190361344</v>
+        <v>42.66610190361345</v>
       </c>
       <c r="N31" t="n">
         <v>41.6515973637723</v>
       </c>
       <c r="O31" t="n">
-        <v>38.47199167183101</v>
+        <v>38.47199167183102</v>
       </c>
       <c r="P31" t="n">
-        <v>32.91943511718802</v>
+        <v>32.91943511718803</v>
       </c>
       <c r="Q31" t="n">
         <v>22.79171052799301</v>
@@ -33366,7 +33366,7 @@
         <v>12.23838891232802</v>
       </c>
       <c r="S31" t="n">
-        <v>4.743427324086699</v>
+        <v>4.7434273240867</v>
       </c>
       <c r="T31" t="n">
         <v>1.162968618842331</v>
@@ -33409,22 +33409,22 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.6067878605742086</v>
+        <v>0.6067878605742087</v>
       </c>
       <c r="H32" t="n">
-        <v>6.214266177105616</v>
+        <v>6.214266177105618</v>
       </c>
       <c r="I32" t="n">
-        <v>23.3931889947872</v>
+        <v>23.39318899478721</v>
       </c>
       <c r="J32" t="n">
-        <v>51.50036118141029</v>
+        <v>51.5003611814103</v>
       </c>
       <c r="K32" t="n">
-        <v>77.18569131951655</v>
+        <v>77.18569131951656</v>
       </c>
       <c r="L32" t="n">
-        <v>95.75567530756452</v>
+        <v>95.75567530756453</v>
       </c>
       <c r="M32" t="n">
         <v>106.5466389230511</v>
@@ -33436,22 +33436,22 @@
         <v>102.2369281433228</v>
       </c>
       <c r="P32" t="n">
-        <v>87.25685283539698</v>
+        <v>87.25685283539701</v>
       </c>
       <c r="Q32" t="n">
-        <v>65.52626257858311</v>
+        <v>65.52626257858313</v>
       </c>
       <c r="R32" t="n">
         <v>38.11613794679467</v>
       </c>
       <c r="S32" t="n">
-        <v>13.82717837283479</v>
+        <v>13.8271783728348</v>
       </c>
       <c r="T32" t="n">
         <v>2.6562138596636</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04854302884593668</v>
+        <v>0.04854302884593669</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.3246601274760969</v>
+        <v>0.324660127476097</v>
       </c>
       <c r="H33" t="n">
         <v>3.135533336413884</v>
@@ -33500,37 +33500,37 @@
         <v>30.67326230685353</v>
       </c>
       <c r="K33" t="n">
-        <v>52.42549084775202</v>
+        <v>52.42549084775203</v>
       </c>
       <c r="L33" t="n">
-        <v>70.49254215221131</v>
+        <v>70.49254215221133</v>
       </c>
       <c r="M33" t="n">
-        <v>82.2614717732198</v>
+        <v>82.26147177321981</v>
       </c>
       <c r="N33" t="n">
-        <v>84.4386881544082</v>
+        <v>84.43868815440823</v>
       </c>
       <c r="O33" t="n">
-        <v>77.24490322454311</v>
+        <v>77.24490322454312</v>
       </c>
       <c r="P33" t="n">
         <v>61.99584486865925</v>
       </c>
       <c r="Q33" t="n">
-        <v>41.44258048273826</v>
+        <v>41.44258048273827</v>
       </c>
       <c r="R33" t="n">
-        <v>20.15740686206855</v>
+        <v>20.15740686206856</v>
       </c>
       <c r="S33" t="n">
-        <v>6.030419473075743</v>
+        <v>6.030419473075744</v>
       </c>
       <c r="T33" t="n">
-        <v>1.308608145397074</v>
+        <v>1.308608145397075</v>
       </c>
       <c r="U33" t="n">
-        <v>0.02135921891290112</v>
+        <v>0.02135921891290113</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,34 +33567,34 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2721841448354392</v>
+        <v>0.2721841448354393</v>
       </c>
       <c r="H34" t="n">
-        <v>2.419964487718725</v>
+        <v>2.419964487718726</v>
       </c>
       <c r="I34" t="n">
-        <v>8.185319555596667</v>
+        <v>8.185319555596669</v>
       </c>
       <c r="J34" t="n">
-        <v>19.24341903986555</v>
+        <v>19.24341903986556</v>
       </c>
       <c r="K34" t="n">
-        <v>31.62284882724466</v>
+        <v>31.62284882724467</v>
       </c>
       <c r="L34" t="n">
-        <v>40.46635913307977</v>
+        <v>40.46635913307978</v>
       </c>
       <c r="M34" t="n">
-        <v>42.66610190361344</v>
+        <v>42.66610190361345</v>
       </c>
       <c r="N34" t="n">
         <v>41.6515973637723</v>
       </c>
       <c r="O34" t="n">
-        <v>38.47199167183101</v>
+        <v>38.47199167183102</v>
       </c>
       <c r="P34" t="n">
-        <v>32.91943511718802</v>
+        <v>32.91943511718803</v>
       </c>
       <c r="Q34" t="n">
         <v>22.79171052799301</v>
@@ -33603,7 +33603,7 @@
         <v>12.23838891232802</v>
       </c>
       <c r="S34" t="n">
-        <v>4.743427324086699</v>
+        <v>4.7434273240867</v>
       </c>
       <c r="T34" t="n">
         <v>1.162968618842331</v>
@@ -33646,22 +33646,22 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.6067878605742086</v>
+        <v>0.6067878605742087</v>
       </c>
       <c r="H35" t="n">
-        <v>6.214266177105616</v>
+        <v>6.214266177105618</v>
       </c>
       <c r="I35" t="n">
-        <v>23.3931889947872</v>
+        <v>23.39318899478721</v>
       </c>
       <c r="J35" t="n">
-        <v>51.50036118141029</v>
+        <v>51.5003611814103</v>
       </c>
       <c r="K35" t="n">
-        <v>77.18569131951655</v>
+        <v>77.18569131951656</v>
       </c>
       <c r="L35" t="n">
-        <v>95.75567530756452</v>
+        <v>95.75567530756453</v>
       </c>
       <c r="M35" t="n">
         <v>106.5466389230511</v>
@@ -33673,22 +33673,22 @@
         <v>102.2369281433228</v>
       </c>
       <c r="P35" t="n">
-        <v>87.25685283539698</v>
+        <v>87.25685283539701</v>
       </c>
       <c r="Q35" t="n">
-        <v>65.52626257858311</v>
+        <v>65.52626257858313</v>
       </c>
       <c r="R35" t="n">
         <v>38.11613794679467</v>
       </c>
       <c r="S35" t="n">
-        <v>13.82717837283479</v>
+        <v>13.8271783728348</v>
       </c>
       <c r="T35" t="n">
         <v>2.6562138596636</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04854302884593668</v>
+        <v>0.04854302884593669</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.3246601274760969</v>
+        <v>0.324660127476097</v>
       </c>
       <c r="H36" t="n">
         <v>3.135533336413884</v>
@@ -33737,37 +33737,37 @@
         <v>30.67326230685353</v>
       </c>
       <c r="K36" t="n">
-        <v>52.42549084775202</v>
+        <v>52.42549084775203</v>
       </c>
       <c r="L36" t="n">
-        <v>70.49254215221131</v>
+        <v>70.49254215221133</v>
       </c>
       <c r="M36" t="n">
-        <v>82.2614717732198</v>
+        <v>82.26147177321981</v>
       </c>
       <c r="N36" t="n">
-        <v>84.4386881544082</v>
+        <v>84.43868815440823</v>
       </c>
       <c r="O36" t="n">
-        <v>77.24490322454311</v>
+        <v>77.24490322454312</v>
       </c>
       <c r="P36" t="n">
         <v>61.99584486865925</v>
       </c>
       <c r="Q36" t="n">
-        <v>41.44258048273826</v>
+        <v>41.44258048273827</v>
       </c>
       <c r="R36" t="n">
-        <v>20.15740686206855</v>
+        <v>20.15740686206856</v>
       </c>
       <c r="S36" t="n">
-        <v>6.030419473075743</v>
+        <v>6.030419473075744</v>
       </c>
       <c r="T36" t="n">
-        <v>1.308608145397074</v>
+        <v>1.308608145397075</v>
       </c>
       <c r="U36" t="n">
-        <v>0.02135921891290112</v>
+        <v>0.02135921891290113</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,34 +33804,34 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2721841448354392</v>
+        <v>0.2721841448354393</v>
       </c>
       <c r="H37" t="n">
-        <v>2.419964487718725</v>
+        <v>2.419964487718726</v>
       </c>
       <c r="I37" t="n">
-        <v>8.185319555596667</v>
+        <v>8.185319555596669</v>
       </c>
       <c r="J37" t="n">
-        <v>19.24341903986555</v>
+        <v>19.24341903986556</v>
       </c>
       <c r="K37" t="n">
-        <v>31.62284882724466</v>
+        <v>31.62284882724467</v>
       </c>
       <c r="L37" t="n">
-        <v>40.46635913307977</v>
+        <v>40.46635913307978</v>
       </c>
       <c r="M37" t="n">
-        <v>42.66610190361344</v>
+        <v>42.66610190361345</v>
       </c>
       <c r="N37" t="n">
         <v>41.6515973637723</v>
       </c>
       <c r="O37" t="n">
-        <v>38.47199167183101</v>
+        <v>38.47199167183102</v>
       </c>
       <c r="P37" t="n">
-        <v>32.91943511718802</v>
+        <v>32.91943511718803</v>
       </c>
       <c r="Q37" t="n">
         <v>22.79171052799301</v>
@@ -33840,7 +33840,7 @@
         <v>12.23838891232802</v>
       </c>
       <c r="S37" t="n">
-        <v>4.743427324086699</v>
+        <v>4.7434273240867</v>
       </c>
       <c r="T37" t="n">
         <v>1.162968618842331</v>
@@ -33883,22 +33883,22 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.6067878605742086</v>
+        <v>0.6067878605742087</v>
       </c>
       <c r="H38" t="n">
-        <v>6.214266177105616</v>
+        <v>6.214266177105618</v>
       </c>
       <c r="I38" t="n">
-        <v>23.3931889947872</v>
+        <v>23.39318899478721</v>
       </c>
       <c r="J38" t="n">
-        <v>51.50036118141029</v>
+        <v>51.5003611814103</v>
       </c>
       <c r="K38" t="n">
-        <v>77.18569131951655</v>
+        <v>77.18569131951656</v>
       </c>
       <c r="L38" t="n">
-        <v>95.75567530756452</v>
+        <v>95.75567530756453</v>
       </c>
       <c r="M38" t="n">
         <v>106.5466389230511</v>
@@ -33910,22 +33910,22 @@
         <v>102.2369281433228</v>
       </c>
       <c r="P38" t="n">
-        <v>87.25685283539698</v>
+        <v>87.25685283539701</v>
       </c>
       <c r="Q38" t="n">
-        <v>65.52626257858311</v>
+        <v>65.52626257858313</v>
       </c>
       <c r="R38" t="n">
         <v>38.11613794679467</v>
       </c>
       <c r="S38" t="n">
-        <v>13.82717837283479</v>
+        <v>13.8271783728348</v>
       </c>
       <c r="T38" t="n">
         <v>2.6562138596636</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04854302884593668</v>
+        <v>0.04854302884593669</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.3246601274760969</v>
+        <v>0.324660127476097</v>
       </c>
       <c r="H39" t="n">
         <v>3.135533336413884</v>
@@ -33974,37 +33974,37 @@
         <v>30.67326230685353</v>
       </c>
       <c r="K39" t="n">
-        <v>52.42549084775202</v>
+        <v>52.42549084775203</v>
       </c>
       <c r="L39" t="n">
-        <v>70.49254215221131</v>
+        <v>70.49254215221133</v>
       </c>
       <c r="M39" t="n">
-        <v>82.2614717732198</v>
+        <v>82.26147177321981</v>
       </c>
       <c r="N39" t="n">
-        <v>84.4386881544082</v>
+        <v>84.43868815440823</v>
       </c>
       <c r="O39" t="n">
-        <v>77.24490322454311</v>
+        <v>77.24490322454312</v>
       </c>
       <c r="P39" t="n">
         <v>61.99584486865925</v>
       </c>
       <c r="Q39" t="n">
-        <v>41.44258048273826</v>
+        <v>41.44258048273827</v>
       </c>
       <c r="R39" t="n">
-        <v>20.15740686206855</v>
+        <v>20.15740686206856</v>
       </c>
       <c r="S39" t="n">
-        <v>6.030419473075743</v>
+        <v>6.030419473075744</v>
       </c>
       <c r="T39" t="n">
-        <v>1.308608145397074</v>
+        <v>1.308608145397075</v>
       </c>
       <c r="U39" t="n">
-        <v>0.02135921891290112</v>
+        <v>0.02135921891290113</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,34 +34041,34 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2721841448354392</v>
+        <v>0.2721841448354393</v>
       </c>
       <c r="H40" t="n">
-        <v>2.419964487718725</v>
+        <v>2.419964487718726</v>
       </c>
       <c r="I40" t="n">
-        <v>8.185319555596667</v>
+        <v>8.185319555596669</v>
       </c>
       <c r="J40" t="n">
-        <v>19.24341903986555</v>
+        <v>19.24341903986556</v>
       </c>
       <c r="K40" t="n">
-        <v>31.62284882724466</v>
+        <v>31.62284882724467</v>
       </c>
       <c r="L40" t="n">
-        <v>40.46635913307977</v>
+        <v>40.46635913307978</v>
       </c>
       <c r="M40" t="n">
-        <v>42.66610190361344</v>
+        <v>42.66610190361345</v>
       </c>
       <c r="N40" t="n">
         <v>41.6515973637723</v>
       </c>
       <c r="O40" t="n">
-        <v>38.47199167183101</v>
+        <v>38.47199167183102</v>
       </c>
       <c r="P40" t="n">
-        <v>32.91943511718802</v>
+        <v>32.91943511718803</v>
       </c>
       <c r="Q40" t="n">
         <v>22.79171052799301</v>
@@ -34077,7 +34077,7 @@
         <v>12.23838891232802</v>
       </c>
       <c r="S40" t="n">
-        <v>4.743427324086699</v>
+        <v>4.7434273240867</v>
       </c>
       <c r="T40" t="n">
         <v>1.162968618842331</v>
@@ -34120,22 +34120,22 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6067878605742086</v>
+        <v>0.6067878605742087</v>
       </c>
       <c r="H41" t="n">
-        <v>6.214266177105616</v>
+        <v>6.214266177105618</v>
       </c>
       <c r="I41" t="n">
-        <v>23.3931889947872</v>
+        <v>23.39318899478721</v>
       </c>
       <c r="J41" t="n">
-        <v>51.50036118141029</v>
+        <v>51.5003611814103</v>
       </c>
       <c r="K41" t="n">
-        <v>77.18569131951655</v>
+        <v>77.18569131951656</v>
       </c>
       <c r="L41" t="n">
-        <v>95.75567530756452</v>
+        <v>95.75567530756453</v>
       </c>
       <c r="M41" t="n">
         <v>106.5466389230511</v>
@@ -34147,22 +34147,22 @@
         <v>102.2369281433228</v>
       </c>
       <c r="P41" t="n">
-        <v>87.25685283539698</v>
+        <v>87.25685283539701</v>
       </c>
       <c r="Q41" t="n">
-        <v>65.52626257858311</v>
+        <v>65.52626257858313</v>
       </c>
       <c r="R41" t="n">
         <v>38.11613794679467</v>
       </c>
       <c r="S41" t="n">
-        <v>13.82717837283479</v>
+        <v>13.8271783728348</v>
       </c>
       <c r="T41" t="n">
         <v>2.6562138596636</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04854302884593668</v>
+        <v>0.04854302884593669</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.3246601274760969</v>
+        <v>0.324660127476097</v>
       </c>
       <c r="H42" t="n">
         <v>3.135533336413884</v>
@@ -34211,37 +34211,37 @@
         <v>30.67326230685353</v>
       </c>
       <c r="K42" t="n">
-        <v>52.42549084775202</v>
+        <v>52.42549084775203</v>
       </c>
       <c r="L42" t="n">
-        <v>70.49254215221131</v>
+        <v>70.49254215221133</v>
       </c>
       <c r="M42" t="n">
-        <v>82.2614717732198</v>
+        <v>82.26147177321981</v>
       </c>
       <c r="N42" t="n">
-        <v>84.4386881544082</v>
+        <v>84.43868815440823</v>
       </c>
       <c r="O42" t="n">
-        <v>77.24490322454311</v>
+        <v>77.24490322454312</v>
       </c>
       <c r="P42" t="n">
         <v>61.99584486865925</v>
       </c>
       <c r="Q42" t="n">
-        <v>41.44258048273826</v>
+        <v>41.44258048273827</v>
       </c>
       <c r="R42" t="n">
-        <v>20.15740686206855</v>
+        <v>20.15740686206856</v>
       </c>
       <c r="S42" t="n">
-        <v>6.030419473075743</v>
+        <v>6.030419473075744</v>
       </c>
       <c r="T42" t="n">
-        <v>1.308608145397074</v>
+        <v>1.308608145397075</v>
       </c>
       <c r="U42" t="n">
-        <v>0.02135921891290112</v>
+        <v>0.02135921891290113</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,34 +34278,34 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2721841448354392</v>
+        <v>0.2721841448354393</v>
       </c>
       <c r="H43" t="n">
-        <v>2.419964487718725</v>
+        <v>2.419964487718726</v>
       </c>
       <c r="I43" t="n">
-        <v>8.185319555596667</v>
+        <v>8.185319555596669</v>
       </c>
       <c r="J43" t="n">
-        <v>19.24341903986555</v>
+        <v>19.24341903986556</v>
       </c>
       <c r="K43" t="n">
-        <v>31.62284882724466</v>
+        <v>31.62284882724467</v>
       </c>
       <c r="L43" t="n">
-        <v>40.46635913307977</v>
+        <v>40.46635913307978</v>
       </c>
       <c r="M43" t="n">
-        <v>42.66610190361344</v>
+        <v>42.66610190361345</v>
       </c>
       <c r="N43" t="n">
         <v>41.6515973637723</v>
       </c>
       <c r="O43" t="n">
-        <v>38.47199167183101</v>
+        <v>38.47199167183102</v>
       </c>
       <c r="P43" t="n">
-        <v>32.91943511718802</v>
+        <v>32.91943511718803</v>
       </c>
       <c r="Q43" t="n">
         <v>22.79171052799301</v>
@@ -34314,7 +34314,7 @@
         <v>12.23838891232802</v>
       </c>
       <c r="S43" t="n">
-        <v>4.743427324086699</v>
+        <v>4.7434273240867</v>
       </c>
       <c r="T43" t="n">
         <v>1.162968618842331</v>
@@ -34357,22 +34357,22 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.6067878605742086</v>
+        <v>0.6067878605742087</v>
       </c>
       <c r="H44" t="n">
-        <v>6.214266177105616</v>
+        <v>6.214266177105618</v>
       </c>
       <c r="I44" t="n">
-        <v>23.3931889947872</v>
+        <v>23.39318899478721</v>
       </c>
       <c r="J44" t="n">
-        <v>51.50036118141029</v>
+        <v>51.5003611814103</v>
       </c>
       <c r="K44" t="n">
-        <v>77.18569131951655</v>
+        <v>77.18569131951656</v>
       </c>
       <c r="L44" t="n">
-        <v>95.75567530756452</v>
+        <v>95.75567530756453</v>
       </c>
       <c r="M44" t="n">
         <v>106.5466389230511</v>
@@ -34384,22 +34384,22 @@
         <v>102.2369281433228</v>
       </c>
       <c r="P44" t="n">
-        <v>87.25685283539698</v>
+        <v>87.25685283539701</v>
       </c>
       <c r="Q44" t="n">
-        <v>65.52626257858311</v>
+        <v>65.52626257858313</v>
       </c>
       <c r="R44" t="n">
         <v>38.11613794679467</v>
       </c>
       <c r="S44" t="n">
-        <v>13.82717837283479</v>
+        <v>13.8271783728348</v>
       </c>
       <c r="T44" t="n">
         <v>2.6562138596636</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04854302884593668</v>
+        <v>0.04854302884593669</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3246601274760969</v>
+        <v>0.324660127476097</v>
       </c>
       <c r="H45" t="n">
         <v>3.135533336413884</v>
@@ -34448,37 +34448,37 @@
         <v>30.67326230685353</v>
       </c>
       <c r="K45" t="n">
-        <v>52.42549084775202</v>
+        <v>52.42549084775203</v>
       </c>
       <c r="L45" t="n">
-        <v>70.49254215221131</v>
+        <v>70.49254215221133</v>
       </c>
       <c r="M45" t="n">
-        <v>82.2614717732198</v>
+        <v>82.26147177321981</v>
       </c>
       <c r="N45" t="n">
-        <v>84.4386881544082</v>
+        <v>84.43868815440823</v>
       </c>
       <c r="O45" t="n">
-        <v>77.24490322454311</v>
+        <v>77.24490322454312</v>
       </c>
       <c r="P45" t="n">
         <v>61.99584486865925</v>
       </c>
       <c r="Q45" t="n">
-        <v>41.44258048273826</v>
+        <v>41.44258048273827</v>
       </c>
       <c r="R45" t="n">
-        <v>20.15740686206855</v>
+        <v>20.15740686206856</v>
       </c>
       <c r="S45" t="n">
-        <v>6.030419473075743</v>
+        <v>6.030419473075744</v>
       </c>
       <c r="T45" t="n">
-        <v>1.308608145397074</v>
+        <v>1.308608145397075</v>
       </c>
       <c r="U45" t="n">
-        <v>0.02135921891290112</v>
+        <v>0.02135921891290113</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,34 +34515,34 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2721841448354392</v>
+        <v>0.2721841448354393</v>
       </c>
       <c r="H46" t="n">
-        <v>2.419964487718725</v>
+        <v>2.419964487718726</v>
       </c>
       <c r="I46" t="n">
-        <v>8.185319555596667</v>
+        <v>8.185319555596669</v>
       </c>
       <c r="J46" t="n">
-        <v>19.24341903986555</v>
+        <v>19.24341903986556</v>
       </c>
       <c r="K46" t="n">
-        <v>31.62284882724466</v>
+        <v>31.62284882724467</v>
       </c>
       <c r="L46" t="n">
-        <v>40.46635913307977</v>
+        <v>40.46635913307978</v>
       </c>
       <c r="M46" t="n">
-        <v>42.66610190361344</v>
+        <v>42.66610190361345</v>
       </c>
       <c r="N46" t="n">
         <v>41.6515973637723</v>
       </c>
       <c r="O46" t="n">
-        <v>38.47199167183101</v>
+        <v>38.47199167183102</v>
       </c>
       <c r="P46" t="n">
-        <v>32.91943511718802</v>
+        <v>32.91943511718803</v>
       </c>
       <c r="Q46" t="n">
         <v>22.79171052799301</v>
@@ -34551,7 +34551,7 @@
         <v>12.23838891232802</v>
       </c>
       <c r="S46" t="n">
-        <v>4.743427324086699</v>
+        <v>4.7434273240867</v>
       </c>
       <c r="T46" t="n">
         <v>1.162968618842331</v>
@@ -35170,10 +35170,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35185,13 +35185,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>1.382615682998239e-12</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35209,7 +35209,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>-1.837363033884704e-12</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35261,10 +35261,10 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1.837363033884704e-12</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35334,13 +35334,13 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>9.27868332111775e-13</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>124.2261634771736</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>319.751723687984</v>
       </c>
       <c r="L11" t="n">
-        <v>374.9385124422569</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>42.07111722934128</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>374.9385124422569</v>
+        <v>187.0578775352282</v>
       </c>
       <c r="O11" t="n">
-        <v>374.9385124422569</v>
+        <v>374.9385124422568</v>
       </c>
       <c r="P11" t="n">
         <v>317.7183644071679</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>160.912377413469</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>91.53603658271832</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>284.2341297974376</v>
       </c>
       <c r="L12" t="n">
-        <v>276.0487194196135</v>
+        <v>374.9385124422568</v>
       </c>
       <c r="M12" t="n">
-        <v>374.9385124422569</v>
+        <v>165.9452389699828</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>374.9385124422569</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>367.1432380764343</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>200.8078630944496</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35589,7 +35589,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>9.186815169423518e-13</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35647,19 +35647,19 @@
         <v>124.2261634771736</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>319.751723687984</v>
       </c>
       <c r="L14" t="n">
-        <v>374.9385124422569</v>
+        <v>374.9385124422568</v>
       </c>
       <c r="M14" t="n">
-        <v>74.65094074586656</v>
+        <v>374.9385124422568</v>
       </c>
       <c r="N14" t="n">
-        <v>374.9385124422569</v>
+        <v>129.8377295001393</v>
       </c>
       <c r="O14" t="n">
-        <v>374.9385124422569</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>91.53603658271832</v>
+        <v>91.53603658271834</v>
       </c>
       <c r="K15" t="n">
         <v>284.2341297974376</v>
@@ -35735,10 +35735,10 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>165.9452389699832</v>
+        <v>374.9385124422568</v>
       </c>
       <c r="O15" t="n">
-        <v>374.9385124422569</v>
+        <v>165.9452389699828</v>
       </c>
       <c r="P15" t="n">
         <v>367.1432380764343</v>
@@ -35805,7 +35805,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>65.56647281173296</v>
+        <v>65.56647281173298</v>
       </c>
       <c r="L16" t="n">
         <v>142.0896716585944</v>
@@ -35817,7 +35817,7 @@
         <v>161.2701243835706</v>
       </c>
       <c r="O16" t="n">
-        <v>137.9302204553559</v>
+        <v>137.930220455356</v>
       </c>
       <c r="P16" t="n">
         <v>96.52396413550903</v>
@@ -35887,22 +35887,22 @@
         <v>319.751723687984</v>
       </c>
       <c r="L17" t="n">
-        <v>374.9385124422569</v>
+        <v>187.0578775352282</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>374.9385124422568</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>347.9702549486976</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>317.7183644071679</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>160.912377413469</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,22 +35960,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>91.53603658271832</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>284.2341297974376</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>165.9452389699832</v>
+        <v>374.9385124422568</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>166.7768929078821</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>374.9385124422569</v>
+        <v>374.9385124422568</v>
       </c>
       <c r="P18" t="n">
         <v>367.1432380764343</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>124.2261634771736</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>319.751723687984</v>
       </c>
       <c r="L20" t="n">
-        <v>374.9385124422569</v>
+        <v>374.9385124422568</v>
       </c>
       <c r="M20" t="n">
-        <v>374.9385124422569</v>
+        <v>187.0578775352281</v>
       </c>
       <c r="N20" t="n">
-        <v>374.9385124422569</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>359.7894816365092</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>317.7183644071679</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>160.912377413469</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>75.55535183907166</v>
       </c>
       <c r="K21" t="n">
         <v>284.2341297974376</v>
       </c>
       <c r="L21" t="n">
-        <v>374.9385124422569</v>
+        <v>374.9385124422568</v>
       </c>
       <c r="M21" t="n">
-        <v>374.9385124422569</v>
+        <v>374.9385124422568</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>374.9385124422568</v>
       </c>
       <c r="O21" t="n">
-        <v>83.35062620489423</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>367.1432380764343</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36355,28 +36355,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>124.2261634771736</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>319.751723687984</v>
       </c>
       <c r="L23" t="n">
-        <v>374.9385124422569</v>
+        <v>374.9385124422568</v>
       </c>
       <c r="M23" t="n">
-        <v>374.9385124422569</v>
+        <v>187.0578775352281</v>
       </c>
       <c r="N23" t="n">
-        <v>374.9385124422569</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>359.7894816365092</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>317.7183644071679</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>160.912377413469</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>91.53603658271832</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>284.2341297974376</v>
+        <v>166.7768929078821</v>
       </c>
       <c r="L24" t="n">
-        <v>374.9385124422569</v>
+        <v>374.9385124422568</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -36449,13 +36449,13 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>366.7531020644329</v>
+        <v>374.9385124422568</v>
       </c>
       <c r="P24" t="n">
         <v>367.1432380764343</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>200.8078630944496</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,13 +36592,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>225.3454636993784</v>
+        <v>124.2261634771736</v>
       </c>
       <c r="K26" t="n">
-        <v>415.2442826452516</v>
+        <v>420.8710239101888</v>
       </c>
       <c r="L26" t="n">
-        <v>447.1550420600354</v>
+        <v>493.1440664874085</v>
       </c>
       <c r="M26" t="n">
         <v>604.8772181887791</v>
@@ -36616,7 +36616,7 @@
         <v>262.0316776356738</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>49.5035345298943</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,19 +36671,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>91.53603658271832</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>284.2341297974376</v>
+        <v>47.45255990876075</v>
       </c>
       <c r="L27" t="n">
-        <v>440.0095574755604</v>
+        <v>440.0095574755605</v>
       </c>
       <c r="M27" t="n">
-        <v>43.06868252073506</v>
+        <v>572.1941520865798</v>
       </c>
       <c r="N27" t="n">
-        <v>600.8686337333194</v>
+        <v>600.8686337333195</v>
       </c>
       <c r="O27" t="n">
         <v>473.4064696731804</v>
@@ -36692,7 +36692,7 @@
         <v>367.1432380764343</v>
       </c>
       <c r="Q27" t="n">
-        <v>200.8078630944496</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>60.90605306210139</v>
+        <v>60.90605306210137</v>
       </c>
       <c r="K28" t="n">
-        <v>166.6857730339369</v>
+        <v>166.6857730339378</v>
       </c>
       <c r="L28" t="n">
         <v>243.2089718807993</v>
@@ -36762,16 +36762,16 @@
         <v>262.9707618506685</v>
       </c>
       <c r="N28" t="n">
-        <v>262.3894246057755</v>
+        <v>262.3894246057754</v>
       </c>
       <c r="O28" t="n">
-        <v>239.0495206775608</v>
+        <v>239.0495206775607</v>
       </c>
       <c r="P28" t="n">
         <v>197.6432643577139</v>
       </c>
       <c r="Q28" t="n">
-        <v>85.75904281735001</v>
+        <v>85.75904281734998</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,10 +36829,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>170.2151879045471</v>
+        <v>225.3454636993784</v>
       </c>
       <c r="K29" t="n">
-        <v>319.751723687984</v>
+        <v>420.8710239101888</v>
       </c>
       <c r="L29" t="n">
         <v>548.2743422822402</v>
@@ -36844,16 +36844,16 @@
         <v>591.5428627174616</v>
       </c>
       <c r="O29" t="n">
-        <v>511.4416672269761</v>
+        <v>505.8149259620383</v>
       </c>
       <c r="P29" t="n">
         <v>418.8376646293727</v>
       </c>
       <c r="Q29" t="n">
-        <v>262.0316776356738</v>
+        <v>160.912377413469</v>
       </c>
       <c r="R29" t="n">
-        <v>49.50353452989431</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,19 +36908,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>91.53603658271832</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>284.2341297974376</v>
+        <v>47.45255990876075</v>
       </c>
       <c r="L30" t="n">
-        <v>440.0095574755604</v>
+        <v>440.0095574755605</v>
       </c>
       <c r="M30" t="n">
-        <v>43.06868252073506</v>
+        <v>572.1941520865798</v>
       </c>
       <c r="N30" t="n">
-        <v>600.8686337333194</v>
+        <v>600.8686337333195</v>
       </c>
       <c r="O30" t="n">
         <v>473.4064696731804</v>
@@ -36929,7 +36929,7 @@
         <v>367.1432380764343</v>
       </c>
       <c r="Q30" t="n">
-        <v>200.8078630944496</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>60.90605306210138</v>
+        <v>60.90605306210137</v>
       </c>
       <c r="K31" t="n">
         <v>166.6857730339378</v>
@@ -37002,7 +37002,7 @@
         <v>262.3894246057754</v>
       </c>
       <c r="O31" t="n">
-        <v>239.0495206775608</v>
+        <v>239.0495206775607</v>
       </c>
       <c r="P31" t="n">
         <v>197.6432643577139</v>
@@ -37081,16 +37081,16 @@
         <v>591.5428627174616</v>
       </c>
       <c r="O32" t="n">
-        <v>511.4416672269761</v>
+        <v>410.3223670047713</v>
       </c>
       <c r="P32" t="n">
-        <v>317.7183644071679</v>
+        <v>418.8376646293727</v>
       </c>
       <c r="Q32" t="n">
-        <v>206.9014018408407</v>
+        <v>206.9014018408421</v>
       </c>
       <c r="R32" t="n">
-        <v>49.50353452989431</v>
+        <v>49.50353452989427</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,16 +37148,16 @@
         <v>91.53603658271832</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>284.2341297974376</v>
       </c>
       <c r="L33" t="n">
-        <v>195.1182177071533</v>
+        <v>440.0095574755605</v>
       </c>
       <c r="M33" t="n">
         <v>572.1941520865798</v>
       </c>
       <c r="N33" t="n">
-        <v>600.8686337333194</v>
+        <v>71.74316416747462</v>
       </c>
       <c r="O33" t="n">
         <v>473.4064696731804</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>60.90605306210138</v>
+        <v>60.90605306210134</v>
       </c>
       <c r="K34" t="n">
-        <v>166.6857730339378</v>
+        <v>166.6857730339377</v>
       </c>
       <c r="L34" t="n">
-        <v>243.2089718807993</v>
+        <v>243.2089718807992</v>
       </c>
       <c r="M34" t="n">
         <v>262.9707618506685</v>
       </c>
       <c r="N34" t="n">
-        <v>262.3894246057755</v>
+        <v>262.3894246057754</v>
       </c>
       <c r="O34" t="n">
-        <v>239.0495206775608</v>
+        <v>239.0495206775607</v>
       </c>
       <c r="P34" t="n">
-        <v>197.6432643577139</v>
+        <v>197.6432643577138</v>
       </c>
       <c r="Q34" t="n">
-        <v>85.75904281734998</v>
+        <v>85.75904281735045</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,28 +37303,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>124.2261634771736</v>
       </c>
       <c r="K35" t="n">
         <v>319.751723687984</v>
       </c>
       <c r="L35" t="n">
-        <v>447.1550420600354</v>
+        <v>447.1550420600355</v>
       </c>
       <c r="M35" t="n">
-        <v>503.7579179665743</v>
+        <v>152.6865763092679</v>
       </c>
       <c r="N35" t="n">
         <v>490.4235624952568</v>
       </c>
       <c r="O35" t="n">
-        <v>410.3223670047712</v>
+        <v>410.3223670047713</v>
       </c>
       <c r="P35" t="n">
-        <v>251.785563640504</v>
+        <v>317.7183644071679</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>160.912377413469</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,19 +37382,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>91.53603658271832</v>
+        <v>85.40076665148388</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>284.2341297974376</v>
       </c>
       <c r="L36" t="n">
-        <v>440.0095574755604</v>
+        <v>440.0095574755605</v>
       </c>
       <c r="M36" t="n">
         <v>572.1941520865798</v>
       </c>
       <c r="N36" t="n">
-        <v>478.9067229606529</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>473.4064696731804</v>
@@ -37403,7 +37403,7 @@
         <v>367.1432380764343</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>200.8078630944496</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,13 +37540,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>124.2261634771736</v>
       </c>
       <c r="K38" t="n">
-        <v>253.8189229213203</v>
+        <v>319.751723687984</v>
       </c>
       <c r="L38" t="n">
-        <v>447.1550420600354</v>
+        <v>447.1550420600355</v>
       </c>
       <c r="M38" t="n">
         <v>503.7579179665743</v>
@@ -37555,13 +37555,13 @@
         <v>490.4235624952568</v>
       </c>
       <c r="O38" t="n">
-        <v>410.3223670047712</v>
+        <v>376.9693897546326</v>
       </c>
       <c r="P38" t="n">
-        <v>317.7183644071679</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>160.912377413469</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,19 +37619,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>85.40076665148393</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>284.2341297974376</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>440.0095574755604</v>
+        <v>208.7758201911624</v>
       </c>
       <c r="M39" t="n">
         <v>572.1941520865798</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>600.8686337333195</v>
       </c>
       <c r="O39" t="n">
         <v>473.4064696731804</v>
@@ -37783,22 +37783,22 @@
         <v>319.751723687984</v>
       </c>
       <c r="L41" t="n">
-        <v>447.1550420600354</v>
+        <v>447.1550420600355</v>
       </c>
       <c r="M41" t="n">
-        <v>437.8251171999106</v>
+        <v>276.9127397864415</v>
       </c>
       <c r="N41" t="n">
         <v>490.4235624952568</v>
       </c>
       <c r="O41" t="n">
-        <v>410.3223670047712</v>
+        <v>410.3223670047713</v>
       </c>
       <c r="P41" t="n">
         <v>317.7183644071679</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>160.912377413469</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,19 +37856,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>91.53603658271832</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>284.2341297974376</v>
       </c>
       <c r="L42" t="n">
-        <v>33.8135169054563</v>
+        <v>440.0095574755605</v>
       </c>
       <c r="M42" t="n">
-        <v>572.1941520865798</v>
+        <v>56.72628500474424</v>
       </c>
       <c r="N42" t="n">
-        <v>600.8686337333194</v>
+        <v>600.8686337333195</v>
       </c>
       <c r="O42" t="n">
         <v>473.4064696731804</v>
@@ -37877,7 +37877,7 @@
         <v>367.1432380764343</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>200.8078630944496</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38020,7 +38020,7 @@
         <v>319.751723687984</v>
       </c>
       <c r="L44" t="n">
-        <v>447.1550420600354</v>
+        <v>447.1550420600355</v>
       </c>
       <c r="M44" t="n">
         <v>503.7579179665743</v>
@@ -38029,7 +38029,7 @@
         <v>490.4235624952568</v>
       </c>
       <c r="O44" t="n">
-        <v>59.25102534746487</v>
+        <v>59.25102534746464</v>
       </c>
       <c r="P44" t="n">
         <v>317.7183644071679</v>
@@ -38099,16 +38099,16 @@
         <v>284.2341297974376</v>
       </c>
       <c r="L45" t="n">
-        <v>440.0095574755604</v>
+        <v>306.4121234841869</v>
       </c>
       <c r="M45" t="n">
-        <v>566.0588821553455</v>
+        <v>572.1941520865798</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>600.8686337333195</v>
       </c>
       <c r="O45" t="n">
-        <v>473.4064696731804</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>367.1432380764343</v>
